--- a/DDAf_2023_Tableau_annexe_Tab27.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab27.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab27" sheetId="1" r:id="rId1"/>
@@ -3250,7 +3250,7 @@
         <v>261.07621863994802</v>
       </c>
       <c r="L45" s="26">
-        <v>206.41570988202301</v>
+        <v>206.41570988202201</v>
       </c>
       <c r="M45" s="26">
         <v>246.960040907977</v>

--- a/DDAf_2023_Tableau_annexe_Tab27.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab27.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7FD7AB1-75B0-4BC5-9F46-4859400CA435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8365C8E-8B48-4E8F-95C4-8664B5649632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{538D1E4B-63A6-4D70-A657-ADB284BA9D9B}"/>
+    <workbookView xWindow="31080" yWindow="1125" windowWidth="17280" windowHeight="15075" xr2:uid="{3F2C8659-8A51-42EA-B9A1-1F1CD6FF582B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab27" sheetId="1" r:id="rId1"/>
@@ -1394,7 +1394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686B7A1B-BC68-4861-B7C7-8A720964E01F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EF1BF4-C5AF-4055-B0AE-E8759E39D6A5}">
   <dimension ref="A1:X114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -1623,7 +1623,7 @@
         <v>360.69631540260002</v>
       </c>
       <c r="N4" s="17">
-        <v>8.3658458798705801</v>
+        <v>8.3658458798705695</v>
       </c>
       <c r="O4" s="18">
         <v>0.79624549740830997</v>
@@ -1703,7 +1703,7 @@
         <v>4.06305265371474</v>
       </c>
       <c r="P5" s="23">
-        <v>2.0071603370511202</v>
+        <v>2.00716033705113</v>
       </c>
       <c r="Q5" s="23">
         <v>2.0316527564960101</v>
@@ -1771,37 +1771,37 @@
         <v>39.963386739050001</v>
       </c>
       <c r="N6" s="22">
-        <v>6.6462077857913204</v>
+        <v>6.4339233979689903</v>
       </c>
       <c r="O6" s="23">
-        <v>6.2291544787889599</v>
+        <v>6.0301910566691399</v>
       </c>
       <c r="P6" s="23">
-        <v>1.5005585303519999E-2</v>
+        <v>1.452629672382E-2</v>
       </c>
       <c r="Q6" s="23">
-        <v>0.14361919251166</v>
+        <v>0.13903189802065</v>
       </c>
       <c r="R6" s="23">
-        <v>0.83661902127496002</v>
+        <v>0.80989684187642996</v>
       </c>
       <c r="S6" s="22">
-        <v>5.3925354575139997</v>
+        <v>5.2202942147927196</v>
       </c>
       <c r="T6" s="23">
-        <v>1.8366280391668</v>
+        <v>1.7779648929760701</v>
       </c>
       <c r="U6" s="23">
-        <v>1.112285678269E-2</v>
+        <v>1.076758518736E-2</v>
       </c>
       <c r="V6" s="23">
-        <v>2.3739142821770001E-2</v>
+        <v>2.298089848699E-2</v>
       </c>
       <c r="W6" s="23">
-        <v>9.8087743609589995E-2</v>
+        <v>9.4954754501189995E-2</v>
       </c>
       <c r="X6" s="22">
-        <v>1.73854029555721</v>
+        <v>1.6830101384748699</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
@@ -1845,7 +1845,7 @@
         <v>278.31285076815999</v>
       </c>
       <c r="N7" s="22">
-        <v>7.5814990912712403</v>
+        <v>7.5814990912711897</v>
       </c>
       <c r="O7" s="23">
         <v>1.1514108219150201</v>
@@ -1863,7 +1863,7 @@
         <v>0.71171544282182997</v>
       </c>
       <c r="T7" s="23">
-        <v>2.7722517989873001</v>
+        <v>2.7722517989872801</v>
       </c>
       <c r="U7" s="23">
         <v>1.787395643626E-2</v>
@@ -1875,7 +1875,7 @@
         <v>0.24917266399720001</v>
       </c>
       <c r="X7" s="22">
-        <v>2.5230791349900898</v>
+        <v>2.5230791349900801</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
@@ -1993,16 +1993,16 @@
         <v>294.63096039991001</v>
       </c>
       <c r="N9" s="22">
-        <v>10.182336359940701</v>
+        <v>10.182336359940599</v>
       </c>
       <c r="O9" s="23">
-        <v>3.31603665147574</v>
+        <v>3.3160366514757298</v>
       </c>
       <c r="P9" s="23">
         <v>1.9554823773940899</v>
       </c>
       <c r="Q9" s="23">
-        <v>1.96136256180178</v>
+        <v>1.96136256180177</v>
       </c>
       <c r="R9" s="23">
         <v>2.0276664540081599</v>
@@ -2082,7 +2082,7 @@
         <v>0.19761761708834</v>
       </c>
       <c r="S10" s="22">
-        <v>5.5655729550978004</v>
+        <v>5.5655729550977897</v>
       </c>
       <c r="T10" s="23">
         <v>8.8184749771222695</v>
@@ -2097,7 +2097,7 @@
         <v>0.17840958284802999</v>
       </c>
       <c r="X10" s="22">
-        <v>8.6400653942742505</v>
+        <v>8.6400653942742398</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
@@ -2156,10 +2156,10 @@
         <v>0.44239898806667999</v>
       </c>
       <c r="S11" s="17">
-        <v>1.13995060972839</v>
+        <v>1.13995060972838</v>
       </c>
       <c r="T11" s="18">
-        <v>6.1993800204105396</v>
+        <v>6.1993800204105298</v>
       </c>
       <c r="U11" s="18">
         <v>9.4510061689929994E-2</v>
@@ -2171,7 +2171,7 @@
         <v>0.94902988178295</v>
       </c>
       <c r="X11" s="17">
-        <v>5.2503501386275904</v>
+        <v>5.2503501386275797</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2215,37 +2215,37 @@
         <v>1055.0708172679999</v>
       </c>
       <c r="N12" s="22">
-        <v>0.56766999796474005</v>
+        <v>0.50144152575620005</v>
       </c>
       <c r="O12" s="23">
-        <v>6.6536190322470004E-2</v>
+        <v>5.8773598944679997E-2</v>
       </c>
       <c r="P12" s="23">
-        <v>3.0861032481980001E-2</v>
+        <v>2.7260562068910001E-2</v>
       </c>
       <c r="Q12" s="23">
-        <v>3.1135286554569999E-2</v>
+        <v>2.7502819685299999E-2</v>
       </c>
       <c r="R12" s="23">
-        <v>3.3857409352969998E-2</v>
+        <v>2.9907360024260001E-2</v>
       </c>
       <c r="S12" s="22">
-        <v>3.2678780969499999E-2</v>
+        <v>2.8866238920410001E-2</v>
       </c>
       <c r="T12" s="23">
-        <v>4.7021332486449898</v>
+        <v>4.1535485034668902</v>
       </c>
       <c r="U12" s="23">
-        <v>2.9567852102639999E-2</v>
+        <v>2.611825343041E-2</v>
       </c>
       <c r="V12" s="23">
-        <v>5.066396815733E-2</v>
+        <v>4.4753144581809998E-2</v>
       </c>
       <c r="W12" s="23">
-        <v>0.11393759703827</v>
+        <v>0.10064481601054</v>
       </c>
       <c r="X12" s="22">
-        <v>4.5881956516067204</v>
+        <v>4.0529036874563502</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2289,37 +2289,37 @@
         <v>45287.6266558223</v>
       </c>
       <c r="N13" s="28">
-        <v>19.484673344386302</v>
+        <v>19.4819986464354</v>
       </c>
       <c r="O13" s="29">
-        <v>4.3398789798947099</v>
+        <v>4.3387587912235803</v>
       </c>
       <c r="P13" s="29">
-        <v>0.1027889803847</v>
+        <v>0.10269324546001</v>
       </c>
       <c r="Q13" s="29">
-        <v>0.15373241045637001</v>
+        <v>0.15361681112096001</v>
       </c>
       <c r="R13" s="29">
-        <v>0.25719010508547002</v>
+        <v>0.25696336528816</v>
       </c>
       <c r="S13" s="28">
-        <v>4.08268887480925</v>
+        <v>4.0817954259354297</v>
       </c>
       <c r="T13" s="29">
-        <v>7.9828696779638202</v>
+        <v>7.9683352004528301</v>
       </c>
       <c r="U13" s="29">
-        <v>9.4946455406510005E-2</v>
+        <v>9.4855209289310002E-2</v>
       </c>
       <c r="V13" s="29">
-        <v>0.16002743565208</v>
+        <v>0.15987038587405</v>
       </c>
       <c r="W13" s="29">
-        <v>0.20514816443386999</v>
+        <v>0.20478803142957999</v>
       </c>
       <c r="X13" s="28">
-        <v>7.7777215135299498</v>
+        <v>7.7635471690232603</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
@@ -2363,10 +2363,10 @@
         <v>68.0965145989001</v>
       </c>
       <c r="N14" s="22">
-        <v>4.9881399317075203</v>
+        <v>4.9881399317075097</v>
       </c>
       <c r="O14" s="23">
-        <v>0.92131344781547997</v>
+        <v>0.92131344781546998</v>
       </c>
       <c r="P14" s="23">
         <v>1.512338541086E-2</v>
@@ -2378,10 +2378,10 @@
         <v>0.13011021069968001</v>
       </c>
       <c r="S14" s="22">
-        <v>0.79120323711579998</v>
+        <v>0.79120323711578999</v>
       </c>
       <c r="T14" s="23">
-        <v>2.3501820928925099</v>
+        <v>2.3501820928925001</v>
       </c>
       <c r="U14" s="23">
         <v>3.06321268623E-3</v>
@@ -2452,7 +2452,7 @@
         <v>6.8606902402760003E-2</v>
       </c>
       <c r="S15" s="22">
-        <v>0.37460313299392001</v>
+        <v>0.37460313299391002</v>
       </c>
       <c r="T15" s="23">
         <v>3.4186826233716698</v>
@@ -2511,37 +2511,37 @@
         <v>99.001551283560104</v>
       </c>
       <c r="N16" s="22">
-        <v>6.8091719522410896</v>
+        <v>6.8091279984330804</v>
       </c>
       <c r="O16" s="23">
-        <v>1.60697276133467</v>
+        <v>1.6069623881831701</v>
       </c>
       <c r="P16" s="23">
-        <v>7.8814167911199995E-2</v>
+        <v>7.8813659158770005E-2</v>
       </c>
       <c r="Q16" s="23">
-        <v>7.4732687701469999E-2</v>
+        <v>7.4732205295350004E-2</v>
       </c>
       <c r="R16" s="23">
-        <v>0.19948151368795999</v>
+        <v>0.19948022601712001</v>
       </c>
       <c r="S16" s="22">
-        <v>1.4074912476467101</v>
+        <v>1.40748216216606</v>
       </c>
       <c r="T16" s="23">
-        <v>4.4454389155026499</v>
+        <v>4.4454102198007304</v>
       </c>
       <c r="U16" s="23">
-        <v>2.1973594120440001E-2</v>
+        <v>2.1973452278940001E-2</v>
       </c>
       <c r="V16" s="23">
-        <v>2.5474107453790001E-2</v>
+        <v>2.5473943016170002E-2</v>
       </c>
       <c r="W16" s="23">
-        <v>0.10025628087483</v>
+        <v>0.10025563371166001</v>
       </c>
       <c r="X16" s="22">
-        <v>4.34518263462782</v>
+        <v>4.3451545860890697</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
@@ -2585,7 +2585,7 @@
         <v>422.43278138120002</v>
       </c>
       <c r="N17" s="33">
-        <v>7.7474072582972298</v>
+        <v>7.7474072582972102</v>
       </c>
       <c r="O17" s="34">
         <v>0.10391914871383</v>
@@ -2603,7 +2603,7 @@
         <v>9.2740785426540004E-2</v>
       </c>
       <c r="T17" s="34">
-        <v>4.0306769028169898</v>
+        <v>4.03067690281698</v>
       </c>
       <c r="U17" s="34">
         <v>2.7379277944150002E-2</v>
@@ -2615,7 +2615,7 @@
         <v>0.18782575902904999</v>
       </c>
       <c r="X17" s="33">
-        <v>3.8428511437879398</v>
+        <v>3.84285114378793</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
@@ -2659,37 +2659,37 @@
         <v>1351.0401017208001</v>
       </c>
       <c r="N18" s="33">
-        <v>36.633865127788901</v>
+        <v>36.294447598983098</v>
       </c>
       <c r="O18" s="34">
-        <v>4.8627307256116303</v>
+        <v>4.8176768924881603</v>
       </c>
       <c r="P18" s="34">
-        <v>0.10843000851574</v>
+        <v>0.10742539037319999</v>
       </c>
       <c r="Q18" s="34">
-        <v>0.11327307419422999</v>
+        <v>0.11222358441779</v>
       </c>
       <c r="R18" s="34">
-        <v>0.33293773554271999</v>
+        <v>0.32985302408653</v>
       </c>
       <c r="S18" s="33">
-        <v>4.5297929900689198</v>
+        <v>4.48782386840164</v>
       </c>
       <c r="T18" s="34">
-        <v>10.6266593416055</v>
+        <v>10.528201959601001</v>
       </c>
       <c r="U18" s="34">
-        <v>7.8741603335300003E-3</v>
+        <v>7.8012052131100004E-3</v>
       </c>
       <c r="V18" s="34">
-        <v>7.72814467907E-3</v>
+        <v>7.6565424126999997E-3</v>
       </c>
       <c r="W18" s="34">
-        <v>6.3851582740370005E-2</v>
+        <v>6.3259989515129997E-2</v>
       </c>
       <c r="X18" s="33">
-        <v>10.562807758865199</v>
+        <v>10.464941970085899</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.35">
@@ -2733,37 +2733,37 @@
         <v>1975.1293320013999</v>
       </c>
       <c r="N19" s="17">
-        <v>4.1715291661195302</v>
+        <v>4.1311825111250702</v>
       </c>
       <c r="O19" s="18">
-        <v>0.26532722070323</v>
+        <v>0.26276099968257999</v>
       </c>
       <c r="P19" s="18">
-        <v>3.5745510920980002E-2</v>
+        <v>3.5399783553550002E-2</v>
       </c>
       <c r="Q19" s="18">
-        <v>3.9184401291400004E-3</v>
+        <v>3.8805413285500001E-3</v>
       </c>
       <c r="R19" s="18">
-        <v>6.8907023349099997E-2</v>
+        <v>6.8240560815330004E-2</v>
       </c>
       <c r="S19" s="17">
-        <v>0.19642019735414001</v>
+        <v>0.19452043886726</v>
       </c>
       <c r="T19" s="18">
-        <v>4.0175523516857101</v>
+        <v>3.9786949465949899</v>
       </c>
       <c r="U19" s="18">
-        <v>4.3380861570680003E-2</v>
+        <v>4.2961285778339998E-2</v>
       </c>
       <c r="V19" s="18">
-        <v>2.48183834077E-3</v>
+        <v>2.4578342235099999E-3</v>
       </c>
       <c r="W19" s="18">
-        <v>9.855416993834E-2</v>
+        <v>9.7600962868599997E-2</v>
       </c>
       <c r="X19" s="17">
-        <v>3.91899818174736</v>
+        <v>3.88109398372639</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
@@ -2955,10 +2955,10 @@
         <v>35.717613185250002</v>
       </c>
       <c r="N22" s="22">
-        <v>27.287162063321801</v>
+        <v>27.2871620633215</v>
       </c>
       <c r="O22" s="23">
-        <v>8.1304925043011504</v>
+        <v>8.1304925043010705</v>
       </c>
       <c r="P22" s="23">
         <v>0</v>
@@ -2967,13 +2967,13 @@
         <v>0.15665268898573001</v>
       </c>
       <c r="R22" s="23">
-        <v>1.00835976627571</v>
+        <v>1.0083597662757</v>
       </c>
       <c r="S22" s="22">
-        <v>7.1221327380254396</v>
+        <v>7.1221327380253703</v>
       </c>
       <c r="T22" s="23">
-        <v>8.6894472606283504</v>
+        <v>8.6894472606282598</v>
       </c>
       <c r="U22" s="23">
         <v>0</v>
@@ -2985,7 +2985,7 @@
         <v>0.39595360391998002</v>
       </c>
       <c r="X22" s="22">
-        <v>8.2934936567083604</v>
+        <v>8.2934936567082804</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3029,37 +3029,37 @@
         <v>6345.9236747856103</v>
       </c>
       <c r="N23" s="28">
-        <v>9.00373345862468</v>
+        <v>8.9434449505050093</v>
       </c>
       <c r="O23" s="29">
-        <v>0.94781627715573002</v>
+        <v>0.94059032838395995</v>
       </c>
       <c r="P23" s="29">
-        <v>4.1303058335990003E-2</v>
+        <v>4.1120855031750003E-2</v>
       </c>
       <c r="Q23" s="29">
-        <v>1.843006609318E-2</v>
+        <v>1.8286538941860001E-2</v>
       </c>
       <c r="R23" s="29">
-        <v>0.10158602459967001</v>
+        <v>0.10102932384285</v>
       </c>
       <c r="S23" s="28">
-        <v>0.84623025255605</v>
+        <v>0.83956100454111005</v>
       </c>
       <c r="T23" s="29">
-        <v>4.53855039394091</v>
+        <v>4.5187659328205303</v>
       </c>
       <c r="U23" s="29">
-        <v>3.5604367496610001E-2</v>
+        <v>3.5507260130049997E-2</v>
       </c>
       <c r="V23" s="29">
-        <v>2.3728793250939999E-2</v>
+        <v>2.3487790964929998E-2</v>
       </c>
       <c r="W23" s="29">
-        <v>9.9692136140670004E-2</v>
+        <v>9.9278622945300002E-2</v>
       </c>
       <c r="X23" s="28">
-        <v>4.4388582578002502</v>
+        <v>4.4194873098752296</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.35">
@@ -3207,7 +3207,7 @@
         <v>9.4551252456809995E-2</v>
       </c>
       <c r="X25" s="22">
-        <v>1.31971828253051</v>
+        <v>1.3197182825305001</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.35">
@@ -3254,7 +3254,7 @@
         <v>12.0137423750678</v>
       </c>
       <c r="O26" s="23">
-        <v>0.56396065353993996</v>
+        <v>0.56396065353992997</v>
       </c>
       <c r="P26" s="23">
         <v>7.6427313536899999E-3</v>
@@ -3269,7 +3269,7 @@
         <v>0.48165855861489998</v>
       </c>
       <c r="T26" s="23">
-        <v>5.8478437359645499</v>
+        <v>5.8478437359645197</v>
       </c>
       <c r="U26" s="23">
         <v>1.0083224730679999E-2</v>
@@ -3281,7 +3281,7 @@
         <v>0.31320930871241998</v>
       </c>
       <c r="X26" s="22">
-        <v>5.5346344272521204</v>
+        <v>5.5346344272520902</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.35">
@@ -3325,7 +3325,7 @@
         <v>904.76693970450003</v>
       </c>
       <c r="N27" s="22">
-        <v>3.9981902627121602</v>
+        <v>3.9981902627121499</v>
       </c>
       <c r="O27" s="23">
         <v>0.17118789658433001</v>
@@ -3399,37 +3399,37 @@
         <v>1882.6853766221</v>
       </c>
       <c r="N28" s="22">
-        <v>5.9972950255877198</v>
+        <v>5.9942906934335198</v>
       </c>
       <c r="O28" s="23">
-        <v>0.67396883359644</v>
+        <v>0.67363121034645002</v>
       </c>
       <c r="P28" s="23">
-        <v>6.7611996906899998E-3</v>
+        <v>6.7578126821199996E-3</v>
       </c>
       <c r="Q28" s="23">
-        <v>8.1680769687300005E-3</v>
+        <v>8.1639851879900006E-3</v>
       </c>
       <c r="R28" s="23">
-        <v>4.8145650842850003E-2</v>
+        <v>4.8121532381719997E-2</v>
       </c>
       <c r="S28" s="22">
-        <v>0.62582318275360005</v>
+        <v>0.62550967796473</v>
       </c>
       <c r="T28" s="23">
-        <v>1.9657430948184</v>
+        <v>1.9647583600068701</v>
       </c>
       <c r="U28" s="23">
-        <v>4.1646902457209999E-2</v>
+        <v>4.1626039530230002E-2</v>
       </c>
       <c r="V28" s="23">
-        <v>4.7367080635249997E-2</v>
+        <v>4.7343352197220002E-2</v>
       </c>
       <c r="W28" s="23">
-        <v>8.9216120564960005E-2</v>
+        <v>8.9171427939620004E-2</v>
       </c>
       <c r="X28" s="22">
-        <v>1.8765269742534301</v>
+        <v>1.87558693206725</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.35">
@@ -3547,37 +3547,37 @@
         <v>636.58414771929995</v>
       </c>
       <c r="N30" s="22">
-        <v>14.247046663723101</v>
+        <v>13.8616229162338</v>
       </c>
       <c r="O30" s="23">
-        <v>6.57628876645538</v>
+        <v>6.3983811677252502</v>
       </c>
       <c r="P30" s="23">
         <v>0</v>
       </c>
       <c r="Q30" s="23">
-        <v>8.8444782392459995E-2</v>
+        <v>8.6052095663749995E-2</v>
       </c>
       <c r="R30" s="23">
-        <v>0.3915507028686</v>
+        <v>0.38095812583887001</v>
       </c>
       <c r="S30" s="22">
-        <v>6.1847380635867699</v>
+        <v>6.0174230418863797</v>
       </c>
       <c r="T30" s="23">
-        <v>4.68536239978331</v>
+        <v>4.5586098189085602</v>
       </c>
       <c r="U30" s="23">
         <v>0</v>
       </c>
       <c r="V30" s="23">
-        <v>7.6858222047050007E-2</v>
+        <v>7.4778985229350003E-2</v>
       </c>
       <c r="W30" s="23">
-        <v>0.15316027519294001</v>
+        <v>0.14901684753212999</v>
       </c>
       <c r="X30" s="22">
-        <v>4.5322021245903699</v>
+        <v>4.4095929713764299</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.35">
@@ -3621,7 +3621,7 @@
         <v>86.171443643610004</v>
       </c>
       <c r="N31" s="22">
-        <v>1.4866710958304401</v>
+        <v>1.4866710958304299</v>
       </c>
       <c r="O31" s="23">
         <v>0.25984872200673997</v>
@@ -3639,7 +3639,7 @@
         <v>0.20629683323959</v>
       </c>
       <c r="T31" s="23">
-        <v>0.87172039689298997</v>
+        <v>0.87172039689297998</v>
       </c>
       <c r="U31" s="23">
         <v>1.7599465866399999E-3</v>
@@ -3651,7 +3651,7 @@
         <v>3.9564337820129997E-2</v>
       </c>
       <c r="X31" s="22">
-        <v>0.83215605907286005</v>
+        <v>0.83215605907284995</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.35">
@@ -3698,7 +3698,7 @@
         <v>13.4757846144313</v>
       </c>
       <c r="O32" s="23">
-        <v>9.8079731700832191</v>
+        <v>9.8079731700831996</v>
       </c>
       <c r="P32" s="23">
         <v>0</v>
@@ -3713,7 +3713,7 @@
         <v>8.59634409313486</v>
       </c>
       <c r="T32" s="23">
-        <v>5.3227675561340897</v>
+        <v>5.3227675561340799</v>
       </c>
       <c r="U32" s="23">
         <v>0</v>
@@ -3843,37 +3843,37 @@
         <v>230.49021990700001</v>
       </c>
       <c r="N34" s="17">
-        <v>10.8535583562829</v>
+        <v>14.2759308801343</v>
       </c>
       <c r="O34" s="18">
-        <v>0.21612915710627001</v>
+        <v>0.28427957051014002</v>
       </c>
       <c r="P34" s="18">
-        <v>3.9617601227900003E-3</v>
+        <v>5.2109927288399999E-3</v>
       </c>
       <c r="Q34" s="18">
-        <v>5.7968007259500002E-3</v>
+        <v>7.6246631540600003E-3</v>
       </c>
       <c r="R34" s="18">
-        <v>2.3287745074589999E-2</v>
+        <v>3.063089800836E-2</v>
       </c>
       <c r="S34" s="17">
-        <v>0.19284141203168001</v>
+        <v>0.25364867250178003</v>
       </c>
       <c r="T34" s="18">
-        <v>4.5845305597008696</v>
+        <v>6.0301367753982902</v>
       </c>
       <c r="U34" s="18">
-        <v>1.211939795487E-2</v>
+        <v>1.594091834522E-2</v>
       </c>
       <c r="V34" s="18">
-        <v>3.1351228814060002E-2</v>
+        <v>4.1236980616380002E-2</v>
       </c>
       <c r="W34" s="18">
-        <v>0.25090131392332998</v>
+        <v>0.33001617513126003</v>
       </c>
       <c r="X34" s="17">
-        <v>4.3336292457775398</v>
+        <v>5.7001206002670299</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.35">
@@ -3991,37 +3991,37 @@
         <v>2409.4309275340001</v>
       </c>
       <c r="N36" s="22">
-        <v>2.5645832485476499</v>
+        <v>2.5692104127817301</v>
       </c>
       <c r="O36" s="23">
-        <v>0.26933773945146</v>
+        <v>0.26982369363351999</v>
       </c>
       <c r="P36" s="23">
-        <v>3.3043322845739999E-2</v>
+        <v>3.3102941453060003E-2</v>
       </c>
       <c r="Q36" s="23">
-        <v>3.270083627894E-2</v>
+        <v>3.2759836952879998E-2</v>
       </c>
       <c r="R36" s="23">
-        <v>4.0231685522309997E-2</v>
+        <v>4.0304273774779999E-2</v>
       </c>
       <c r="S36" s="22">
-        <v>0.22910605392915001</v>
+        <v>0.22951941985874</v>
       </c>
       <c r="T36" s="23">
-        <v>4.17780262025477</v>
+        <v>4.1853404449178697</v>
       </c>
       <c r="U36" s="23">
-        <v>6.3218502389820005E-2</v>
+        <v>6.3332564740240002E-2</v>
       </c>
       <c r="V36" s="23">
-        <v>1.6493327566210001E-2</v>
+        <v>1.652308574835E-2</v>
       </c>
       <c r="W36" s="23">
-        <v>0.21560478866630001</v>
+        <v>0.21599379485956</v>
       </c>
       <c r="X36" s="22">
-        <v>3.9621978315884698</v>
+        <v>3.9693466500583101</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4065,37 +4065,37 @@
         <v>283.81099826044999</v>
       </c>
       <c r="N37" s="22">
-        <v>2.4971824696637599</v>
+        <v>2.49741450171391</v>
       </c>
       <c r="O37" s="23">
-        <v>0.23778771693324999</v>
+        <v>0.23780981158277001</v>
       </c>
       <c r="P37" s="23">
-        <v>6.1121412286429998E-2</v>
+        <v>6.1127091537650002E-2</v>
       </c>
       <c r="Q37" s="23">
-        <v>6.1903642611740001E-2</v>
+        <v>6.190939454588E-2</v>
       </c>
       <c r="R37" s="23">
-        <v>7.7648524031230001E-2</v>
+        <v>7.7655738941009994E-2</v>
       </c>
       <c r="S37" s="22">
-        <v>0.16013919290202</v>
+        <v>0.16015407264175999</v>
       </c>
       <c r="T37" s="23">
-        <v>0.79091977409142999</v>
+        <v>0.79099326441059004</v>
       </c>
       <c r="U37" s="23">
-        <v>1.290154154932E-2</v>
+        <v>1.2902740328809999E-2</v>
       </c>
       <c r="V37" s="23">
-        <v>1.196367675277E-2</v>
+        <v>1.1964788388180001E-2</v>
       </c>
       <c r="W37" s="23">
-        <v>4.5200520987439999E-2</v>
+        <v>4.5204720908620002E-2</v>
       </c>
       <c r="X37" s="22">
-        <v>0.74571925310399001</v>
+        <v>0.74578854350196999</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4139,37 +4139,37 @@
         <v>7840.9599313137096</v>
       </c>
       <c r="N38" s="28">
-        <v>4.0623406071869201</v>
+        <v>4.0455557648008797</v>
       </c>
       <c r="O38" s="29">
-        <v>0.52409637364211004</v>
+        <v>0.52684104453539005</v>
       </c>
       <c r="P38" s="29">
-        <v>1.276648209182E-2</v>
+        <v>1.2812710148990001E-2</v>
       </c>
       <c r="Q38" s="29">
-        <v>1.990620981578E-2</v>
+        <v>1.99930545659E-2</v>
       </c>
       <c r="R38" s="29">
-        <v>4.7584494306959997E-2</v>
+        <v>4.7784569961609999E-2</v>
       </c>
       <c r="S38" s="28">
-        <v>0.47651187933514999</v>
+        <v>0.47905647457377998</v>
       </c>
       <c r="T38" s="29">
-        <v>2.0801494451148002</v>
+        <v>2.0752159885575798</v>
       </c>
       <c r="U38" s="29">
-        <v>2.088328427043E-2</v>
+        <v>2.0940843896149999E-2</v>
       </c>
       <c r="V38" s="29">
-        <v>1.9834743560310002E-2</v>
+        <v>1.9825613651010002E-2</v>
       </c>
       <c r="W38" s="29">
-        <v>8.0437007996080001E-2</v>
+        <v>8.0008607410269994E-2</v>
       </c>
       <c r="X38" s="28">
-        <v>1.99971243711872</v>
+        <v>1.9952073811473101</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.35">
@@ -4213,37 +4213,37 @@
         <v>32620.545201426001</v>
       </c>
       <c r="N39" s="33">
-        <v>26.583715224773901</v>
+        <v>26.584882303324399</v>
       </c>
       <c r="O39" s="34">
-        <v>4.6910738412706703</v>
+        <v>4.69127978884468</v>
       </c>
       <c r="P39" s="34">
-        <v>1.060160061765E-2</v>
+        <v>1.0602066049239999E-2</v>
       </c>
       <c r="Q39" s="34">
-        <v>8.5229319691140004E-2</v>
+        <v>8.5233061429649995E-2</v>
       </c>
       <c r="R39" s="34">
-        <v>0.13281101491208999</v>
+        <v>0.13281684558269</v>
       </c>
       <c r="S39" s="33">
-        <v>4.5582628263585701</v>
+        <v>4.5584629432619899</v>
       </c>
       <c r="T39" s="34">
-        <v>19.067596641594101</v>
+        <v>19.068433747425999</v>
       </c>
       <c r="U39" s="34">
-        <v>3.0640082861580001E-2</v>
+        <v>3.0641428022820001E-2</v>
       </c>
       <c r="V39" s="34">
-        <v>3.2710152736660003E-2</v>
+        <v>3.2711588778129998E-2</v>
       </c>
       <c r="W39" s="34">
-        <v>6.6820459860349998E-2</v>
+        <v>6.6823393412889995E-2</v>
       </c>
       <c r="X39" s="33">
-        <v>19.000776181733698</v>
+        <v>19.001610354013099</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.35">
@@ -4287,37 +4287,37 @@
         <v>10102.987369348</v>
       </c>
       <c r="N40" s="22">
-        <v>7.0184366121791602</v>
+        <v>7.0184578079580504</v>
       </c>
       <c r="O40" s="23">
-        <v>1.0461254526691799</v>
+        <v>1.046128611983</v>
       </c>
       <c r="P40" s="23">
-        <v>4.9837865132799997E-3</v>
+        <v>4.9838015643900004E-3</v>
       </c>
       <c r="Q40" s="23">
-        <v>2.5964272657499998E-3</v>
+        <v>2.59643510699E-3</v>
       </c>
       <c r="R40" s="23">
-        <v>1.5065837595380001E-2</v>
+        <v>1.506588309442E-2</v>
       </c>
       <c r="S40" s="22">
-        <v>1.0310596150738001</v>
+        <v>1.0310627288885801</v>
       </c>
       <c r="T40" s="23">
-        <v>3.25294137515316</v>
+        <v>3.2529511990826099</v>
       </c>
       <c r="U40" s="23">
-        <v>1.397300969661E-2</v>
+        <v>1.3973051895299999E-2</v>
       </c>
       <c r="V40" s="23">
-        <v>5.4245433623990001E-2</v>
+        <v>5.4245597445969997E-2</v>
       </c>
       <c r="W40" s="23">
-        <v>7.4854934329700001E-2</v>
+        <v>7.4855160392669998E-2</v>
       </c>
       <c r="X40" s="22">
-        <v>3.1780864408234599</v>
+        <v>3.1780960386899402</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.35">
@@ -4512,7 +4512,7 @@
         <v>13.638274781470299</v>
       </c>
       <c r="O43" s="23">
-        <v>3.4757190176176298</v>
+        <v>3.47571901761762</v>
       </c>
       <c r="P43" s="23">
         <v>0.45333042843002003</v>
@@ -4524,10 +4524,10 @@
         <v>8.5243158455820006E-2</v>
       </c>
       <c r="S43" s="22">
-        <v>3.3904758591618198</v>
+        <v>3.39047585916181</v>
       </c>
       <c r="T43" s="23">
-        <v>5.8246008665371303</v>
+        <v>5.8246008665371098</v>
       </c>
       <c r="U43" s="23">
         <v>0.38128290126616998</v>
@@ -4539,7 +4539,7 @@
         <v>3.7262586832919997E-2</v>
       </c>
       <c r="X43" s="22">
-        <v>5.7873382797042199</v>
+        <v>5.7873382797041897</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4583,37 +4583,37 @@
         <v>2459.9349235557002</v>
       </c>
       <c r="N44" s="22">
-        <v>18.420884578514901</v>
+        <v>18.362334483765402</v>
       </c>
       <c r="O44" s="23">
-        <v>9.4596854550258591</v>
+        <v>9.4296181975425597</v>
       </c>
       <c r="P44" s="23">
-        <v>8.6753099505799999E-2</v>
+        <v>8.6477358013890004E-2</v>
       </c>
       <c r="Q44" s="23">
-        <v>0.20631584900182001</v>
+        <v>0.20566008176893</v>
       </c>
       <c r="R44" s="23">
-        <v>0.31586733390095001</v>
+        <v>0.31486336135830001</v>
       </c>
       <c r="S44" s="22">
-        <v>9.1438181211249194</v>
+        <v>9.1147548361842698</v>
       </c>
       <c r="T44" s="23">
-        <v>6.1191965227572602</v>
+        <v>6.0997468847840501</v>
       </c>
       <c r="U44" s="23">
-        <v>0.1700363019766</v>
+        <v>0.16949584793113001</v>
       </c>
       <c r="V44" s="23">
-        <v>0.20749074405518</v>
+        <v>0.20683124246217999</v>
       </c>
       <c r="W44" s="23">
-        <v>0.23026684622638999</v>
+        <v>0.22953495164191001</v>
       </c>
       <c r="X44" s="22">
-        <v>5.8889296765308599</v>
+        <v>5.8702119331421301</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4657,37 +4657,37 @@
         <v>60276.133561852803</v>
       </c>
       <c r="N45" s="28">
-        <v>13.234532675855</v>
+        <v>13.1752180361452</v>
       </c>
       <c r="O45" s="29">
-        <v>2.7144279659755801</v>
+        <v>2.70388650608382</v>
       </c>
       <c r="P45" s="29">
-        <v>7.5914422834750001E-2</v>
+        <v>7.5984691017350003E-2</v>
       </c>
       <c r="Q45" s="29">
-        <v>4.2706762479099998E-2</v>
+        <v>4.2473965894910003E-2</v>
       </c>
       <c r="R45" s="29">
-        <v>7.8163373255520002E-2</v>
+        <v>7.7837139435619998E-2</v>
       </c>
       <c r="S45" s="28">
-        <v>2.6362645927200599</v>
+        <v>2.6260493666482101</v>
       </c>
       <c r="T45" s="29">
-        <v>7.5811787244098996</v>
+        <v>7.5329434397964503</v>
       </c>
       <c r="U45" s="29">
-        <v>7.4472264337359997E-2</v>
+        <v>7.4487774760240003E-2</v>
       </c>
       <c r="V45" s="29">
-        <v>5.1835096140340001E-2</v>
+        <v>5.1890232942630003E-2</v>
       </c>
       <c r="W45" s="29">
-        <v>7.6025867934419997E-2</v>
+        <v>7.6036637842679999E-2</v>
       </c>
       <c r="X45" s="28">
-        <v>7.5051528564754797</v>
+        <v>7.4569068019537701</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.35">
@@ -4731,7 +4731,7 @@
         <v>95.84589154391</v>
       </c>
       <c r="N46" s="22">
-        <v>5.3712482552245797</v>
+        <v>5.3712482552245602</v>
       </c>
       <c r="O46" s="23">
         <v>0.54270358508255001</v>
@@ -4805,37 +4805,37 @@
         <v>110.30921465627</v>
       </c>
       <c r="N47" s="22">
-        <v>1.7836789915979101</v>
+        <v>1.76295431423654</v>
       </c>
       <c r="O47" s="23">
-        <v>0.29304715636241002</v>
+        <v>0.28964222319008998</v>
       </c>
       <c r="P47" s="23">
-        <v>7.05992064595E-3</v>
+        <v>6.977890988E-3</v>
       </c>
       <c r="Q47" s="23">
-        <v>1.081066820181E-2</v>
+        <v>1.068505837426E-2</v>
       </c>
       <c r="R47" s="23">
-        <v>3.3028693609190002E-2</v>
+        <v>3.2644931159810001E-2</v>
       </c>
       <c r="S47" s="22">
-        <v>0.26001846275322998</v>
+        <v>0.25699729203027999</v>
       </c>
       <c r="T47" s="23">
-        <v>0.72626700278270995</v>
+        <v>0.71782846121677002</v>
       </c>
       <c r="U47" s="23">
-        <v>1.703738238023E-2</v>
+        <v>1.6839423972590001E-2</v>
       </c>
       <c r="V47" s="23">
-        <v>1.9917751303379999E-2</v>
+        <v>1.9686325709719999E-2</v>
       </c>
       <c r="W47" s="23">
-        <v>3.6467167200350002E-2</v>
+        <v>3.6043452912040003E-2</v>
       </c>
       <c r="X47" s="22">
-        <v>0.68979983558235003</v>
+        <v>0.68178500830473998</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.35">
@@ -4953,37 +4953,37 @@
         <v>2908.0725556932998</v>
       </c>
       <c r="N49" s="22">
-        <v>10.7661411934649</v>
+        <v>10.541487943835801</v>
       </c>
       <c r="O49" s="23">
-        <v>0.41394847789641998</v>
+        <v>0.40531076183200998</v>
       </c>
       <c r="P49" s="23">
-        <v>5.5316353495599999E-3</v>
+        <v>5.4162086767500003E-3</v>
       </c>
       <c r="Q49" s="23">
-        <v>7.1461790205970002E-2</v>
+        <v>6.9970622376610003E-2</v>
       </c>
       <c r="R49" s="23">
-        <v>8.3356547928649993E-2</v>
+        <v>8.1617176408849995E-2</v>
       </c>
       <c r="S49" s="22">
-        <v>0.33059192996776998</v>
+        <v>0.32369358542316001</v>
       </c>
       <c r="T49" s="23">
-        <v>5.12489665234376</v>
+        <v>5.0179572516547397</v>
       </c>
       <c r="U49" s="23">
-        <v>1.6079781929959999E-2</v>
+        <v>1.574425082378E-2</v>
       </c>
       <c r="V49" s="23">
-        <v>6.3026160633229994E-2</v>
+        <v>6.1711016094109998E-2</v>
       </c>
       <c r="W49" s="23">
-        <v>0.15718023797351</v>
+        <v>0.15390041369815999</v>
       </c>
       <c r="X49" s="22">
-        <v>4.9677164143702504</v>
+        <v>4.8640568379565901</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.35">
@@ -5323,37 +5323,37 @@
         <v>238.14603306792</v>
       </c>
       <c r="N54" s="22">
-        <v>12.371520454970399</v>
+        <v>12.3712643591827</v>
       </c>
       <c r="O54" s="23">
-        <v>2.8525736336407799</v>
+        <v>2.8525145841412001</v>
       </c>
       <c r="P54" s="23">
-        <v>2.1494522899479999E-2</v>
+        <v>2.1494077953630002E-2</v>
       </c>
       <c r="Q54" s="23">
-        <v>8.704270286238E-2</v>
+        <v>8.7040901041039995E-2</v>
       </c>
       <c r="R54" s="23">
-        <v>0.43492184881229001</v>
+        <v>0.43491284574319999</v>
       </c>
       <c r="S54" s="22">
-        <v>2.41765178482847</v>
+        <v>2.4176017383979902</v>
       </c>
       <c r="T54" s="23">
-        <v>7.8139096438646503</v>
+        <v>7.8137478925784603</v>
       </c>
       <c r="U54" s="23">
-        <v>3.08824222617E-3</v>
+        <v>3.0881782982300002E-3</v>
       </c>
       <c r="V54" s="23">
-        <v>1.343959067123E-2</v>
+        <v>1.343931246593E-2</v>
       </c>
       <c r="W54" s="23">
-        <v>8.2061362742590002E-2</v>
+        <v>8.2059664037129998E-2</v>
       </c>
       <c r="X54" s="22">
-        <v>7.7318482811220601</v>
+        <v>7.73168822854133</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.35">
@@ -5397,7 +5397,7 @@
         <v>217.17921924428001</v>
       </c>
       <c r="N55" s="22">
-        <v>3.1882073317864701</v>
+        <v>3.1882073317864599</v>
       </c>
       <c r="O55" s="23">
         <v>0.19784161786884</v>
@@ -5415,7 +5415,7 @@
         <v>0.15617368388121999</v>
       </c>
       <c r="T55" s="23">
-        <v>1.3483179243847301</v>
+        <v>1.3483179243847201</v>
       </c>
       <c r="U55" s="23">
         <v>3.9613000545820003E-2</v>
@@ -5471,37 +5471,37 @@
         <v>152.91060180080001</v>
       </c>
       <c r="N56" s="22">
-        <v>3.0611074032169401</v>
+        <v>3.0599011975985899</v>
       </c>
       <c r="O56" s="23">
-        <v>0.68332575546836005</v>
+        <v>0.68305649625695997</v>
       </c>
       <c r="P56" s="23">
-        <v>0.13675223822831001</v>
+        <v>0.13669835207002001</v>
       </c>
       <c r="Q56" s="23">
-        <v>0.19577653280210999</v>
+        <v>0.19569938857856001</v>
       </c>
       <c r="R56" s="23">
-        <v>0.23772095326907</v>
+        <v>0.23762728117212001</v>
       </c>
       <c r="S56" s="22">
-        <v>0.44560480219929999</v>
+        <v>0.44542921508484001</v>
       </c>
       <c r="T56" s="23">
-        <v>1.23418086541015</v>
+        <v>1.2336945460172599</v>
       </c>
       <c r="U56" s="23">
-        <v>2.2670035113220001E-2</v>
+        <v>2.2661102161799999E-2</v>
       </c>
       <c r="V56" s="23">
-        <v>1.036287449907E-2</v>
+        <v>1.0358791088790001E-2</v>
       </c>
       <c r="W56" s="23">
-        <v>4.9922137652749998E-2</v>
+        <v>4.9902466221800001E-2</v>
       </c>
       <c r="X56" s="22">
-        <v>1.1842587277574099</v>
+        <v>1.18379207979546</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.35">
@@ -5545,7 +5545,7 @@
         <v>17689.114260959999</v>
       </c>
       <c r="N57" s="33">
-        <v>6.5285619514193298</v>
+        <v>6.5285619514193201</v>
       </c>
       <c r="O57" s="34">
         <v>0.28565979791926999</v>
@@ -5575,7 +5575,7 @@
         <v>8.5195211517409997E-2</v>
       </c>
       <c r="X57" s="33">
-        <v>3.9474018611822399</v>
+        <v>3.9474018611822301</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.35">
@@ -5619,7 +5619,7 @@
         <v>625.07750570235999</v>
       </c>
       <c r="N58" s="22">
-        <v>7.2911738987222803</v>
+        <v>7.2911738987222696</v>
       </c>
       <c r="O58" s="23">
         <v>1.2051187856966299</v>
@@ -5767,7 +5767,7 @@
         <v>135.87613525606</v>
       </c>
       <c r="N60" s="17">
-        <v>8.0925669528337494</v>
+        <v>8.0925669528337405</v>
       </c>
       <c r="O60" s="18">
         <v>1.6295094279903799</v>
@@ -5839,37 +5839,37 @@
         <v>26183.406907337601</v>
       </c>
       <c r="N61" s="28">
-        <v>6.6475511559152602</v>
+        <v>6.6302995590080904</v>
       </c>
       <c r="O61" s="29">
-        <v>0.41332953366093</v>
+        <v>0.41250263980801</v>
       </c>
       <c r="P61" s="29">
-        <v>8.2076222996700001E-3</v>
+        <v>8.1931892772000008E-3</v>
       </c>
       <c r="Q61" s="29">
-        <v>2.52736510221E-2</v>
+        <v>2.517166216981E-2</v>
       </c>
       <c r="R61" s="29">
-        <v>4.1251866073819997E-2</v>
+        <v>4.112010548252E-2</v>
       </c>
       <c r="S61" s="28">
-        <v>0.37207766758710997</v>
+        <v>0.37138253432549001</v>
       </c>
       <c r="T61" s="29">
-        <v>3.8477019942338999</v>
+        <v>3.8390303881510701</v>
       </c>
       <c r="U61" s="29">
-        <v>1.154220598197E-2</v>
+        <v>1.151214797898E-2</v>
       </c>
       <c r="V61" s="29">
-        <v>2.5036741013679999E-2</v>
+        <v>2.4943688971500001E-2</v>
       </c>
       <c r="W61" s="29">
-        <v>8.8665718865940005E-2</v>
+        <v>8.8417607949069998E-2</v>
       </c>
       <c r="X61" s="28">
-        <v>3.75903627536796</v>
+        <v>3.7506127802020002</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5911,37 +5911,37 @@
         <v>145934.05073111199</v>
       </c>
       <c r="N62" s="40">
-        <v>11.1299821307386</v>
+        <v>11.1005922114961</v>
       </c>
       <c r="O62" s="41">
-        <v>2.02462791495332</v>
+        <v>2.0204493289198102</v>
       </c>
       <c r="P62" s="41">
-        <v>5.2574983142720001E-2</v>
+        <v>5.2579676905550002E-2</v>
       </c>
       <c r="Q62" s="41">
-        <v>5.4870693042529999E-2</v>
+        <v>5.4754179543690003E-2</v>
       </c>
       <c r="R62" s="41">
-        <v>9.9311863759030006E-2</v>
+        <v>9.9162403301769994E-2</v>
       </c>
       <c r="S62" s="40">
-        <v>1.9253160511942899</v>
+        <v>1.92128692561804</v>
       </c>
       <c r="T62" s="41">
-        <v>5.7110442780005304</v>
+        <v>5.6879129093536402</v>
       </c>
       <c r="U62" s="41">
-        <v>5.2457100731610001E-2</v>
+        <v>5.2437999093540001E-2</v>
       </c>
       <c r="V62" s="41">
-        <v>5.9484521770970002E-2</v>
+        <v>5.9445439368489998E-2</v>
       </c>
       <c r="W62" s="41">
-        <v>0.10556957001172</v>
+        <v>0.10538020044026999</v>
       </c>
       <c r="X62" s="40">
-        <v>5.6054747079888099</v>
+        <v>5.5825327089133703</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5983,37 +5983,37 @@
         <v>2702179.4365219502</v>
       </c>
       <c r="N63" s="45">
-        <v>16.975230576106799</v>
+        <v>17.089301096659799</v>
       </c>
       <c r="O63" s="46">
-        <v>7.0449316645659597</v>
+        <v>7.0500607343422699</v>
       </c>
       <c r="P63" s="46">
-        <v>1.3604659366910601</v>
+        <v>1.35977005075323</v>
       </c>
       <c r="Q63" s="46">
         <v>0</v>
       </c>
       <c r="R63" s="46">
-        <v>3.9571791177085598</v>
+        <v>3.9594932990453402</v>
       </c>
       <c r="S63" s="45">
-        <v>3.0877525468573999</v>
+        <v>3.0905674352969301</v>
       </c>
       <c r="T63" s="46">
-        <v>7.5759418100087501</v>
+        <v>7.6540168917328</v>
       </c>
       <c r="U63" s="46">
-        <v>1.41667283807918</v>
+        <v>1.41769575524424</v>
       </c>
       <c r="V63" s="46">
         <v>0</v>
       </c>
       <c r="W63" s="46">
-        <v>4.2385053141962699</v>
+        <v>4.2635375406797102</v>
       </c>
       <c r="X63" s="45">
-        <v>3.3374364958124798</v>
+        <v>3.3904793510530902</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.35">
@@ -6055,37 +6055,37 @@
         <v>173784.20204953599</v>
       </c>
       <c r="N64" s="40">
-        <v>15.0974390045813</v>
+        <v>15.1252177049846</v>
       </c>
       <c r="O64" s="41">
-        <v>4.4882818276962997</v>
+        <v>4.4914861169554499</v>
       </c>
       <c r="P64" s="41">
-        <v>1.2762017271306101</v>
+        <v>1.2761736016938601</v>
       </c>
       <c r="Q64" s="41">
         <v>0</v>
       </c>
       <c r="R64" s="41">
-        <v>1.4960994561696099</v>
+        <v>1.49677300233657</v>
       </c>
       <c r="S64" s="40">
-        <v>2.9921823715267002</v>
+        <v>2.9947131146188801</v>
       </c>
       <c r="T64" s="41">
-        <v>4.2616477425422401</v>
+        <v>4.2766475156343899</v>
       </c>
       <c r="U64" s="41">
-        <v>0.53261534264049004</v>
+        <v>0.53286453815362</v>
       </c>
       <c r="V64" s="41">
         <v>0</v>
       </c>
       <c r="W64" s="41">
-        <v>0.82992754838284</v>
+        <v>0.83176815448307995</v>
       </c>
       <c r="X64" s="40">
-        <v>3.4317201941594</v>
+        <v>3.4448793611513202</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.35">
@@ -6127,37 +6127,37 @@
         <v>1014883.9473665101</v>
       </c>
       <c r="N65" s="51">
-        <v>15.001573935665901</v>
+        <v>15.333605918319099</v>
       </c>
       <c r="O65" s="52">
-        <v>3.2632391320846001</v>
+        <v>3.2899777709171198</v>
       </c>
       <c r="P65" s="52">
-        <v>0.38207014438591003</v>
+        <v>0.38265360681297</v>
       </c>
       <c r="Q65" s="52">
         <v>0</v>
       </c>
       <c r="R65" s="52">
-        <v>1.8898981114376101</v>
+        <v>1.90402623154926</v>
       </c>
       <c r="S65" s="51">
-        <v>1.37334102064701</v>
+        <v>1.3859515393678701</v>
       </c>
       <c r="T65" s="52">
-        <v>7.3223740549430403</v>
+        <v>7.5434438455877997</v>
       </c>
       <c r="U65" s="52">
-        <v>0.56844114079446995</v>
+        <v>0.57346228057746995</v>
       </c>
       <c r="V65" s="52">
         <v>0</v>
       </c>
       <c r="W65" s="52">
-        <v>2.8830847181068302</v>
+        <v>2.9574471403444198</v>
       </c>
       <c r="X65" s="51">
-        <v>4.4392893368362101</v>
+        <v>4.5859967052433896</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6199,37 +6199,37 @@
         <v>2848113.4872530699</v>
       </c>
       <c r="N66" s="56">
-        <v>16.675097698626502</v>
+        <v>16.782122437704299</v>
       </c>
       <c r="O66" s="57">
-        <v>6.7871567856571602</v>
+        <v>6.7920770326445199</v>
       </c>
       <c r="P66" s="57">
-        <v>1.2933103522898499</v>
+        <v>1.2927203754830301</v>
       </c>
       <c r="Q66" s="57">
-        <v>2.8174164274E-3</v>
+        <v>2.8085044317500002E-3</v>
       </c>
       <c r="R66" s="57">
-        <v>3.75909125015477</v>
+        <v>3.76148546623575</v>
       </c>
       <c r="S66" s="56">
-        <v>3.0280655355023902</v>
+        <v>3.0305915664087699</v>
       </c>
       <c r="T66" s="57">
-        <v>7.4801859036997298</v>
+        <v>7.5531695811930604</v>
       </c>
       <c r="U66" s="57">
-        <v>1.3466251748222799</v>
+        <v>1.3476676315360001</v>
       </c>
       <c r="V66" s="57">
-        <v>3.05432024858E-3</v>
+        <v>3.0491330763200001E-3</v>
       </c>
       <c r="W66" s="57">
-        <v>4.0262936504941997</v>
+        <v>4.0502533052972103</v>
       </c>
       <c r="X66" s="56">
-        <v>3.4538922532055301</v>
+        <v>3.5029162758958599</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.35">
@@ -6271,37 +6271,37 @@
         <v>29486.6943419938</v>
       </c>
       <c r="N67" s="61">
-        <v>7.0954462799266604</v>
+        <v>7.0866304526845303</v>
       </c>
       <c r="O67" s="62">
-        <v>1.3610681172275001</v>
+        <v>1.3587130590762599</v>
       </c>
       <c r="P67" s="62">
-        <v>3.1430713855910002E-2</v>
+        <v>3.1314860894669998E-2</v>
       </c>
       <c r="Q67" s="62">
-        <v>4.0022336511919998E-2</v>
+        <v>3.9854756736179997E-2</v>
       </c>
       <c r="R67" s="62">
-        <v>7.3459053284120002E-2</v>
+        <v>7.326581386587E-2</v>
       </c>
       <c r="S67" s="61">
-        <v>1.2876090639433799</v>
+        <v>1.28544724521039</v>
       </c>
       <c r="T67" s="62">
-        <v>3.3554459286198601</v>
+        <v>3.3462473140218498</v>
       </c>
       <c r="U67" s="62">
-        <v>2.5518637466310001E-2</v>
+        <v>2.544105491896E-2</v>
       </c>
       <c r="V67" s="62">
-        <v>6.7107744817549997E-2</v>
+        <v>6.6907325879179996E-2</v>
       </c>
       <c r="W67" s="62">
-        <v>9.8395140818510002E-2</v>
+        <v>9.8109470890060002E-2</v>
       </c>
       <c r="X67" s="61">
-        <v>3.2570507878013499</v>
+        <v>3.24813784313179</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.35">
@@ -6343,37 +6343,37 @@
         <v>54865.192131075899</v>
       </c>
       <c r="N68" s="51">
-        <v>7.8116546195863004</v>
+        <v>7.8016565585596904</v>
       </c>
       <c r="O68" s="52">
-        <v>1.2673071763856101</v>
+        <v>1.2660988211717501</v>
       </c>
       <c r="P68" s="52">
-        <v>5.0337651098219999E-2</v>
+        <v>5.0256695100599998E-2</v>
       </c>
       <c r="Q68" s="52">
-        <v>2.6687680775520001E-2</v>
+        <v>2.660659429823E-2</v>
       </c>
       <c r="R68" s="52">
-        <v>4.934433864592E-2</v>
+        <v>4.9231428302489999E-2</v>
       </c>
       <c r="S68" s="51">
-        <v>1.2179628377396901</v>
+        <v>1.2168673928692599</v>
       </c>
       <c r="T68" s="52">
-        <v>4.0536957828556099</v>
+        <v>4.0483532022060702</v>
       </c>
       <c r="U68" s="52">
-        <v>4.8553703817900001E-2</v>
+        <v>4.847902733902E-2</v>
       </c>
       <c r="V68" s="52">
-        <v>3.981357696309E-2</v>
+        <v>3.9777697737550001E-2</v>
       </c>
       <c r="W68" s="52">
-        <v>8.1776191059989997E-2</v>
+        <v>8.1648776327549993E-2</v>
       </c>
       <c r="X68" s="51">
-        <v>3.97191959179563</v>
+        <v>3.96670442587852</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.35">
@@ -6415,37 +6415,37 @@
         <v>4960.6854805660596</v>
       </c>
       <c r="N69" s="51">
-        <v>4.2009018985261903</v>
+        <v>4.1708076674617001</v>
       </c>
       <c r="O69" s="52">
-        <v>0.44863481818149997</v>
+        <v>0.45169563334972002</v>
       </c>
       <c r="P69" s="52">
-        <v>2.4858057961790001E-2</v>
+        <v>2.509643763868E-2</v>
       </c>
       <c r="Q69" s="52">
-        <v>2.6723371700129998E-2</v>
+        <v>2.6967720327060001E-2</v>
       </c>
       <c r="R69" s="52">
-        <v>5.2581648731760001E-2</v>
+        <v>5.2964003865459998E-2</v>
       </c>
       <c r="S69" s="51">
-        <v>0.39605316944974001</v>
+        <v>0.39873162948426</v>
       </c>
       <c r="T69" s="52">
-        <v>2.3766339792062201</v>
+        <v>2.3718636780314402</v>
       </c>
       <c r="U69" s="52">
-        <v>3.9031313442410003E-2</v>
+        <v>3.9368799201290001E-2</v>
       </c>
       <c r="V69" s="52">
-        <v>2.874183622972E-2</v>
+        <v>2.8820037033679999E-2</v>
       </c>
       <c r="W69" s="52">
-        <v>0.11765399607484001</v>
+        <v>0.11726484602659</v>
       </c>
       <c r="X69" s="51">
-        <v>2.2589799831313799</v>
+        <v>2.25459883200485</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.35">
@@ -6487,37 +6487,37 @@
         <v>14545.8593116712</v>
       </c>
       <c r="N70" s="51">
-        <v>14.6063757362088</v>
+        <v>14.540251715799499</v>
       </c>
       <c r="O70" s="52">
-        <v>1.4382055940140199</v>
+        <v>1.43135831447965</v>
       </c>
       <c r="P70" s="52">
-        <v>4.2960178807579998E-2</v>
+        <v>4.285126159555E-2</v>
       </c>
       <c r="Q70" s="52">
-        <v>4.6307248970240002E-2</v>
+        <v>4.606328813367E-2</v>
       </c>
       <c r="R70" s="52">
-        <v>0.11082551915125</v>
+        <v>0.11046787649625001</v>
       </c>
       <c r="S70" s="51">
-        <v>1.32738007486278</v>
+        <v>1.3208904379833999</v>
       </c>
       <c r="T70" s="52">
-        <v>6.422154532885</v>
+        <v>6.4001870763818802</v>
       </c>
       <c r="U70" s="52">
-        <v>2.101922957447E-2</v>
+        <v>2.1053252938570001E-2</v>
       </c>
       <c r="V70" s="52">
-        <v>3.0161273757870002E-2</v>
+        <v>2.9991966526830002E-2</v>
       </c>
       <c r="W70" s="52">
-        <v>8.2448143433749996E-2</v>
+        <v>8.2325981307199994E-2</v>
       </c>
       <c r="X70" s="51">
-        <v>6.3397063894512398</v>
+        <v>6.3178610950746803</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.35">
@@ -6559,37 +6559,37 @@
         <v>26183.406907337601</v>
       </c>
       <c r="N71" s="51">
-        <v>6.6475511559152602</v>
+        <v>6.6302995590080904</v>
       </c>
       <c r="O71" s="52">
-        <v>0.41332953366093</v>
+        <v>0.41250263980801</v>
       </c>
       <c r="P71" s="52">
-        <v>8.2076222996700001E-3</v>
+        <v>8.1931892772000008E-3</v>
       </c>
       <c r="Q71" s="52">
-        <v>2.52736510221E-2</v>
+        <v>2.517166216981E-2</v>
       </c>
       <c r="R71" s="52">
-        <v>4.1251866073819997E-2</v>
+        <v>4.112010548252E-2</v>
       </c>
       <c r="S71" s="51">
-        <v>0.37207766758710997</v>
+        <v>0.37138253432549001</v>
       </c>
       <c r="T71" s="52">
-        <v>3.8477019942338999</v>
+        <v>3.8390303881510701</v>
       </c>
       <c r="U71" s="52">
-        <v>1.154220598197E-2</v>
+        <v>1.151214797898E-2</v>
       </c>
       <c r="V71" s="52">
-        <v>2.5036741013679999E-2</v>
+        <v>2.4943688971500001E-2</v>
       </c>
       <c r="W71" s="52">
-        <v>8.8665718865940005E-2</v>
+        <v>8.8417607949069998E-2</v>
       </c>
       <c r="X71" s="51">
-        <v>3.75903627536796</v>
+        <v>3.7506127802020002</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.35">
@@ -6631,37 +6631,37 @@
         <v>4081.4468037392098</v>
       </c>
       <c r="N72" s="51">
-        <v>3.6660336565085401</v>
+        <v>3.6417444961269401</v>
       </c>
       <c r="O72" s="52">
-        <v>0.29391806450611002</v>
+        <v>0.29482263806202003</v>
       </c>
       <c r="P72" s="52">
-        <v>1.019270384524E-2</v>
+        <v>1.024084206785E-2</v>
       </c>
       <c r="Q72" s="52">
-        <v>1.1372564793999999E-2</v>
+        <v>1.142026603248E-2</v>
       </c>
       <c r="R72" s="52">
-        <v>2.9018661042819999E-2</v>
+        <v>2.9100819248459999E-2</v>
       </c>
       <c r="S72" s="51">
-        <v>0.26489940346328</v>
+        <v>0.26572181881356</v>
       </c>
       <c r="T72" s="52">
-        <v>1.52125674271353</v>
+        <v>1.5109039453926401</v>
       </c>
       <c r="U72" s="52">
-        <v>1.547763357051E-2</v>
+        <v>1.5521110699040001E-2</v>
       </c>
       <c r="V72" s="52">
-        <v>1.7629469312509999E-2</v>
+        <v>1.7601772502819999E-2</v>
       </c>
       <c r="W72" s="52">
-        <v>5.2605383230459997E-2</v>
+        <v>5.183700918465E-2</v>
       </c>
       <c r="X72" s="51">
-        <v>1.4686513594830599</v>
+        <v>1.45906693620798</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.35">
@@ -6703,37 +6703,37 @@
         <v>50936.0976717546</v>
       </c>
       <c r="N73" s="51">
-        <v>16.579962508390899</v>
+        <v>16.5442649511408</v>
       </c>
       <c r="O73" s="52">
-        <v>3.6650812388785701</v>
+        <v>3.65638390741324</v>
       </c>
       <c r="P73" s="52">
-        <v>8.708421853527E-2</v>
+        <v>8.6842258572040004E-2</v>
       </c>
       <c r="Q73" s="52">
-        <v>0.12949728455595999</v>
+        <v>0.12910783755859001</v>
       </c>
       <c r="R73" s="52">
-        <v>0.22493393105080001</v>
+        <v>0.22434166843934999</v>
       </c>
       <c r="S73" s="51">
-        <v>3.44014730782777</v>
+        <v>3.43204223897389</v>
       </c>
       <c r="T73" s="52">
-        <v>7.1979584306188302</v>
+        <v>7.1749157950489204</v>
       </c>
       <c r="U73" s="52">
-        <v>8.4235577592410002E-2</v>
+        <v>8.401928151021E-2</v>
       </c>
       <c r="V73" s="52">
-        <v>0.13163807605094999</v>
+        <v>0.13120402054015001</v>
       </c>
       <c r="W73" s="52">
-        <v>0.19567675614923999</v>
+        <v>0.19508816894173001</v>
       </c>
       <c r="X73" s="51">
-        <v>7.0022816744695904</v>
+        <v>6.9798276261071903</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.35">
@@ -6775,37 +6775,37 @@
         <v>50173.146192504799</v>
       </c>
       <c r="N74" s="51">
-        <v>20.206894600141499</v>
+        <v>20.153774372209</v>
       </c>
       <c r="O74" s="52">
-        <v>4.5857003534699103</v>
+        <v>4.5829197032144302</v>
       </c>
       <c r="P74" s="52">
-        <v>0.15547465853368</v>
+        <v>0.15646268408416</v>
       </c>
       <c r="Q74" s="52">
-        <v>8.7697021823100005E-2</v>
+        <v>8.7674296073849994E-2</v>
       </c>
       <c r="R74" s="52">
-        <v>0.14893751359160001</v>
+        <v>0.14898701898705</v>
       </c>
       <c r="S74" s="51">
-        <v>4.4367628398783099</v>
+        <v>4.4339326842273898</v>
       </c>
       <c r="T74" s="52">
-        <v>12.436000301183601</v>
+        <v>12.3842233114721</v>
       </c>
       <c r="U74" s="52">
-        <v>0.14233201025889999</v>
+        <v>0.14307992176977</v>
       </c>
       <c r="V74" s="52">
-        <v>4.9131510944180001E-2</v>
+        <v>4.922047754054E-2</v>
       </c>
       <c r="W74" s="52">
-        <v>7.7339260262609996E-2</v>
+        <v>7.737581732005E-2</v>
       </c>
       <c r="X74" s="51">
-        <v>12.358661040921</v>
+        <v>12.306847494152001</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6919,37 +6919,37 @@
         <v>175227.039316696</v>
       </c>
       <c r="N76" s="61">
-        <v>29.567024666924301</v>
+        <v>29.5321304096246</v>
       </c>
       <c r="O76" s="62">
-        <v>14.6739180703663</v>
+        <v>14.6493597103231</v>
       </c>
       <c r="P76" s="62">
-        <v>0.80870114425741002</v>
+        <v>0.80683914174616</v>
       </c>
       <c r="Q76" s="62">
         <v>0</v>
       </c>
       <c r="R76" s="62">
-        <v>9.7482867702223803</v>
+        <v>9.7308903019075697</v>
       </c>
       <c r="S76" s="61">
-        <v>4.9256313001439498</v>
+        <v>4.9184694084155502</v>
       </c>
       <c r="T76" s="62">
-        <v>12.659350665528301</v>
+        <v>12.6461299348842</v>
       </c>
       <c r="U76" s="62">
-        <v>0.73191333151988003</v>
+        <v>0.73110604425579995</v>
       </c>
       <c r="V76" s="62">
         <v>0</v>
       </c>
       <c r="W76" s="62">
-        <v>7.44563690145905</v>
+        <v>7.4389610096510799</v>
       </c>
       <c r="X76" s="61">
-        <v>5.2137137640692401</v>
+        <v>5.2071689252331499</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.35">
@@ -6991,37 +6991,37 @@
         <v>142975.47988690899</v>
       </c>
       <c r="N77" s="51">
-        <v>13.2652810392583</v>
+        <v>13.297041490686301</v>
       </c>
       <c r="O77" s="52">
-        <v>2.30544914035874</v>
+        <v>2.3089295085850599</v>
       </c>
       <c r="P77" s="52">
-        <v>0.43491459129047</v>
+        <v>0.43509164091316999</v>
       </c>
       <c r="Q77" s="52">
         <v>0</v>
       </c>
       <c r="R77" s="52">
-        <v>0.52228319105611998</v>
+        <v>0.52255430697210004</v>
       </c>
       <c r="S77" s="51">
-        <v>1.78316594930262</v>
+        <v>1.7863752016129599</v>
       </c>
       <c r="T77" s="52">
-        <v>4.9088273326545702</v>
+        <v>4.9289876843693303</v>
       </c>
       <c r="U77" s="52">
-        <v>0.46395144244706998</v>
+        <v>0.46442498145722</v>
       </c>
       <c r="V77" s="52">
         <v>0</v>
       </c>
       <c r="W77" s="52">
-        <v>0.55605854291324996</v>
+        <v>0.55681041858409996</v>
       </c>
       <c r="X77" s="51">
-        <v>4.3527687897413196</v>
+        <v>4.37217726578523</v>
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.35">
@@ -7063,37 +7063,37 @@
         <v>365825.71761190199</v>
       </c>
       <c r="N78" s="51">
-        <v>29.844982604175001</v>
+        <v>29.8410890492558</v>
       </c>
       <c r="O78" s="52">
-        <v>21.698910777517199</v>
+        <v>21.695757330473899</v>
       </c>
       <c r="P78" s="52">
-        <v>5.3288636525638999</v>
+        <v>5.3282187396399401</v>
       </c>
       <c r="Q78" s="52">
         <v>0</v>
       </c>
       <c r="R78" s="52">
-        <v>12.8487836663669</v>
+        <v>12.846864990660899</v>
       </c>
       <c r="S78" s="51">
-        <v>8.8501271111503304</v>
+        <v>8.8488923398129895</v>
       </c>
       <c r="T78" s="52">
-        <v>13.5362018200551</v>
+        <v>13.5347382571764</v>
       </c>
       <c r="U78" s="52">
-        <v>5.0759510482970098</v>
+        <v>5.0756138266472304</v>
       </c>
       <c r="V78" s="52">
         <v>0</v>
       </c>
       <c r="W78" s="52">
-        <v>11.307820219006</v>
+        <v>11.306713658380801</v>
       </c>
       <c r="X78" s="51">
-        <v>2.22838160104906</v>
+        <v>2.22802459879561</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7135,37 +7135,37 @@
         <v>1410292.3271423499</v>
       </c>
       <c r="N79" s="56">
-        <v>18.463024449796499</v>
+        <v>18.467412815266901</v>
       </c>
       <c r="O79" s="57">
-        <v>10.063939446928</v>
+        <v>10.066296333681001</v>
       </c>
       <c r="P79" s="57">
-        <v>2.24002380726558</v>
+        <v>2.2403255252474699</v>
       </c>
       <c r="Q79" s="57">
         <v>0</v>
       </c>
       <c r="R79" s="57">
-        <v>5.5547583692431601</v>
+        <v>5.5559646252414696</v>
       </c>
       <c r="S79" s="56">
-        <v>4.50918107768487</v>
+        <v>4.5103317084395096</v>
       </c>
       <c r="T79" s="57">
-        <v>7.7424411455507203</v>
+        <v>7.7445892371954397</v>
       </c>
       <c r="U79" s="57">
-        <v>2.1459304878744998</v>
+        <v>2.14641463466211</v>
       </c>
       <c r="V79" s="57">
         <v>0</v>
       </c>
       <c r="W79" s="57">
-        <v>5.2059200008971303</v>
+        <v>5.20742814471072</v>
       </c>
       <c r="X79" s="56">
-        <v>2.53652114465359</v>
+        <v>2.5371610924847201</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.35">
@@ -7207,37 +7207,37 @@
         <v>68940.214090766996</v>
       </c>
       <c r="N80" s="61">
-        <v>14.5483388272747</v>
+        <v>14.5002956713247</v>
       </c>
       <c r="O80" s="62">
-        <v>1.8622806971330701</v>
+        <v>1.85103319675586</v>
       </c>
       <c r="P80" s="62">
-        <v>1.8937149091729999E-2</v>
+        <v>1.8972209677819998E-2</v>
       </c>
       <c r="Q80" s="62">
-        <v>4.1149268565939999E-2</v>
+        <v>4.0973995476330002E-2</v>
       </c>
       <c r="R80" s="62">
-        <v>7.1943663682059997E-2</v>
+        <v>7.1706938928720002E-2</v>
       </c>
       <c r="S80" s="61">
-        <v>1.79033703345101</v>
+        <v>1.77932625782714</v>
       </c>
       <c r="T80" s="62">
-        <v>8.9760232472267507</v>
+        <v>8.9353271304646302</v>
       </c>
       <c r="U80" s="62">
-        <v>1.4125347005239999E-2</v>
+        <v>1.4058430713249999E-2</v>
       </c>
       <c r="V80" s="62">
-        <v>2.5395552770629999E-2</v>
+        <v>2.5363656371420001E-2</v>
       </c>
       <c r="W80" s="62">
-        <v>7.7352749705389995E-2</v>
+        <v>7.7387270154740007E-2</v>
       </c>
       <c r="X80" s="61">
-        <v>8.8986704975213495</v>
+        <v>8.8579398603098802</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.35">
@@ -7279,37 +7279,37 @@
         <v>181424.14484618499</v>
       </c>
       <c r="N81" s="51">
-        <v>16.8921784911225</v>
+        <v>18.2630471045828</v>
       </c>
       <c r="O81" s="52">
-        <v>2.7333439268945998</v>
+        <v>2.8403420663964001</v>
       </c>
       <c r="P81" s="52">
-        <v>0.59993102253011998</v>
+        <v>0.60018639413151997</v>
       </c>
       <c r="Q81" s="52">
         <v>0</v>
       </c>
       <c r="R81" s="52">
-        <v>1.43923780768045</v>
+        <v>1.4958956552673199</v>
       </c>
       <c r="S81" s="51">
-        <v>1.2941061192141501</v>
+        <v>1.3444464111290799</v>
       </c>
       <c r="T81" s="52">
-        <v>8.5515942116814792</v>
+        <v>9.4721418436433709</v>
       </c>
       <c r="U81" s="52">
-        <v>0.91002855635129998</v>
+        <v>0.92675226635204</v>
       </c>
       <c r="V81" s="52">
         <v>0</v>
       </c>
       <c r="W81" s="52">
-        <v>4.8261586727036603</v>
+        <v>5.1190853788053801</v>
       </c>
       <c r="X81" s="51">
-        <v>3.7254355389778202</v>
+        <v>4.3530564648379801</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.35">
@@ -7351,37 +7351,37 @@
         <v>76993.836640344904</v>
       </c>
       <c r="N82" s="51">
-        <v>9.64123482374319</v>
+        <v>9.6270909235264792</v>
       </c>
       <c r="O82" s="52">
-        <v>2.0953326437994999</v>
+        <v>2.0938777593391502</v>
       </c>
       <c r="P82" s="52">
-        <v>6.7224781072620005E-2</v>
+        <v>6.7145843287579998E-2</v>
       </c>
       <c r="Q82" s="52">
-        <v>6.0846586008399997E-2</v>
+        <v>6.0726794276609999E-2</v>
       </c>
       <c r="R82" s="52">
-        <v>0.11123113894854</v>
+        <v>0.11106216532323</v>
       </c>
       <c r="S82" s="51">
-        <v>1.98410150485097</v>
+        <v>1.98281559401592</v>
       </c>
       <c r="T82" s="52">
-        <v>4.2890953477564402</v>
+        <v>4.28041690450529</v>
       </c>
       <c r="U82" s="52">
-        <v>6.9151173409980005E-2</v>
+        <v>6.9072492103969999E-2</v>
       </c>
       <c r="V82" s="52">
-        <v>7.4330795961400006E-2</v>
+        <v>7.4217183944420007E-2</v>
       </c>
       <c r="W82" s="52">
-        <v>0.11785843246003</v>
+        <v>0.11751291122436</v>
       </c>
       <c r="X82" s="51">
-        <v>4.1712369152963999</v>
+        <v>4.1629039932809304</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7423,37 +7423,37 @@
         <v>2520755.2916757702</v>
       </c>
       <c r="N83" s="56">
-        <v>16.982879698325402</v>
+        <v>16.9804524362908</v>
       </c>
       <c r="O83" s="57">
-        <v>7.4420302030015701</v>
+        <v>7.44045374479174</v>
       </c>
       <c r="P83" s="57">
-        <v>1.4305114329716599</v>
+        <v>1.43021089817962</v>
       </c>
       <c r="Q83" s="57">
         <v>0</v>
       </c>
       <c r="R83" s="57">
-        <v>4.1890822761071904</v>
+        <v>4.1879578061901901</v>
       </c>
       <c r="S83" s="56">
-        <v>3.2529479268943802</v>
+        <v>3.25249593860155</v>
       </c>
       <c r="T83" s="57">
-        <v>7.4860839278786102</v>
+        <v>7.4854110229477504</v>
       </c>
       <c r="U83" s="57">
-        <v>1.46333493010229</v>
+        <v>1.4632239536125999</v>
       </c>
       <c r="V83" s="57">
         <v>0</v>
       </c>
       <c r="W83" s="57">
-        <v>4.1843822616299997</v>
+        <v>4.1841973466062701</v>
       </c>
       <c r="X83" s="56">
-        <v>3.3017016662486101</v>
+        <v>3.3012136763414799</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.35">
@@ -7495,37 +7495,37 @@
         <v>7839.0899770331498</v>
       </c>
       <c r="N84" s="61">
-        <v>3.9300837640870299</v>
+        <v>3.9088143141248999</v>
       </c>
       <c r="O84" s="62">
-        <v>0.37039896337800998</v>
+        <v>0.37087371472522002</v>
       </c>
       <c r="P84" s="62">
-        <v>3.2867894404359999E-2</v>
+        <v>3.2989668922280002E-2</v>
       </c>
       <c r="Q84" s="62">
-        <v>3.6703892777650002E-2</v>
+        <v>3.6766948912719997E-2</v>
       </c>
       <c r="R84" s="62">
-        <v>7.0610976644130005E-2</v>
+        <v>7.0802837259090007E-2</v>
       </c>
       <c r="S84" s="61">
-        <v>0.29978798673388002</v>
+        <v>0.30007087746613997</v>
       </c>
       <c r="T84" s="62">
-        <v>2.0723735604732401</v>
+        <v>2.0685208381691198</v>
       </c>
       <c r="U84" s="62">
-        <v>2.7332417838590001E-2</v>
+        <v>2.7426747532379999E-2</v>
       </c>
       <c r="V84" s="62">
-        <v>3.2312249471930003E-2</v>
+        <v>3.2275029072510002E-2</v>
       </c>
       <c r="W84" s="62">
-        <v>8.0401509546669997E-2</v>
+        <v>7.9892400409809994E-2</v>
       </c>
       <c r="X84" s="61">
-        <v>1.9919720509265699</v>
+        <v>1.98862843775931</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.35">
@@ -7567,37 +7567,37 @@
         <v>5344.90212032402</v>
       </c>
       <c r="N85" s="51">
-        <v>11.7794220243401</v>
+        <v>11.779508444271301</v>
       </c>
       <c r="O85" s="52">
-        <v>1.38454492387423</v>
+        <v>1.38455637966691</v>
       </c>
       <c r="P85" s="52">
-        <v>8.0557847964490004E-2</v>
+        <v>8.0557809716520004E-2</v>
       </c>
       <c r="Q85" s="52">
         <v>0</v>
       </c>
       <c r="R85" s="52">
-        <v>0.84953783217324996</v>
+        <v>0.84954474001161995</v>
       </c>
       <c r="S85" s="51">
-        <v>0.53500709170097005</v>
+        <v>0.53501163965528997</v>
       </c>
       <c r="T85" s="52">
-        <v>4.6646059505480801</v>
+        <v>4.66462662350476</v>
       </c>
       <c r="U85" s="52">
-        <v>0.10502127955096</v>
+        <v>0.10502151312638</v>
       </c>
       <c r="V85" s="52">
         <v>0</v>
       </c>
       <c r="W85" s="52">
-        <v>2.8808348854886301</v>
+        <v>2.88085632041712</v>
       </c>
       <c r="X85" s="51">
-        <v>1.78377106505945</v>
+        <v>1.78377030308764</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.35">
@@ -7639,37 +7639,37 @@
         <v>95058.609647245394</v>
       </c>
       <c r="N86" s="51">
-        <v>10.8004750996125</v>
+        <v>10.760075777558701</v>
       </c>
       <c r="O86" s="52">
-        <v>1.69296127564096</v>
+        <v>1.68584399348806</v>
       </c>
       <c r="P86" s="52">
-        <v>4.9649861711300002E-2</v>
+        <v>4.962917981395E-2</v>
       </c>
       <c r="Q86" s="52">
-        <v>4.0025386831110003E-2</v>
+        <v>3.9831935529819999E-2</v>
       </c>
       <c r="R86" s="52">
-        <v>7.1186250476490007E-2</v>
+        <v>7.0899056095890006E-2</v>
       </c>
       <c r="S86" s="51">
-        <v>1.62177502516447</v>
+        <v>1.61494493739217</v>
       </c>
       <c r="T86" s="52">
-        <v>5.8964208451708098</v>
+        <v>5.8624793112546101</v>
       </c>
       <c r="U86" s="52">
-        <v>4.866466463685E-2</v>
+        <v>4.8612081476880002E-2</v>
       </c>
       <c r="V86" s="52">
-        <v>5.2620951735779999E-2</v>
+        <v>5.25650610448E-2</v>
       </c>
       <c r="W86" s="52">
-        <v>9.8740461083530004E-2</v>
+        <v>9.8580559121399999E-2</v>
       </c>
       <c r="X86" s="51">
-        <v>5.7976803840872799</v>
+        <v>5.7638987521332101</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.35">
@@ -7711,37 +7711,37 @@
         <v>239268.42166730401</v>
       </c>
       <c r="N87" s="51">
-        <v>13.202605872929499</v>
+        <v>13.956045698279301</v>
       </c>
       <c r="O87" s="52">
-        <v>2.6715622455785599</v>
+        <v>2.7329020250890799</v>
       </c>
       <c r="P87" s="52">
-        <v>0.53827354608100997</v>
+        <v>0.53955262359696998</v>
       </c>
       <c r="Q87" s="52">
         <v>0</v>
       </c>
       <c r="R87" s="52">
-        <v>1.7348713006527099</v>
+        <v>1.7672146097994901</v>
       </c>
       <c r="S87" s="51">
-        <v>0.93669094492585003</v>
+        <v>0.96568741528959001</v>
       </c>
       <c r="T87" s="52">
-        <v>6.6340174199775097</v>
+        <v>7.1340860103400496</v>
       </c>
       <c r="U87" s="52">
-        <v>0.51177503930266</v>
+        <v>0.52330629057441003</v>
       </c>
       <c r="V87" s="52">
         <v>0</v>
       </c>
       <c r="W87" s="52">
-        <v>3.0451847649279999</v>
+        <v>3.2132397823988499</v>
       </c>
       <c r="X87" s="51">
-        <v>3.5888326550495102</v>
+        <v>3.9208462279412002</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.35">
@@ -7783,37 +7783,37 @@
         <v>42949.500934081603</v>
       </c>
       <c r="N88" s="51">
-        <v>19.438713805733101</v>
+        <v>19.423039617259899</v>
       </c>
       <c r="O88" s="52">
-        <v>4.9759479310997703</v>
+        <v>4.9725246776030501</v>
       </c>
       <c r="P88" s="52">
-        <v>8.3865753742389998E-2</v>
+        <v>8.3785769322709994E-2</v>
       </c>
       <c r="Q88" s="52">
-        <v>0.13268266135783999</v>
+        <v>0.13257390438579</v>
       </c>
       <c r="R88" s="52">
-        <v>0.24070146836507</v>
+        <v>0.24055064238144</v>
       </c>
       <c r="S88" s="51">
-        <v>4.7352464627347102</v>
+        <v>4.7319740352216098</v>
       </c>
       <c r="T88" s="52">
-        <v>8.4547318199151498</v>
+        <v>8.4476105411184896</v>
       </c>
       <c r="U88" s="52">
-        <v>9.2573131288129995E-2</v>
+        <v>9.248484247114E-2</v>
       </c>
       <c r="V88" s="52">
-        <v>0.11428651121722</v>
+        <v>0.11419296910927</v>
       </c>
       <c r="W88" s="52">
-        <v>0.15803307344852999</v>
+        <v>0.15791315273178999</v>
       </c>
       <c r="X88" s="51">
-        <v>8.29669874646663</v>
+        <v>8.2896973883867098</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.35">
@@ -7855,37 +7855,37 @@
         <v>956767.75482942699</v>
       </c>
       <c r="N89" s="51">
-        <v>15.9981868161534</v>
+        <v>15.99569249474</v>
       </c>
       <c r="O89" s="52">
-        <v>4.1494272345921397</v>
+        <v>4.1489299841172702</v>
       </c>
       <c r="P89" s="52">
-        <v>0.64034876498496995</v>
+        <v>0.64028957130801001</v>
       </c>
       <c r="Q89" s="52">
         <v>0</v>
       </c>
       <c r="R89" s="52">
-        <v>2.1009400592418399</v>
+        <v>2.1006671073229399</v>
       </c>
       <c r="S89" s="51">
-        <v>2.04848717535031</v>
+        <v>2.04826287679434</v>
       </c>
       <c r="T89" s="52">
-        <v>7.0130309365219103</v>
+        <v>7.0121141165572798</v>
       </c>
       <c r="U89" s="52">
-        <v>0.77288872015107002</v>
+        <v>0.77279544986878002</v>
       </c>
       <c r="V89" s="52">
         <v>0</v>
       </c>
       <c r="W89" s="52">
-        <v>3.1458397616472702</v>
+        <v>3.1454154268408701</v>
       </c>
       <c r="X89" s="51">
-        <v>3.8671911748746499</v>
+        <v>3.8666986897164199</v>
       </c>
     </row>
     <row r="90" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7927,37 +7927,37 @@
         <v>1478786.99790349</v>
       </c>
       <c r="N90" s="56">
-        <v>18.8189184004532</v>
+        <v>18.8012126736146</v>
       </c>
       <c r="O90" s="57">
-        <v>10.5870452730352</v>
+        <v>10.575372312878301</v>
       </c>
       <c r="P90" s="57">
-        <v>2.1553786882887702</v>
+        <v>2.1530862151035701</v>
       </c>
       <c r="Q90" s="57">
-        <v>2.6150713209999999E-5</v>
+        <v>2.6126138780000001E-5</v>
       </c>
       <c r="R90" s="57">
-        <v>6.0429405944766801</v>
+        <v>6.0359503970621304</v>
       </c>
       <c r="S90" s="56">
-        <v>4.5441046785585097</v>
+        <v>4.5394219158162104</v>
       </c>
       <c r="T90" s="57">
-        <v>8.21220581703977</v>
+        <v>8.2049738572096196</v>
       </c>
       <c r="U90" s="57">
-        <v>2.1830616319056002</v>
+        <v>2.1809434591071</v>
       </c>
       <c r="V90" s="57">
-        <v>8.4844492477399998E-7</v>
+        <v>8.4764762124400001E-7</v>
       </c>
       <c r="W90" s="57">
-        <v>5.43071577777265</v>
+        <v>5.4259437277524203</v>
       </c>
       <c r="X90" s="56">
-        <v>2.7814900392671098</v>
+        <v>2.7790301294572002</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.35">
@@ -7999,37 +7999,37 @@
         <v>21034.403540349402</v>
       </c>
       <c r="N91" s="61">
-        <v>7.2895174483462402</v>
+        <v>7.2802245165348403</v>
       </c>
       <c r="O91" s="62">
-        <v>0.76388065917406001</v>
+        <v>0.76407519298477</v>
       </c>
       <c r="P91" s="62">
-        <v>4.0377342811570002E-2</v>
+        <v>4.0471546170969999E-2</v>
       </c>
       <c r="Q91" s="62">
-        <v>5.6573524859049998E-2</v>
+        <v>5.6632258578640002E-2</v>
       </c>
       <c r="R91" s="62">
-        <v>0.10303853021392</v>
+        <v>0.10311892375407</v>
       </c>
       <c r="S91" s="61">
-        <v>0.66084212896014005</v>
+        <v>0.66095626923070006</v>
       </c>
       <c r="T91" s="62">
-        <v>3.5271430589498598</v>
+        <v>3.5273023387434201</v>
       </c>
       <c r="U91" s="62">
-        <v>2.9940995512710001E-2</v>
+        <v>3.001651428625E-2</v>
       </c>
       <c r="V91" s="62">
-        <v>6.3862396530990004E-2</v>
+        <v>6.3883894268140007E-2</v>
       </c>
       <c r="W91" s="62">
-        <v>0.1266225145315</v>
+        <v>0.12638719590291</v>
       </c>
       <c r="X91" s="61">
-        <v>3.4005205444183502</v>
+        <v>3.40091514284051</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.35">
@@ -8071,37 +8071,37 @@
         <v>9004.7237173643898</v>
       </c>
       <c r="N92" s="51">
-        <v>5.96986750425698</v>
+        <v>5.9702616435366096</v>
       </c>
       <c r="O92" s="52">
-        <v>0.59249387647105001</v>
+        <v>0.592520140345</v>
       </c>
       <c r="P92" s="52">
-        <v>0.15532214607106001</v>
+        <v>0.15533792857043</v>
       </c>
       <c r="Q92" s="52">
         <v>0</v>
       </c>
       <c r="R92" s="52">
-        <v>0.42789799638775999</v>
+        <v>0.42791880842375002</v>
       </c>
       <c r="S92" s="51">
-        <v>0.16459588008329001</v>
+        <v>0.16460133192123999</v>
       </c>
       <c r="T92" s="52">
-        <v>2.7204008013252001</v>
+        <v>2.7205268069076798</v>
       </c>
       <c r="U92" s="52">
-        <v>0.44219483222963002</v>
+        <v>0.44225315103598001</v>
       </c>
       <c r="V92" s="52">
         <v>0</v>
       </c>
       <c r="W92" s="52">
-        <v>1.1260327015608</v>
+        <v>1.1261057445374001</v>
       </c>
       <c r="X92" s="51">
-        <v>1.5943680997644101</v>
+        <v>1.5944210623702799</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.35">
@@ -8143,37 +8143,37 @@
         <v>795.93663918671996</v>
       </c>
       <c r="N93" s="51">
-        <v>13.655815356002099</v>
+        <v>13.367916509587999</v>
       </c>
       <c r="O93" s="52">
-        <v>6.4525854116118397</v>
+        <v>6.31566164798281</v>
       </c>
       <c r="P93" s="52">
         <v>0</v>
       </c>
       <c r="Q93" s="52">
-        <v>0.12118934675694</v>
+        <v>0.11841786907702</v>
       </c>
       <c r="R93" s="52">
-        <v>0.44988004249889002</v>
+        <v>0.43995204356447998</v>
       </c>
       <c r="S93" s="51">
-        <v>6.0027053691129497</v>
+        <v>5.8757096044183204</v>
       </c>
       <c r="T93" s="52">
-        <v>4.4982335557908799</v>
+        <v>4.4033560658367099</v>
       </c>
       <c r="U93" s="52">
         <v>0</v>
       </c>
       <c r="V93" s="52">
-        <v>6.5356258133939998E-2</v>
+        <v>6.4027805417370007E-2</v>
       </c>
       <c r="W93" s="52">
-        <v>0.16219665494645</v>
+        <v>0.15868562867427</v>
       </c>
       <c r="X93" s="51">
-        <v>4.3360369008444302</v>
+        <v>4.2446704371624504</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.35">
@@ -8215,37 +8215,37 @@
         <v>34029.151711217499</v>
       </c>
       <c r="N94" s="51">
-        <v>24.476146890048401</v>
+        <v>24.475554606059401</v>
       </c>
       <c r="O94" s="52">
-        <v>43.192103517297099</v>
+        <v>43.039940927548699</v>
       </c>
       <c r="P94" s="52">
-        <v>9.0896147944100007E-3</v>
+        <v>9.0687485188700005E-3</v>
       </c>
       <c r="Q94" s="52">
         <v>0</v>
       </c>
       <c r="R94" s="52">
-        <v>29.957499478752201</v>
+        <v>29.8482799502357</v>
       </c>
       <c r="S94" s="51">
-        <v>13.2346040385449</v>
+        <v>13.1916609773131</v>
       </c>
       <c r="T94" s="52">
-        <v>9.3158227009662191</v>
+        <v>9.3055771087291994</v>
       </c>
       <c r="U94" s="52">
-        <v>4.1656519444400004E-3</v>
+        <v>4.1569640204699998E-3</v>
       </c>
       <c r="V94" s="52">
         <v>0</v>
       </c>
       <c r="W94" s="52">
-        <v>4.4102831534181197</v>
+        <v>4.4084592343287996</v>
       </c>
       <c r="X94" s="51">
-        <v>4.9055395475481003</v>
+        <v>4.8971178744004096</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.35">
@@ -8287,37 +8287,37 @@
         <v>5634.6855966949797</v>
       </c>
       <c r="N95" s="51">
-        <v>5.0663890070306596</v>
+        <v>5.0438726218192702</v>
       </c>
       <c r="O95" s="52">
-        <v>0.51514603774195999</v>
+        <v>0.51567329459407996</v>
       </c>
       <c r="P95" s="52">
-        <v>8.6872939175300007E-2</v>
+        <v>8.7305094641269995E-2</v>
       </c>
       <c r="Q95" s="52">
-        <v>9.9849498388089999E-2</v>
+        <v>0.10032867065084999</v>
       </c>
       <c r="R95" s="52">
-        <v>0.14389324318937</v>
+        <v>0.14439818004064001</v>
       </c>
       <c r="S95" s="51">
-        <v>0.37125279455259003</v>
+        <v>0.37127511455343998</v>
       </c>
       <c r="T95" s="52">
-        <v>1.94701972416278</v>
+        <v>1.91279514550257</v>
       </c>
       <c r="U95" s="52">
-        <v>2.2341310143950001E-2</v>
+        <v>2.2274673556549999E-2</v>
       </c>
       <c r="V95" s="52">
-        <v>9.7057300574679997E-2</v>
+        <v>9.7318229157120004E-2</v>
       </c>
       <c r="W95" s="52">
-        <v>0.14021451624830999</v>
+        <v>0.13934450953762001</v>
       </c>
       <c r="X95" s="51">
-        <v>1.8068052079144701</v>
+        <v>1.77345063596495</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8359,37 +8359,37 @@
         <v>12512.4443017711</v>
       </c>
       <c r="N96" s="56">
-        <v>14.567507070078999</v>
+        <v>14.5536570034068</v>
       </c>
       <c r="O96" s="57">
-        <v>2.3595312633121699</v>
+        <v>2.3570106737773702</v>
       </c>
       <c r="P96" s="57">
-        <v>0.79858285685052</v>
+        <v>0.79769033588891003</v>
       </c>
       <c r="Q96" s="57">
         <v>0</v>
       </c>
       <c r="R96" s="57">
-        <v>1.3727335001441201</v>
+        <v>1.3712322090034601</v>
       </c>
       <c r="S96" s="56">
-        <v>0.98679776316805001</v>
+        <v>0.98577846477390996</v>
       </c>
       <c r="T96" s="57">
-        <v>5.7578183026140799</v>
+        <v>5.7522030152323103</v>
       </c>
       <c r="U96" s="57">
-        <v>0.99262423643462006</v>
+        <v>0.99156217617042997</v>
       </c>
       <c r="V96" s="57">
         <v>0</v>
       </c>
       <c r="W96" s="57">
-        <v>3.5075854272747198</v>
+        <v>3.5037690751815802</v>
       </c>
       <c r="X96" s="56">
-        <v>2.2502328753393699</v>
+        <v>2.2484339400507301</v>
       </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.35">
@@ -8431,37 +8431,37 @@
         <v>53241.185577758602</v>
       </c>
       <c r="N97" s="61">
-        <v>7.59256520758069</v>
+        <v>7.5788139762108599</v>
       </c>
       <c r="O97" s="62">
-        <v>0.67186626460868004</v>
+        <v>0.67140653463877997</v>
       </c>
       <c r="P97" s="62">
-        <v>3.2239400167310001E-2</v>
+        <v>3.2230076455859999E-2</v>
       </c>
       <c r="Q97" s="62">
-        <v>4.0018884299779997E-2</v>
+        <v>3.9943761323969998E-2</v>
       </c>
       <c r="R97" s="62">
-        <v>6.9749504466429996E-2</v>
+        <v>6.9655110607189999E-2</v>
       </c>
       <c r="S97" s="61">
-        <v>0.60211676014225002</v>
+        <v>0.60175142403159998</v>
       </c>
       <c r="T97" s="62">
-        <v>4.0849954611788197</v>
+        <v>4.0753693338907997</v>
       </c>
       <c r="U97" s="62">
-        <v>2.3268438502020001E-2</v>
+        <v>2.3245884967310001E-2</v>
       </c>
       <c r="V97" s="62">
-        <v>4.5272638895520002E-2</v>
+        <v>4.5152147294369997E-2</v>
       </c>
       <c r="W97" s="62">
-        <v>0.10701177453491</v>
+        <v>0.10660437543607</v>
       </c>
       <c r="X97" s="61">
-        <v>3.9779836866439102</v>
+        <v>3.96876495845473</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8503,37 +8503,37 @@
         <v>75961.094261720806</v>
       </c>
       <c r="N98" s="56">
-        <v>9.2131344665816304</v>
+        <v>12.373033190493601</v>
       </c>
       <c r="O98" s="57">
-        <v>0.76889828047018005</v>
+        <v>1.0413478801188101</v>
       </c>
       <c r="P98" s="57">
-        <v>0.10791247641270001</v>
+        <v>0.11748703287219001</v>
       </c>
       <c r="Q98" s="57">
         <v>0</v>
       </c>
       <c r="R98" s="57">
-        <v>0.34508653765808001</v>
+        <v>0.49031301927889998</v>
       </c>
       <c r="S98" s="56">
-        <v>0.42381174281210998</v>
+        <v>0.55103486083991005</v>
       </c>
       <c r="T98" s="57">
-        <v>4.8392595783567698</v>
+        <v>6.9202695437147197</v>
       </c>
       <c r="U98" s="57">
-        <v>0.36708812546053998</v>
+        <v>0.41663444493399998</v>
       </c>
       <c r="V98" s="57">
         <v>0</v>
       </c>
       <c r="W98" s="57">
-        <v>1.1955017456971599</v>
+        <v>1.8896064226990901</v>
       </c>
       <c r="X98" s="56">
-        <v>3.6437578326596101</v>
+        <v>5.0306631210156203</v>
       </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.35">
@@ -8957,11 +8957,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{A834E373-E677-4C67-954D-1F84F812E7E3}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{7A2B8017-ABF9-454C-B4F0-0051BB981C6D}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{DD8B7BAA-0477-40D7-A42A-85FB02A599DE}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{6BD2CE77-CA3C-42A3-A191-77FB5EC26B45}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{C485B755-1BF9-4668-A319-84F073138E40}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{1076E933-6AA0-44A9-88F6-68D3DE257989}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{8C8CF856-FE7B-437F-A813-66DEA969AA61}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{24D814DA-0E4F-461F-9210-A247373BCFCB}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{052CDF99-FCBF-4EDE-AB4C-D101EEB3891D}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{8E51ABC4-0E7C-4F29-8C72-0269CA414484}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab27.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab27.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8365C8E-8B48-4E8F-95C4-8664B5649632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A57592B5-7873-479C-AB3B-DDE9B1345876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31080" yWindow="1125" windowWidth="17280" windowHeight="15075" xr2:uid="{3F2C8659-8A51-42EA-B9A1-1F1CD6FF582B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DCE61088-D469-493A-BD91-5CBF87103A93}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab27" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab27'!$A$1:$E$103</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -302,7 +302,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud</t>
+    <t>Soudan du Sud*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -380,7 +380,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>Cabo Verde*</t>
   </si>
   <si>
     <t>CIV</t>
@@ -434,7 +434,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -1394,7 +1394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EF1BF4-C5AF-4055-B0AE-E8759E39D6A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B5C3D6-F699-4F33-8D4F-437ED50BCE6B}">
   <dimension ref="A1:X114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -3806,73 +3806,73 @@
       <c r="A34" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="31">
         <v>577.26189999999997</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="32">
         <v>11.4951358606131</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="32">
         <v>0.21071183299999999</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="32">
         <v>0.30831107099994998</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="32">
         <v>1.23859176199976</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="31">
         <v>10.256544098613301</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="32">
         <v>243.834762262</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="32">
         <v>0.64458737499999996</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K34" s="32">
         <v>1.6674595849999501</v>
       </c>
-      <c r="L34" s="16">
+      <c r="L34" s="32">
         <v>13.3445423549999</v>
       </c>
-      <c r="M34" s="15">
+      <c r="M34" s="31">
         <v>230.49021990700001</v>
       </c>
-      <c r="N34" s="17">
+      <c r="N34" s="33">
         <v>14.2759308801343</v>
       </c>
-      <c r="O34" s="18">
+      <c r="O34" s="34">
         <v>0.28427957051014002</v>
       </c>
-      <c r="P34" s="18">
+      <c r="P34" s="34">
         <v>5.2109927288399999E-3</v>
       </c>
-      <c r="Q34" s="18">
+      <c r="Q34" s="34">
         <v>7.6246631540600003E-3</v>
       </c>
-      <c r="R34" s="18">
+      <c r="R34" s="34">
         <v>3.063089800836E-2</v>
       </c>
-      <c r="S34" s="17">
+      <c r="S34" s="33">
         <v>0.25364867250178003</v>
       </c>
-      <c r="T34" s="18">
+      <c r="T34" s="34">
         <v>6.0301367753982902</v>
       </c>
-      <c r="U34" s="18">
+      <c r="U34" s="34">
         <v>1.594091834522E-2</v>
       </c>
-      <c r="V34" s="18">
+      <c r="V34" s="34">
         <v>4.1236980616380002E-2</v>
       </c>
-      <c r="W34" s="18">
+      <c r="W34" s="34">
         <v>0.33001617513126003</v>
       </c>
-      <c r="X34" s="17">
+      <c r="X34" s="33">
         <v>5.7001206002670299</v>
       </c>
     </row>
@@ -5508,73 +5508,73 @@
       <c r="A57" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C57" s="31">
+      <c r="C57" s="20">
         <v>29255.82</v>
       </c>
-      <c r="D57" s="32">
+      <c r="D57" s="21">
         <v>1280.09991960723</v>
       </c>
-      <c r="E57" s="32">
+      <c r="E57" s="21">
         <v>2.7725506499999999</v>
       </c>
-      <c r="F57" s="32">
+      <c r="F57" s="21">
         <v>3.8170846300013399</v>
       </c>
-      <c r="G57" s="32">
+      <c r="G57" s="21">
         <v>23.421779880002099</v>
       </c>
-      <c r="H57" s="31">
+      <c r="H57" s="20">
         <v>1256.67813972723</v>
       </c>
-      <c r="I57" s="32">
+      <c r="I57" s="21">
         <v>18070.891410593002</v>
       </c>
-      <c r="J57" s="32">
+      <c r="J57" s="21">
         <v>30.795493780000001</v>
       </c>
-      <c r="K57" s="32">
+      <c r="K57" s="21">
         <v>83.200635329995293</v>
       </c>
-      <c r="L57" s="32">
+      <c r="L57" s="21">
         <v>381.77714963299798</v>
       </c>
-      <c r="M57" s="31">
+      <c r="M57" s="20">
         <v>17689.114260959999</v>
       </c>
-      <c r="N57" s="33">
+      <c r="N57" s="22">
         <v>6.5285619514193201</v>
       </c>
-      <c r="O57" s="34">
+      <c r="O57" s="23">
         <v>0.28565979791926999</v>
       </c>
-      <c r="P57" s="34">
+      <c r="P57" s="23">
         <v>6.1870659178000001E-4</v>
       </c>
-      <c r="Q57" s="34">
+      <c r="Q57" s="23">
         <v>8.5179883799999998E-4</v>
       </c>
-      <c r="R57" s="34">
+      <c r="R57" s="23">
         <v>5.2266708285399997E-3</v>
       </c>
-      <c r="S57" s="33">
+      <c r="S57" s="22">
         <v>0.28043312709072998</v>
       </c>
-      <c r="T57" s="34">
+      <c r="T57" s="23">
         <v>4.0325970726996498</v>
       </c>
-      <c r="U57" s="34">
+      <c r="U57" s="23">
         <v>6.8721467717300002E-3</v>
       </c>
-      <c r="V57" s="34">
+      <c r="V57" s="23">
         <v>1.8566579304540001E-2</v>
       </c>
-      <c r="W57" s="34">
+      <c r="W57" s="23">
         <v>8.5195211517409997E-2</v>
       </c>
-      <c r="X57" s="33">
+      <c r="X57" s="22">
         <v>3.9474018611822301</v>
       </c>
     </row>
@@ -6382,70 +6382,70 @@
         <v>147</v>
       </c>
       <c r="C69" s="49">
-        <v>9408.3834999999999</v>
+        <v>11510.7855</v>
       </c>
       <c r="D69" s="50">
-        <v>996.62249378957097</v>
+        <v>1130.3443155118</v>
       </c>
       <c r="E69" s="50">
-        <v>51.901309916999999</v>
+        <v>69.916630116999997</v>
       </c>
       <c r="F69" s="50">
-        <v>55.802534151000202</v>
+        <v>57.777382231000097</v>
       </c>
       <c r="G69" s="50">
-        <v>113.024288208999</v>
+        <v>147.752623535</v>
       </c>
       <c r="H69" s="49">
-        <v>883.59820558057197</v>
+        <v>982.59169197680296</v>
       </c>
       <c r="I69" s="50">
-        <v>5218.6511925810601</v>
+        <v>7243.4506756794699</v>
       </c>
       <c r="J69" s="50">
-        <v>86.056315084999994</v>
+        <v>107.919762875</v>
       </c>
       <c r="K69" s="50">
-        <v>64.692240710999698</v>
+        <v>65.943058261000004</v>
       </c>
       <c r="L69" s="50">
-        <v>257.96571201499899</v>
+        <v>307.63586311199998</v>
       </c>
       <c r="M69" s="49">
-        <v>4960.6854805660596</v>
+        <v>6935.8148125674597</v>
       </c>
       <c r="N69" s="51">
-        <v>4.1708076674617001</v>
+        <v>4.1646408635745296</v>
       </c>
       <c r="O69" s="52">
-        <v>0.45169563334972002</v>
+        <v>0.42229201854956999</v>
       </c>
       <c r="P69" s="52">
-        <v>2.509643763868E-2</v>
+        <v>2.6699931971900001E-2</v>
       </c>
       <c r="Q69" s="52">
-        <v>2.6967720327060001E-2</v>
+        <v>2.3374697147989999E-2</v>
       </c>
       <c r="R69" s="52">
-        <v>5.2964003865459998E-2</v>
+        <v>5.5341471602879999E-2</v>
       </c>
       <c r="S69" s="51">
-        <v>0.39873162948426</v>
+        <v>0.36695054694668</v>
       </c>
       <c r="T69" s="52">
-        <v>2.3718636780314402</v>
+        <v>2.6219324280146799</v>
       </c>
       <c r="U69" s="52">
-        <v>3.9368799201290001E-2</v>
+        <v>3.9927892520689998E-2</v>
       </c>
       <c r="V69" s="52">
-        <v>2.8820037033679999E-2</v>
+        <v>2.471732679116E-2</v>
       </c>
       <c r="W69" s="52">
-        <v>0.11726484602659</v>
+        <v>0.11420458526534</v>
       </c>
       <c r="X69" s="51">
-        <v>2.25459883200485</v>
+        <v>2.5077278427493401</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.35">
@@ -6958,70 +6958,70 @@
         <v>154</v>
       </c>
       <c r="C77" s="49">
-        <v>448368.68969999999</v>
+        <v>411833.59970000002</v>
       </c>
       <c r="D77" s="50">
-        <v>79864.550758465994</v>
+        <v>75783.546096905295</v>
       </c>
       <c r="E77" s="50">
-        <v>14783.036893300001</v>
+        <v>14533.5643473</v>
       </c>
       <c r="F77" s="50">
         <v>0</v>
       </c>
       <c r="G77" s="50">
-        <v>17966.785961649999</v>
+        <v>17601.155453250001</v>
       </c>
       <c r="H77" s="49">
-        <v>61897.764796816104</v>
+        <v>58182.390643655403</v>
       </c>
       <c r="I77" s="50">
-        <v>160942.26584855901</v>
+        <v>137960.81877819399</v>
       </c>
       <c r="J77" s="50">
-        <v>14852.6634013</v>
+        <v>14292.518441300001</v>
       </c>
       <c r="K77" s="50">
         <v>0</v>
       </c>
       <c r="L77" s="50">
-        <v>17966.785961649999</v>
+        <v>17083.549065449999</v>
       </c>
       <c r="M77" s="49">
-        <v>142975.47988690899</v>
+        <v>120877.269712744</v>
       </c>
       <c r="N77" s="51">
-        <v>13.297041490686301</v>
+        <v>12.008069304008201</v>
       </c>
       <c r="O77" s="52">
-        <v>2.3089295085850599</v>
+        <v>2.19383943438736</v>
       </c>
       <c r="P77" s="52">
-        <v>0.43509164091316999</v>
+        <v>0.43836643387815</v>
       </c>
       <c r="Q77" s="52">
         <v>0</v>
       </c>
       <c r="R77" s="52">
-        <v>0.52255430697210004</v>
+        <v>0.52331593989114999</v>
       </c>
       <c r="S77" s="51">
-        <v>1.7863752016129599</v>
+        <v>1.67052349449621</v>
       </c>
       <c r="T77" s="52">
-        <v>4.9289876843693303</v>
+        <v>3.9977035227502502</v>
       </c>
       <c r="U77" s="52">
-        <v>0.46442498145722</v>
+        <v>0.45380203740553998</v>
       </c>
       <c r="V77" s="52">
         <v>0</v>
       </c>
       <c r="W77" s="52">
-        <v>0.55681041858409996</v>
+        <v>0.53390460122002004</v>
       </c>
       <c r="X77" s="51">
-        <v>4.37217726578523</v>
+        <v>3.4637989215302398</v>
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.35">
@@ -7174,70 +7174,70 @@
         <v>156</v>
       </c>
       <c r="C80" s="59">
-        <v>114717.613</v>
+        <v>86039.054900000003</v>
       </c>
       <c r="D80" s="60">
-        <v>14198.506067444199</v>
+        <v>12929.9012836975</v>
       </c>
       <c r="E80" s="60">
-        <v>163.61976870000001</v>
+        <v>161.05792988300001</v>
       </c>
       <c r="F80" s="60">
-        <v>321.49512452999397</v>
+        <v>317.98635097099299</v>
       </c>
       <c r="G80" s="60">
-        <v>569.86372555499702</v>
+        <v>547.68053743699397</v>
       </c>
       <c r="H80" s="59">
-        <v>13628.642341889201</v>
+        <v>12382.2207462606</v>
       </c>
       <c r="I80" s="60">
-        <v>69580.549766767203</v>
+        <v>51753.493118436199</v>
       </c>
       <c r="J80" s="60">
-        <v>110.23422640299999</v>
+        <v>80.083319997999993</v>
       </c>
       <c r="K80" s="60">
-        <v>203.883050132991</v>
+        <v>122.349874387996</v>
       </c>
       <c r="L80" s="60">
-        <v>640.33567600012498</v>
+        <v>271.90306872212699</v>
       </c>
       <c r="M80" s="59">
-        <v>68940.214090766996</v>
+        <v>51481.590049714003</v>
       </c>
       <c r="N80" s="61">
-        <v>14.5002956713247</v>
+        <v>23.0421436931823</v>
       </c>
       <c r="O80" s="62">
-        <v>1.85103319675586</v>
+        <v>3.51934746791484</v>
       </c>
       <c r="P80" s="62">
-        <v>1.8972209677819998E-2</v>
+        <v>3.855993025045E-2</v>
       </c>
       <c r="Q80" s="62">
-        <v>4.0973995476330002E-2</v>
+        <v>8.3774961765719996E-2</v>
       </c>
       <c r="R80" s="62">
-        <v>7.1706938928720002E-2</v>
+        <v>0.14270969637254</v>
       </c>
       <c r="S80" s="61">
-        <v>1.77932625782714</v>
+        <v>3.3766377715422999</v>
       </c>
       <c r="T80" s="62">
-        <v>8.9353271304646302</v>
+        <v>14.172311886863501</v>
       </c>
       <c r="U80" s="62">
-        <v>1.4058430713249999E-2</v>
+        <v>2.1770991553290001E-2</v>
       </c>
       <c r="V80" s="62">
-        <v>2.5363656371420001E-2</v>
+        <v>3.2741895402429999E-2</v>
       </c>
       <c r="W80" s="62">
-        <v>7.7387270154740007E-2</v>
+        <v>7.0514451438420001E-2</v>
       </c>
       <c r="X80" s="61">
-        <v>8.8579398603098802</v>
+        <v>14.1017974354251</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.35">
@@ -7318,70 +7318,70 @@
         <v>158</v>
       </c>
       <c r="C82" s="49">
-        <v>178948.82105999999</v>
+        <v>207627.37916000001</v>
       </c>
       <c r="D82" s="50">
-        <v>39946.722322689799</v>
+        <v>41215.327106436402</v>
       </c>
       <c r="E82" s="50">
-        <v>1334.953348278</v>
+        <v>1337.5151870950001</v>
       </c>
       <c r="F82" s="50">
-        <v>1220.5047938135799</v>
+        <v>1224.0135673725899</v>
       </c>
       <c r="G82" s="50">
-        <v>2211.9441560645901</v>
+        <v>2234.1273441825902</v>
       </c>
       <c r="H82" s="49">
-        <v>37734.778166625198</v>
+        <v>38981.199762253797</v>
       </c>
       <c r="I82" s="50">
-        <v>79135.308845964304</v>
+        <v>96962.365494295402</v>
       </c>
       <c r="J82" s="50">
-        <v>1341.529940575</v>
+        <v>1371.6808469800001</v>
       </c>
       <c r="K82" s="50">
-        <v>1338.1168682105699</v>
+        <v>1419.65004395556</v>
       </c>
       <c r="L82" s="50">
-        <v>2141.4722056194701</v>
+        <v>2509.90481289747</v>
       </c>
       <c r="M82" s="49">
-        <v>76993.836640344904</v>
+        <v>94452.460681397904</v>
       </c>
       <c r="N82" s="51">
-        <v>9.6270909235264792</v>
+        <v>9.0529872678686303</v>
       </c>
       <c r="O82" s="52">
-        <v>2.0938777593391502</v>
+        <v>1.76343488283991</v>
       </c>
       <c r="P82" s="52">
-        <v>6.7145843287579998E-2</v>
+        <v>5.4983627732489999E-2</v>
       </c>
       <c r="Q82" s="52">
-        <v>6.0726794276609999E-2</v>
+        <v>4.9778017339229999E-2</v>
       </c>
       <c r="R82" s="52">
-        <v>0.11106216532323</v>
+        <v>9.1695395961050002E-2</v>
       </c>
       <c r="S82" s="51">
-        <v>1.98281559401592</v>
+        <v>1.67173948687886</v>
       </c>
       <c r="T82" s="52">
-        <v>4.28041690450529</v>
+        <v>4.2331021741907904</v>
       </c>
       <c r="U82" s="52">
-        <v>6.9072492103969999E-2</v>
+        <v>5.7696437776480002E-2</v>
       </c>
       <c r="V82" s="52">
-        <v>7.4217183944420007E-2</v>
+        <v>6.4024267230279999E-2</v>
       </c>
       <c r="W82" s="52">
-        <v>0.11751291122436</v>
+        <v>0.11135859278978</v>
       </c>
       <c r="X82" s="51">
-        <v>4.1629039932809304</v>
+        <v>4.1217435814009997</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7462,70 +7462,70 @@
         <v>160</v>
       </c>
       <c r="C84" s="59">
-        <v>15916.16446</v>
+        <v>19640.93446</v>
       </c>
       <c r="D84" s="60">
-        <v>1482.7020576678899</v>
+        <v>1851.5266685699301</v>
       </c>
       <c r="E84" s="60">
-        <v>140.31591566500001</v>
+        <v>181.005303865</v>
       </c>
       <c r="F84" s="60">
-        <v>151.13172819239901</v>
+        <v>216.486615832399</v>
       </c>
       <c r="G84" s="60">
-        <v>293.45471933179999</v>
+        <v>396.5720297318</v>
       </c>
       <c r="H84" s="59">
-        <v>1189.24733833609</v>
+        <v>1454.95463883814</v>
       </c>
       <c r="I84" s="60">
-        <v>8163.3606706518603</v>
+        <v>9608.3535641615599</v>
       </c>
       <c r="J84" s="60">
-        <v>116.100372666</v>
+        <v>138.129408966</v>
       </c>
       <c r="K84" s="60">
-        <v>129.8250104384</v>
+        <v>327.8070419384</v>
       </c>
       <c r="L84" s="60">
-        <v>324.27069361870002</v>
+        <v>545.47691591670002</v>
       </c>
       <c r="M84" s="59">
-        <v>7839.0899770331498</v>
+        <v>9062.87664824485</v>
       </c>
       <c r="N84" s="61">
-        <v>3.9088143141248999</v>
+        <v>4.5900227277292203</v>
       </c>
       <c r="O84" s="62">
-        <v>0.37087371472522002</v>
+        <v>0.43923935997951002</v>
       </c>
       <c r="P84" s="62">
-        <v>3.2989668922280002E-2</v>
+        <v>4.097915396567E-2</v>
       </c>
       <c r="Q84" s="62">
-        <v>3.6766948912719997E-2</v>
+        <v>5.0514942948030002E-2</v>
       </c>
       <c r="R84" s="62">
-        <v>7.0802837259090007E-2</v>
+        <v>9.1772640272910003E-2</v>
       </c>
       <c r="S84" s="61">
-        <v>0.30007087746613997</v>
+        <v>0.34746671970659998</v>
       </c>
       <c r="T84" s="62">
-        <v>2.0685208381691198</v>
+        <v>2.3016322499563202</v>
       </c>
       <c r="U84" s="62">
-        <v>2.7426747532379999E-2</v>
+        <v>3.1212373084039999E-2</v>
       </c>
       <c r="V84" s="62">
-        <v>3.2275029072510002E-2</v>
+        <v>7.8386347407119999E-2</v>
       </c>
       <c r="W84" s="62">
-        <v>7.9892400409809994E-2</v>
+        <v>0.12893930721095001</v>
       </c>
       <c r="X84" s="61">
-        <v>1.98862843775931</v>
+        <v>2.1726929427453601</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.35">
@@ -7606,70 +7606,70 @@
         <v>162</v>
       </c>
       <c r="C86" s="49">
-        <v>176692.50380000001</v>
+        <v>172967.73379999999</v>
       </c>
       <c r="D86" s="50">
-        <v>26647.572268245</v>
+        <v>26278.747657342901</v>
       </c>
       <c r="E86" s="50">
-        <v>915.09748471299997</v>
+        <v>874.40809651300003</v>
       </c>
       <c r="F86" s="50">
-        <v>684.79364369317898</v>
+        <v>619.43875605317896</v>
       </c>
       <c r="G86" s="50">
-        <v>1208.6712299497899</v>
+        <v>1105.55391954979</v>
       </c>
       <c r="H86" s="49">
-        <v>25438.9010382952</v>
+        <v>25173.193737793201</v>
       </c>
       <c r="I86" s="50">
-        <v>96691.573874296795</v>
+        <v>95246.580980787097</v>
       </c>
       <c r="J86" s="50">
-        <v>853.97969973199997</v>
+        <v>831.95066343200006</v>
       </c>
       <c r="K86" s="50">
-        <v>817.55600190716598</v>
+        <v>619.57397040716603</v>
       </c>
       <c r="L86" s="50">
-        <v>1632.96422705129</v>
+        <v>1411.7580047532899</v>
       </c>
       <c r="M86" s="49">
-        <v>95058.609647245394</v>
+        <v>93834.822976033698</v>
       </c>
       <c r="N86" s="51">
-        <v>10.760075777558701</v>
+        <v>10.6865466525924</v>
       </c>
       <c r="O86" s="52">
-        <v>1.68584399348806</v>
+        <v>1.6873017869893501</v>
       </c>
       <c r="P86" s="52">
-        <v>4.962917981395E-2</v>
+        <v>4.7869331322189998E-2</v>
       </c>
       <c r="Q86" s="52">
-        <v>3.9831935529819999E-2</v>
+        <v>3.6443518289680003E-2</v>
       </c>
       <c r="R86" s="52">
-        <v>7.0899056095890006E-2</v>
+        <v>6.5666210559369997E-2</v>
       </c>
       <c r="S86" s="51">
-        <v>1.61494493739217</v>
+        <v>1.6216355764299799</v>
       </c>
       <c r="T86" s="52">
-        <v>5.8624793112546101</v>
+        <v>5.8577338208239604</v>
       </c>
       <c r="U86" s="52">
-        <v>4.8612081476880002E-2</v>
+        <v>4.796557519189E-2</v>
       </c>
       <c r="V86" s="52">
-        <v>5.25650610448E-2</v>
+        <v>4.1341172291030001E-2</v>
       </c>
       <c r="W86" s="52">
-        <v>9.8580559121399999E-2</v>
+        <v>8.6601364620560006E-2</v>
       </c>
       <c r="X86" s="51">
-        <v>5.7638987521332101</v>
+        <v>5.7711324562033903</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.35">
@@ -7678,70 +7678,70 @@
         <v>163</v>
       </c>
       <c r="C87" s="49">
-        <v>880107.01260000002</v>
+        <v>883090.61950000003</v>
       </c>
       <c r="D87" s="50">
-        <v>178577.12695275401</v>
+        <v>179368.25731634899</v>
       </c>
       <c r="E87" s="50">
-        <v>32975.206538872597</v>
+        <v>33002.986933872598</v>
       </c>
       <c r="F87" s="50">
         <v>0</v>
       </c>
       <c r="G87" s="50">
-        <v>115961.42931509799</v>
+        <v>116312.620492588</v>
       </c>
       <c r="H87" s="49">
-        <v>62615.6976376565</v>
+        <v>63055.636823761401</v>
       </c>
       <c r="I87" s="50">
-        <v>443562.69320034498</v>
+        <v>444204.51032114198</v>
       </c>
       <c r="J87" s="50">
-        <v>31653.943120219999</v>
+        <v>31676.32979842</v>
       </c>
       <c r="K87" s="50">
         <v>0</v>
       </c>
       <c r="L87" s="50">
-        <v>204294.271533041</v>
+        <v>204503.90961750699</v>
       </c>
       <c r="M87" s="49">
-        <v>239268.42166730401</v>
+        <v>239700.60070363499</v>
       </c>
       <c r="N87" s="51">
-        <v>13.956045698279301</v>
+        <v>13.9186281571218</v>
       </c>
       <c r="O87" s="52">
-        <v>2.7329020250890799</v>
+        <v>2.72769836303666</v>
       </c>
       <c r="P87" s="52">
-        <v>0.53955262359696998</v>
+        <v>0.53723157626413998</v>
       </c>
       <c r="Q87" s="52">
         <v>0</v>
       </c>
       <c r="R87" s="52">
-        <v>1.7672146097994901</v>
+        <v>1.76222028188656</v>
       </c>
       <c r="S87" s="51">
-        <v>0.96568741528959001</v>
+        <v>0.96547808115011002</v>
       </c>
       <c r="T87" s="52">
-        <v>7.1340860103400496</v>
+        <v>7.10597332382613</v>
       </c>
       <c r="U87" s="52">
-        <v>0.52330629057441003</v>
+        <v>0.52098888906383001</v>
       </c>
       <c r="V87" s="52">
         <v>0</v>
       </c>
       <c r="W87" s="52">
-        <v>3.2132397823988499</v>
+        <v>3.1997422227447299</v>
       </c>
       <c r="X87" s="51">
-        <v>3.9208462279412002</v>
+        <v>3.9062311010813899</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.35">
@@ -7822,70 +7822,70 @@
         <v>165</v>
       </c>
       <c r="C89" s="49">
-        <v>3640373.9008347499</v>
+        <v>3594002.3619347499</v>
       </c>
       <c r="D89" s="50">
-        <v>865632.82302525104</v>
+        <v>838229.49096769094</v>
       </c>
       <c r="E89" s="50">
-        <v>133547.47896029599</v>
+        <v>132096.43016949599</v>
       </c>
       <c r="F89" s="50">
         <v>0</v>
       </c>
       <c r="G89" s="50">
-        <v>427699.13156931999</v>
+        <v>410928.38410959102</v>
       </c>
       <c r="H89" s="49">
-        <v>437933.69145593402</v>
+        <v>427301.10685810301</v>
       </c>
       <c r="I89" s="50">
-        <v>1619919.2548342</v>
+        <v>1595128.32192535</v>
       </c>
       <c r="J89" s="50">
-        <v>173787.284876563</v>
+        <v>172767.842067363</v>
       </c>
       <c r="K89" s="50">
         <v>0</v>
       </c>
       <c r="L89" s="50">
-        <v>663151.50000477198</v>
+        <v>643619.50231324602</v>
       </c>
       <c r="M89" s="49">
-        <v>956767.75482942699</v>
+        <v>951508.81961210805</v>
       </c>
       <c r="N89" s="51">
-        <v>15.99569249474</v>
+        <v>16.056081439272901</v>
       </c>
       <c r="O89" s="52">
-        <v>4.1489299841172702</v>
+        <v>4.0780479700412098</v>
       </c>
       <c r="P89" s="52">
-        <v>0.64028957130801001</v>
+        <v>0.64482151384135</v>
       </c>
       <c r="Q89" s="52">
         <v>0</v>
       </c>
       <c r="R89" s="52">
-        <v>2.1006671073229399</v>
+        <v>2.0483451425038099</v>
       </c>
       <c r="S89" s="51">
-        <v>2.04826287679434</v>
+        <v>2.0297028275373998</v>
       </c>
       <c r="T89" s="52">
-        <v>7.0121141165572798</v>
+        <v>7.0130976254984398</v>
       </c>
       <c r="U89" s="52">
-        <v>0.77279544986878002</v>
+        <v>0.78229415215493003</v>
       </c>
       <c r="V89" s="52">
         <v>0</v>
       </c>
       <c r="W89" s="52">
-        <v>3.1454154268408701</v>
+        <v>3.0982187772747101</v>
       </c>
       <c r="X89" s="51">
-        <v>3.8666986897164199</v>
+        <v>3.91487884822374</v>
       </c>
     </row>
     <row r="90" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7894,70 +7894,70 @@
         <v>166</v>
       </c>
       <c r="C90" s="54">
-        <v>9668364.81602001</v>
+        <v>9711752.7480200101</v>
       </c>
       <c r="D90" s="55">
-        <v>5234058.0141621698</v>
+        <v>5260670.2158561395</v>
       </c>
       <c r="E90" s="55">
-        <v>1095516.8845875401</v>
+        <v>1096940.15298334</v>
       </c>
       <c r="F90" s="55">
         <v>9.0904941680000402</v>
       </c>
       <c r="G90" s="55">
-        <v>2942484.8710206598</v>
+        <v>2958904.4273028998</v>
       </c>
       <c r="H90" s="54">
-        <v>2291573.14314151</v>
+        <v>2301765.7885532398</v>
       </c>
       <c r="I90" s="55">
-        <v>4185271.6065802099</v>
+        <v>4209420.7223682497</v>
       </c>
       <c r="J90" s="55">
-        <v>1119261.8092523001</v>
+        <v>1120258.8653833</v>
       </c>
       <c r="K90" s="55">
         <v>0.29493588100001</v>
       </c>
       <c r="L90" s="55">
-        <v>2706484.6086767199</v>
+        <v>2725806.9682837799</v>
       </c>
       <c r="M90" s="54">
-        <v>1478786.99790349</v>
+        <v>1483613.75408447</v>
       </c>
       <c r="N90" s="56">
-        <v>18.8012126736146</v>
+        <v>18.741329929426499</v>
       </c>
       <c r="O90" s="57">
-        <v>10.575372312878301</v>
+        <v>10.551595415506799</v>
       </c>
       <c r="P90" s="57">
-        <v>2.1530862151035701</v>
+        <v>2.1327645923694099</v>
       </c>
       <c r="Q90" s="57">
-        <v>2.6126138780000001E-5</v>
+        <v>2.5813491369999998E-5</v>
       </c>
       <c r="R90" s="57">
-        <v>6.0359503970621304</v>
+        <v>6.0273159084118104</v>
       </c>
       <c r="S90" s="56">
-        <v>4.5394219158162104</v>
+        <v>4.5242795070950397</v>
       </c>
       <c r="T90" s="57">
-        <v>8.2049738572096196</v>
+        <v>8.1990700813266795</v>
       </c>
       <c r="U90" s="57">
-        <v>2.1809434591071</v>
+        <v>2.1586663879833998</v>
       </c>
       <c r="V90" s="57">
-        <v>8.4764762124400001E-7</v>
+        <v>8.3750395498899998E-7</v>
       </c>
       <c r="W90" s="57">
-        <v>5.4259437277524203</v>
+        <v>5.4357133871641503</v>
       </c>
       <c r="X90" s="56">
-        <v>2.7790301294572002</v>
+        <v>2.76335669416253</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.35">
@@ -7999,7 +7999,7 @@
         <v>21034.403540349402</v>
       </c>
       <c r="N91" s="61">
-        <v>7.2802245165348403</v>
+        <v>7.2802245165348296</v>
       </c>
       <c r="O91" s="62">
         <v>0.76407519298477</v>
@@ -8182,10 +8182,10 @@
         <v>170</v>
       </c>
       <c r="C94" s="49">
-        <v>166988.8622</v>
+        <v>161725.27220000001</v>
       </c>
       <c r="D94" s="50">
-        <v>299102.59851315402</v>
+        <v>298430.986416767</v>
       </c>
       <c r="E94" s="50">
         <v>52.528777689999998</v>
@@ -8194,13 +8194,13 @@
         <v>0</v>
       </c>
       <c r="G94" s="50">
-        <v>207679.16676954</v>
+        <v>207371.20224844001</v>
       </c>
       <c r="H94" s="49">
-        <v>91423.431743614099</v>
+        <v>91059.784168327402</v>
       </c>
       <c r="I94" s="50">
-        <v>64044.353602957497</v>
+        <v>61778.1340353665</v>
       </c>
       <c r="J94" s="50">
         <v>25.220968190000001</v>
@@ -8209,43 +8209,43 @@
         <v>0</v>
       </c>
       <c r="L94" s="50">
-        <v>30015.201891739998</v>
+        <v>28740.756464919999</v>
       </c>
       <c r="M94" s="49">
-        <v>34029.151711217499</v>
+        <v>33037.377570446501</v>
       </c>
       <c r="N94" s="51">
-        <v>24.475554606059401</v>
+        <v>25.3130859192289</v>
       </c>
       <c r="O94" s="52">
-        <v>43.039940927548699</v>
+        <v>46.225719358401903</v>
       </c>
       <c r="P94" s="52">
-        <v>9.0687485188700005E-3</v>
+        <v>9.7682478151399996E-3</v>
       </c>
       <c r="Q94" s="52">
         <v>0</v>
       </c>
       <c r="R94" s="52">
-        <v>29.8482799502357</v>
+        <v>32.089111946370402</v>
       </c>
       <c r="S94" s="51">
-        <v>13.1916609773131</v>
+        <v>14.1366074120315</v>
       </c>
       <c r="T94" s="52">
-        <v>9.3055771087291994</v>
+        <v>9.5711234730619008</v>
       </c>
       <c r="U94" s="52">
-        <v>4.1569640204699998E-3</v>
+        <v>4.4776029047500004E-3</v>
       </c>
       <c r="V94" s="52">
         <v>0</v>
       </c>
       <c r="W94" s="52">
-        <v>4.4084592343287996</v>
+        <v>4.4941832914714297</v>
       </c>
       <c r="X94" s="51">
-        <v>4.8971178744004096</v>
+        <v>5.07694018159048</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.35">
@@ -8398,70 +8398,70 @@
         <v>173</v>
       </c>
       <c r="C97" s="59">
-        <v>101278.87325999999</v>
+        <v>102051.91926</v>
       </c>
       <c r="D97" s="60">
-        <v>8994.7590999628792</v>
+        <v>9072.8666116061304</v>
       </c>
       <c r="E97" s="60">
-        <v>437.031925548</v>
+        <v>440.09456959800002</v>
       </c>
       <c r="F97" s="60">
-        <v>532.17806698057996</v>
+        <v>541.795290110579</v>
       </c>
       <c r="G97" s="60">
-        <v>922.64525731358003</v>
+        <v>936.47249432058004</v>
       </c>
       <c r="H97" s="59">
-        <v>8072.1138426493198</v>
+        <v>8136.3941172855702</v>
       </c>
       <c r="I97" s="60">
-        <v>54630.392040655497</v>
+        <v>54735.848844231397</v>
       </c>
       <c r="J97" s="60">
-        <v>306.63972097999999</v>
+        <v>310.40346206999999</v>
       </c>
       <c r="K97" s="60">
-        <v>576.22123319257105</v>
+        <v>581.188793792571</v>
       </c>
       <c r="L97" s="60">
-        <v>1389.2064628968801</v>
+        <v>1398.8173749288801</v>
       </c>
       <c r="M97" s="59">
-        <v>53241.185577758602</v>
+        <v>53337.031469302499</v>
       </c>
       <c r="N97" s="61">
-        <v>7.5788139762108599</v>
+        <v>7.5519865578998404</v>
       </c>
       <c r="O97" s="62">
-        <v>0.67140653463877997</v>
+        <v>0.66984247345013004</v>
       </c>
       <c r="P97" s="62">
-        <v>3.2230076455859999E-2</v>
+        <v>3.2097002668629998E-2</v>
       </c>
       <c r="Q97" s="62">
-        <v>3.9943761323969998E-2</v>
+        <v>4.0270399032529998E-2</v>
       </c>
       <c r="R97" s="62">
-        <v>6.9655110607189999E-2</v>
+        <v>6.9976164319500003E-2</v>
       </c>
       <c r="S97" s="61">
-        <v>0.60175142403159998</v>
+        <v>0.59986630913062999</v>
       </c>
       <c r="T97" s="62">
-        <v>4.0753693338907997</v>
+        <v>4.0347479565341704</v>
       </c>
       <c r="U97" s="62">
-        <v>2.3245884967310001E-2</v>
+        <v>2.3281190317789999E-2</v>
       </c>
       <c r="V97" s="62">
-        <v>4.5152147294369997E-2</v>
+        <v>4.5022884485210003E-2</v>
       </c>
       <c r="W97" s="62">
-        <v>0.10660437543607</v>
+        <v>0.10612038786673</v>
       </c>
       <c r="X97" s="61">
-        <v>3.96876495845473</v>
+        <v>3.9286275686674399</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8470,70 +8470,70 @@
         <v>174</v>
       </c>
       <c r="C98" s="54">
-        <v>187787.40330000001</v>
+        <v>191938.13930000001</v>
       </c>
       <c r="D98" s="55">
-        <v>16282.4376155175</v>
+        <v>17567.813165761101</v>
       </c>
       <c r="E98" s="55">
-        <v>2099.0184083648101</v>
+        <v>2294.3888873648102</v>
       </c>
       <c r="F98" s="55">
         <v>0</v>
       </c>
       <c r="G98" s="55">
-        <v>7454.6090228010298</v>
+        <v>8050.3823346810304</v>
       </c>
       <c r="H98" s="54">
-        <v>8827.8285927164306</v>
+        <v>9517.4308310800097</v>
       </c>
       <c r="I98" s="55">
-        <v>100451.492061422</v>
+        <v>101786.89466269199</v>
       </c>
       <c r="J98" s="55">
-        <v>6296.1703463699996</v>
+        <v>6326.2751420699997</v>
       </c>
       <c r="K98" s="55">
         <v>0</v>
       </c>
       <c r="L98" s="55">
-        <v>24490.397799701001</v>
+        <v>24656.354530340999</v>
       </c>
       <c r="M98" s="54">
-        <v>75961.094261720806</v>
+        <v>77130.5401323509</v>
       </c>
       <c r="N98" s="56">
-        <v>12.373033190493601</v>
+        <v>12.283768580571</v>
       </c>
       <c r="O98" s="57">
-        <v>1.0413478801188101</v>
+        <v>1.06861880129992</v>
       </c>
       <c r="P98" s="57">
-        <v>0.11748703287219001</v>
+        <v>0.12243489152258</v>
       </c>
       <c r="Q98" s="57">
         <v>0</v>
       </c>
       <c r="R98" s="57">
-        <v>0.49031301927889998</v>
+        <v>0.50280263376541001</v>
       </c>
       <c r="S98" s="56">
-        <v>0.55103486083991005</v>
+        <v>0.56581616753451003</v>
       </c>
       <c r="T98" s="57">
-        <v>6.9202695437147197</v>
+        <v>6.8336990790822503</v>
       </c>
       <c r="U98" s="57">
-        <v>0.41663444493399998</v>
+        <v>0.40955355933984999</v>
       </c>
       <c r="V98" s="57">
         <v>0</v>
       </c>
       <c r="W98" s="57">
-        <v>1.8896064226990901</v>
+        <v>1.8585849654051501</v>
       </c>
       <c r="X98" s="56">
-        <v>5.0306631210156203</v>
+        <v>4.9751141136771002</v>
       </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.35">
@@ -8957,11 +8957,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{1076E933-6AA0-44A9-88F6-68D3DE257989}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{8C8CF856-FE7B-437F-A813-66DEA969AA61}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{24D814DA-0E4F-461F-9210-A247373BCFCB}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{052CDF99-FCBF-4EDE-AB4C-D101EEB3891D}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{8E51ABC4-0E7C-4F29-8C72-0269CA414484}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{7DA221F6-F53C-453F-AAF2-D373A7483E13}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{0BF08A6D-8E66-48A9-AAA6-B5B28D233F60}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{5215BB9F-EF5D-4CA1-B8E1-CE46CCC06B0B}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{AA41DCF6-A372-4653-ACC1-9C9F0513AD25}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{348BF5D2-D4B3-4C63-9F36-A94D7DB00986}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab27.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab27.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A57592B5-7873-479C-AB3B-DDE9B1345876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62FC56A3-EA94-4197-8CB1-97D2A75B7A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DCE61088-D469-493A-BD91-5CBF87103A93}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CEEDC895-6775-4F75-BF2E-29531CC9D40A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab27" sheetId="1" r:id="rId1"/>
@@ -1394,7 +1394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B5C3D6-F699-4F33-8D4F-437ED50BCE6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51DEFC1-41A4-4AC2-9BD2-A094D00F7102}">
   <dimension ref="A1:X114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -8957,11 +8957,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{7DA221F6-F53C-453F-AAF2-D373A7483E13}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{0BF08A6D-8E66-48A9-AAA6-B5B28D233F60}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{5215BB9F-EF5D-4CA1-B8E1-CE46CCC06B0B}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{AA41DCF6-A372-4653-ACC1-9C9F0513AD25}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{348BF5D2-D4B3-4C63-9F36-A94D7DB00986}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{29E2C793-00F4-4402-9554-85363D13758E}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{B7DDCF26-D890-495F-BA77-47C698CA2005}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{8C4BAF02-DA1B-4026-AEDD-37BCC23DA001}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{3EAC4A88-D028-4873-8D98-96CA202E2CFA}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{2497D5CA-3D6B-4A06-8AEC-402CAF6858DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab27.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab27.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62FC56A3-EA94-4197-8CB1-97D2A75B7A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{811389D9-12A8-4C9B-91D7-C3AA6943F9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CEEDC895-6775-4F75-BF2E-29531CC9D40A}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{C4624792-95F3-4E60-9D29-DE9316DBA287}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab27" sheetId="1" r:id="rId1"/>
@@ -1394,7 +1394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51DEFC1-41A4-4AC2-9BD2-A094D00F7102}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1548D6-68ED-476D-8B0E-39C864C5C034}">
   <dimension ref="A1:X114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -8957,11 +8957,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{29E2C793-00F4-4402-9554-85363D13758E}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{B7DDCF26-D890-495F-BA77-47C698CA2005}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{8C4BAF02-DA1B-4026-AEDD-37BCC23DA001}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{3EAC4A88-D028-4873-8D98-96CA202E2CFA}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{2497D5CA-3D6B-4A06-8AEC-402CAF6858DA}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{766BB50F-0966-4E63-B23D-41EB2D6E360F}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{03AFA11C-C91B-4AF8-AF75-C9E851257135}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{66C4F50D-1C05-4D55-9770-92BF97A11979}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{126CBD54-A5B6-40B8-AC7B-A32C22CF34C1}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{76ED39A1-EC5E-470E-B182-5FB8B8EF5C5F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab27.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab27.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{811389D9-12A8-4C9B-91D7-C3AA6943F9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E729345A-BC59-485B-BCBB-09943D9B570C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{C4624792-95F3-4E60-9D29-DE9316DBA287}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{E7C68FC0-0A09-4D32-80C3-D63DA89C2EC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab27" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="186">
   <si>
     <t>Tableau 27 : Origine et destination géographiques de la valeur ajoutée</t>
   </si>
@@ -581,16 +581,19 @@
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
-    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
-  </si>
-  <si>
-    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs.</t>
-  </si>
-  <si>
     <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici.</t>
   </si>
   <si>
     <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir la liste complète des sources utilisées dans l'annexe statistique, cliquez ici.</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1548D6-68ED-476D-8B0E-39C864C5C034}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E8CCAD-7DC5-436D-A175-CB7F26F6998C}">
   <dimension ref="A1:X114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -8799,7 +8802,7 @@
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C109" s="65"/>
       <c r="D109" s="65"/>
@@ -8826,7 +8829,7 @@
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C110" s="65"/>
       <c r="D110" s="65"/>
@@ -8852,7 +8855,9 @@
       <c r="X110" s="65"/>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="C111" s="65"/>
       <c r="D111" s="65"/>
       <c r="E111" s="65"/>
@@ -8878,7 +8883,7 @@
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C112" s="65"/>
       <c r="D112" s="65"/>
@@ -8905,7 +8910,7 @@
     </row>
     <row r="113" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C113" s="65"/>
       <c r="D113" s="65"/>
@@ -8957,13 +8962,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{766BB50F-0966-4E63-B23D-41EB2D6E360F}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{03AFA11C-C91B-4AF8-AF75-C9E851257135}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{66C4F50D-1C05-4D55-9770-92BF97A11979}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{126CBD54-A5B6-40B8-AC7B-A32C22CF34C1}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{76ED39A1-EC5E-470E-B182-5FB8B8EF5C5F}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{6EDA9575-1741-4384-BF33-69275121A039}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{A9D6F6B4-4652-4221-88D2-5506C964EAE5}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{0B996028-2D94-4F8F-8175-EFDC87FA3345}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{A4DFBCCB-178E-4308-8EB1-A1EE7378AC27}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{6BAE7F01-7898-47C9-9BAE-B0E172D4EA43}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{91B14084-EEE2-4138-AF74-16F36FFC1BF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="83" orientation="portrait" r:id="rId2"/>
+  <pageSetup scale="83" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/DDAf_2023_Tableau_annexe_Tab27.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab27.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E729345A-BC59-485B-BCBB-09943D9B570C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{720D6395-6FB1-4BCC-A015-555C8FE12666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{E7C68FC0-0A09-4D32-80C3-D63DA89C2EC7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{3EC5A796-AB62-4E88-9FF9-A050BD4EE0B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab27" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab27'!$A$1:$E$103</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1397,20 +1397,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E8CCAD-7DC5-436D-A175-CB7F26F6998C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44BCB6C-0039-4813-8E60-E440AA2A8377}">
   <dimension ref="A1:X114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" style="67" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="67" bestFit="1" customWidth="1"/>
+    <col min="4" max="24" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1437,7 +1437,7 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" ht="95" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" ht="92.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
@@ -1552,40 +1552,40 @@
         <v>8113.7641932420001</v>
       </c>
       <c r="N3" s="12">
-        <v>23.806533800005798</v>
+        <v>23.806403521226802</v>
       </c>
       <c r="O3" s="13">
-        <v>2.2474343819506499</v>
+        <v>2.2474220830998499</v>
       </c>
       <c r="P3" s="13">
-        <v>4.9437006541520001E-2</v>
+        <v>4.943673600265E-2</v>
       </c>
       <c r="Q3" s="13">
-        <v>8.5299680267989994E-2</v>
+        <v>8.529921347437E-2</v>
       </c>
       <c r="R3" s="13">
-        <v>0.13069442235584</v>
+        <v>0.13069370714421</v>
       </c>
       <c r="S3" s="12">
-        <v>2.11673995959482</v>
+        <v>2.1167283759556499</v>
       </c>
       <c r="T3" s="13">
-        <v>9.6654274235513196</v>
+        <v>9.6653745305054901</v>
       </c>
       <c r="U3" s="13">
-        <v>4.10810461947E-3</v>
+        <v>4.10808213829E-3</v>
       </c>
       <c r="V3" s="13">
-        <v>4.1970200183730003E-2</v>
+        <v>4.1969970506169997E-2</v>
       </c>
       <c r="W3" s="13">
-        <v>6.5104886735490003E-2</v>
+        <v>6.5104530455769999E-2</v>
       </c>
       <c r="X3" s="12">
-        <v>9.6003225368158098</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+        <v>9.6002700000497008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>27</v>
       </c>
@@ -1626,40 +1626,40 @@
         <v>360.69631540260002</v>
       </c>
       <c r="N4" s="17">
-        <v>8.3658458798705695</v>
+        <v>8.3658361284139904</v>
       </c>
       <c r="O4" s="18">
-        <v>0.79624549740830997</v>
+        <v>0.79624456928299003</v>
       </c>
       <c r="P4" s="18">
-        <v>0.31333651640747001</v>
+        <v>0.31333615117392999</v>
       </c>
       <c r="Q4" s="18">
-        <v>0.31611765566984001</v>
+        <v>0.31611728719454002</v>
       </c>
       <c r="R4" s="18">
-        <v>0.34234309752306002</v>
+        <v>0.34234269847866999</v>
       </c>
       <c r="S4" s="17">
-        <v>0.45390239988525</v>
+        <v>0.45390187080431998</v>
       </c>
       <c r="T4" s="18">
-        <v>2.2700328251780202</v>
+        <v>2.27003017916627</v>
       </c>
       <c r="U4" s="18">
-        <v>7.0437383493280006E-2</v>
+        <v>7.0437301389549997E-2</v>
       </c>
       <c r="V4" s="18">
-        <v>8.2661016093179995E-2</v>
+        <v>8.2660919741259997E-2</v>
       </c>
       <c r="W4" s="18">
-        <v>0.10965467567822999</v>
+        <v>0.10965454786176</v>
       </c>
       <c r="X4" s="17">
-        <v>2.1603781494997998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+        <v>2.1603756313045102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>29</v>
       </c>
@@ -1700,40 +1700,40 @@
         <v>101.6860708249</v>
       </c>
       <c r="N5" s="22">
-        <v>9.8482101829164908</v>
+        <v>9.8489365962180209</v>
       </c>
       <c r="O5" s="23">
-        <v>4.06305265371474</v>
+        <v>4.0633523483229599</v>
       </c>
       <c r="P5" s="23">
-        <v>2.00716033705113</v>
+        <v>2.0073083870967698</v>
       </c>
       <c r="Q5" s="23">
-        <v>2.0316527564960101</v>
+        <v>2.0318026131256999</v>
       </c>
       <c r="R5" s="23">
-        <v>2.11510606884289</v>
+        <v>2.11526208106786</v>
       </c>
       <c r="S5" s="22">
-        <v>1.94794658487185</v>
+        <v>1.9480902672551099</v>
       </c>
       <c r="T5" s="23">
-        <v>2.3907722388469099</v>
+        <v>2.3909485844694101</v>
       </c>
       <c r="U5" s="23">
-        <v>2.2638274562099998E-2</v>
+        <v>2.2639944382650001E-2</v>
       </c>
       <c r="V5" s="23">
-        <v>4.1043978341530001E-2</v>
+        <v>4.1047005784200001E-2</v>
       </c>
       <c r="W5" s="23">
-        <v>0.12873506604824</v>
+        <v>0.12874456166852</v>
       </c>
       <c r="X5" s="22">
-        <v>2.2620371727986699</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+        <v>2.2622040228008902</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
@@ -1774,40 +1774,40 @@
         <v>39.963386739050001</v>
       </c>
       <c r="N6" s="22">
-        <v>6.4339233979689903</v>
+        <v>6.4326189473684199</v>
       </c>
       <c r="O6" s="23">
-        <v>6.0301910566691399</v>
+        <v>6.02896846108339</v>
       </c>
       <c r="P6" s="23">
-        <v>1.452629672382E-2</v>
+        <v>1.4523351578949999E-2</v>
       </c>
       <c r="Q6" s="23">
-        <v>0.13903189802065</v>
+        <v>0.13900370989474001</v>
       </c>
       <c r="R6" s="23">
-        <v>0.80989684187642996</v>
+        <v>0.80973263873683998</v>
       </c>
       <c r="S6" s="22">
-        <v>5.2202942147927196</v>
+        <v>5.2192358223465503</v>
       </c>
       <c r="T6" s="23">
-        <v>1.7779648929760701</v>
+        <v>1.7776044181570601</v>
       </c>
       <c r="U6" s="23">
-        <v>1.076758518736E-2</v>
+        <v>1.0765402105260001E-2</v>
       </c>
       <c r="V6" s="23">
-        <v>2.298089848699E-2</v>
+        <v>2.2976239207580001E-2</v>
       </c>
       <c r="W6" s="23">
-        <v>9.4954754501189995E-2</v>
+        <v>9.4935502828630003E-2</v>
       </c>
       <c r="X6" s="22">
-        <v>1.6830101384748699</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+        <v>1.68266891532842</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>33</v>
       </c>
@@ -1848,40 +1848,40 @@
         <v>278.31285076815999</v>
       </c>
       <c r="N7" s="22">
-        <v>7.5814990912711897</v>
+        <v>7.5812809355452799</v>
       </c>
       <c r="O7" s="23">
-        <v>1.1514108219150201</v>
+        <v>1.15137769035876</v>
       </c>
       <c r="P7" s="23">
-        <v>0.23600085305346</v>
+        <v>0.23599406218838001</v>
       </c>
       <c r="Q7" s="23">
-        <v>0.19342564337363999</v>
+        <v>0.19342007759949001</v>
       </c>
       <c r="R7" s="23">
-        <v>0.43969537909319001</v>
+        <v>0.43968272696944999</v>
       </c>
       <c r="S7" s="22">
-        <v>0.71171544282182997</v>
+        <v>0.71169496338931004</v>
       </c>
       <c r="T7" s="23">
-        <v>2.7722517989872801</v>
+        <v>2.7721720281403401</v>
       </c>
       <c r="U7" s="23">
-        <v>1.787395643626E-2</v>
+        <v>1.7873442117669999E-2</v>
       </c>
       <c r="V7" s="23">
-        <v>0.20808833262633</v>
+        <v>0.20808234493700001</v>
       </c>
       <c r="W7" s="23">
-        <v>0.24917266399720001</v>
+        <v>0.24916549411658001</v>
       </c>
       <c r="X7" s="22">
-        <v>2.5230791349900801</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+        <v>2.5230065340237502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>35</v>
       </c>
@@ -1922,40 +1922,40 @@
         <v>257.69551794594997</v>
       </c>
       <c r="N8" s="22">
-        <v>5.4842379134501904</v>
+        <v>5.4842501624431499</v>
       </c>
       <c r="O8" s="23">
-        <v>0.61484755538111002</v>
+        <v>0.61484892863725005</v>
       </c>
       <c r="P8" s="23">
-        <v>0.16840624257972001</v>
+        <v>0.16840661871345</v>
       </c>
       <c r="Q8" s="23">
-        <v>0.16565385769400001</v>
+        <v>0.16565422768030999</v>
       </c>
       <c r="R8" s="23">
-        <v>0.1874884084849</v>
+        <v>0.18748882723846999</v>
       </c>
       <c r="S8" s="22">
-        <v>0.42735914689621002</v>
+        <v>0.42736010139878</v>
       </c>
       <c r="T8" s="23">
-        <v>2.1006814309547899</v>
+        <v>2.1006861228066902</v>
       </c>
       <c r="U8" s="23">
-        <v>0.39245903150368</v>
+        <v>0.39245990805718001</v>
       </c>
       <c r="V8" s="23">
-        <v>0.39817952392520001</v>
+        <v>0.39818041325536002</v>
       </c>
       <c r="W8" s="23">
-        <v>0.42625035631698999</v>
+        <v>0.42625130834308</v>
       </c>
       <c r="X8" s="22">
-        <v>1.6744310746378099</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+        <v>1.6744348144636101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>37</v>
       </c>
@@ -1996,40 +1996,40 @@
         <v>294.63096039991001</v>
       </c>
       <c r="N9" s="22">
-        <v>10.182336359940599</v>
+        <v>10.182470691442701</v>
       </c>
       <c r="O9" s="23">
-        <v>3.3160366514757298</v>
+        <v>3.3160803986245702</v>
       </c>
       <c r="P9" s="23">
-        <v>1.9554823773940899</v>
+        <v>1.9555081752930901</v>
       </c>
       <c r="Q9" s="23">
-        <v>1.96136256180177</v>
+        <v>1.9613884372757</v>
       </c>
       <c r="R9" s="23">
-        <v>2.0276664540081599</v>
+        <v>2.0276932042028899</v>
       </c>
       <c r="S9" s="22">
-        <v>1.2883701974675801</v>
+        <v>1.28838719442169</v>
       </c>
       <c r="T9" s="23">
-        <v>2.69292610531943</v>
+        <v>2.6929616320193799</v>
       </c>
       <c r="U9" s="23">
-        <v>0.30715379535824999</v>
+        <v>0.30715784751574998</v>
       </c>
       <c r="V9" s="23">
-        <v>0.30921558768092999</v>
+        <v>0.30921966703884002</v>
       </c>
       <c r="W9" s="23">
-        <v>0.34324053627523998</v>
+        <v>0.34324506451073</v>
       </c>
       <c r="X9" s="22">
-        <v>2.34968556904419</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+        <v>2.3497165675086502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>39</v>
       </c>
@@ -2070,40 +2070,40 @@
         <v>33562.019872019999</v>
       </c>
       <c r="N10" s="22">
-        <v>21.493245332104699</v>
+        <v>21.449146424488401</v>
       </c>
       <c r="O10" s="23">
-        <v>5.7631905721861303</v>
+        <v>5.7513659079862398</v>
       </c>
       <c r="P10" s="23">
-        <v>1.7223382505010001E-2</v>
+        <v>1.718804431656E-2</v>
       </c>
       <c r="Q10" s="23">
-        <v>7.9355569175360005E-2</v>
+        <v>7.9192750863849998E-2</v>
       </c>
       <c r="R10" s="23">
-        <v>0.19761761708834</v>
+        <v>0.19721215384141</v>
       </c>
       <c r="S10" s="22">
-        <v>5.5655729550977897</v>
+        <v>5.5541537541448296</v>
       </c>
       <c r="T10" s="23">
-        <v>8.8184749771222695</v>
+        <v>8.8003816130293195</v>
       </c>
       <c r="U10" s="23">
-        <v>0.10625522461858</v>
+        <v>0.10603721476191</v>
       </c>
       <c r="V10" s="23">
-        <v>0.13096696062491001</v>
+        <v>0.1306982483012</v>
       </c>
       <c r="W10" s="23">
-        <v>0.17840958284802999</v>
+        <v>0.17804352981182001</v>
       </c>
       <c r="X10" s="22">
-        <v>8.6400653942742398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+        <v>8.6223380832175103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>41</v>
       </c>
@@ -2144,40 +2144,40 @@
         <v>1223.7866712117</v>
       </c>
       <c r="N11" s="17">
-        <v>15.980192582497001</v>
+        <v>15.979964820455599</v>
       </c>
       <c r="O11" s="18">
-        <v>1.5823495977950599</v>
+        <v>1.5823270449270299</v>
       </c>
       <c r="P11" s="18">
-        <v>0.17456762686017999</v>
+        <v>0.17456513878759</v>
       </c>
       <c r="Q11" s="18">
-        <v>0.28038877318456001</v>
+        <v>0.28038477686730001</v>
       </c>
       <c r="R11" s="18">
-        <v>0.44239898806667999</v>
+        <v>0.44239268265477</v>
       </c>
       <c r="S11" s="17">
-        <v>1.13995060972838</v>
+        <v>1.13993436227226</v>
       </c>
       <c r="T11" s="18">
-        <v>6.1993800204105298</v>
+        <v>6.1992916620605802</v>
       </c>
       <c r="U11" s="18">
-        <v>9.4510061689929994E-2</v>
+        <v>9.4508714659570003E-2</v>
       </c>
       <c r="V11" s="18">
-        <v>0.84939230912082997</v>
+        <v>0.84938020292590999</v>
       </c>
       <c r="W11" s="18">
-        <v>0.94902988178295</v>
+        <v>0.94901635547643004</v>
       </c>
       <c r="X11" s="17">
-        <v>5.2503501386275797</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5.2502753065841601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>43</v>
       </c>
@@ -2218,40 +2218,40 @@
         <v>1055.0708172679999</v>
       </c>
       <c r="N12" s="22">
-        <v>0.50144152575620005</v>
+        <v>0.50120023037050998</v>
       </c>
       <c r="O12" s="23">
-        <v>5.8773598944679997E-2</v>
+        <v>5.8745316886860001E-2</v>
       </c>
       <c r="P12" s="23">
-        <v>2.7260562068910001E-2</v>
+        <v>2.724744419274E-2</v>
       </c>
       <c r="Q12" s="23">
-        <v>2.7502819685299999E-2</v>
+        <v>2.748958523394E-2</v>
       </c>
       <c r="R12" s="23">
-        <v>2.9907360024260001E-2</v>
+        <v>2.9892968499829999E-2</v>
       </c>
       <c r="S12" s="22">
-        <v>2.8866238920410001E-2</v>
+        <v>2.8852348387030002E-2</v>
       </c>
       <c r="T12" s="23">
-        <v>4.1535485034668902</v>
+        <v>4.1515498016509902</v>
       </c>
       <c r="U12" s="23">
-        <v>2.611825343041E-2</v>
+        <v>2.610568523709E-2</v>
       </c>
       <c r="V12" s="23">
-        <v>4.4753144581809998E-2</v>
+        <v>4.4731609214820001E-2</v>
       </c>
       <c r="W12" s="23">
-        <v>0.10064481601054</v>
+        <v>0.10059638537915</v>
       </c>
       <c r="X12" s="22">
-        <v>4.0529036874563502</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>4.0509534162718399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
         <v>45</v>
       </c>
@@ -2292,40 +2292,40 @@
         <v>45287.6266558223</v>
       </c>
       <c r="N13" s="28">
-        <v>19.4819986464354</v>
+        <v>19.453413598541399</v>
       </c>
       <c r="O13" s="29">
-        <v>4.3387587912235803</v>
+        <v>4.3310560691460704</v>
       </c>
       <c r="P13" s="29">
-        <v>0.10269324546001</v>
+        <v>0.10267533150065999</v>
       </c>
       <c r="Q13" s="29">
-        <v>0.15361681112096001</v>
+        <v>0.15351596927000999</v>
       </c>
       <c r="R13" s="29">
-        <v>0.25696336528816</v>
+        <v>0.25670451426414997</v>
       </c>
       <c r="S13" s="28">
-        <v>4.0817954259354297</v>
+        <v>4.07435155488192</v>
       </c>
       <c r="T13" s="29">
-        <v>7.9683352004528301</v>
+        <v>7.9566037939584202</v>
       </c>
       <c r="U13" s="29">
-        <v>9.4855209289310002E-2</v>
+        <v>9.471383945919E-2</v>
       </c>
       <c r="V13" s="29">
-        <v>0.15987038587405</v>
+        <v>0.15969730098528001</v>
       </c>
       <c r="W13" s="29">
-        <v>0.20478803142957999</v>
+        <v>0.20455185343242999</v>
       </c>
       <c r="X13" s="28">
-        <v>7.7635471690232603</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+        <v>7.7520519405259902</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>47</v>
       </c>
@@ -2366,40 +2366,40 @@
         <v>68.0965145989001</v>
       </c>
       <c r="N14" s="22">
-        <v>4.9881399317075097</v>
+        <v>4.9889375830013298</v>
       </c>
       <c r="O14" s="23">
-        <v>0.92131344781546998</v>
+        <v>0.92146077464946996</v>
       </c>
       <c r="P14" s="23">
-        <v>1.512338541086E-2</v>
+        <v>1.512580378486E-2</v>
       </c>
       <c r="Q14" s="23">
-        <v>1.6183206639149999E-2</v>
+        <v>1.6185794488709999E-2</v>
       </c>
       <c r="R14" s="23">
-        <v>0.13011021069968001</v>
+        <v>0.13013101656706</v>
       </c>
       <c r="S14" s="22">
-        <v>0.79120323711578999</v>
+        <v>0.79132975808241002</v>
       </c>
       <c r="T14" s="23">
-        <v>2.3501820928925001</v>
+        <v>2.3505579094920299</v>
       </c>
       <c r="U14" s="23">
-        <v>3.06321268623E-3</v>
+        <v>3.0637025232400001E-3</v>
       </c>
       <c r="V14" s="23">
-        <v>1.112030840969E-2</v>
+        <v>1.112208665339E-2</v>
       </c>
       <c r="W14" s="23">
-        <v>8.9703106976280006E-2</v>
+        <v>8.9717451361220002E-2</v>
       </c>
       <c r="X14" s="22">
-        <v>2.26047898591623</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+        <v>2.2608404581308101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>49</v>
       </c>
@@ -2440,40 +2440,40 @@
         <v>1319.5871506190001</v>
       </c>
       <c r="N15" s="22">
-        <v>6.2513126569421802</v>
+        <v>6.2512590426738601</v>
       </c>
       <c r="O15" s="23">
-        <v>0.44321003539668002</v>
+        <v>0.44320623421394001</v>
       </c>
       <c r="P15" s="23">
-        <v>4.3306265348289998E-2</v>
+        <v>4.3305893932899998E-2</v>
       </c>
       <c r="Q15" s="23">
-        <v>4.2199944010599998E-3</v>
+        <v>4.2199582083499998E-3</v>
       </c>
       <c r="R15" s="23">
-        <v>6.8606902402760003E-2</v>
+        <v>6.8606313996919993E-2</v>
       </c>
       <c r="S15" s="22">
-        <v>0.37460313299391002</v>
+        <v>0.37459992021701999</v>
       </c>
       <c r="T15" s="23">
-        <v>3.4186826233716698</v>
+        <v>3.4186533031028699</v>
       </c>
       <c r="U15" s="23">
-        <v>4.9165045639119997E-2</v>
+        <v>4.9164623976000001E-2</v>
       </c>
       <c r="V15" s="23">
-        <v>5.202714325821E-2</v>
+        <v>5.2026697048369999E-2</v>
       </c>
       <c r="W15" s="23">
-        <v>9.249486814506E-2</v>
+        <v>9.2494074864520007E-2</v>
       </c>
       <c r="X15" s="22">
-        <v>3.3261877552266101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+        <v>3.3261592282383501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>51</v>
       </c>
@@ -2514,40 +2514,40 @@
         <v>99.001551283560104</v>
       </c>
       <c r="N16" s="22">
-        <v>6.8091279984330804</v>
+        <v>6.8104302019315197</v>
       </c>
       <c r="O16" s="23">
-        <v>1.6069623881831701</v>
+        <v>1.60726970977328</v>
       </c>
       <c r="P16" s="23">
-        <v>7.8813659158770005E-2</v>
+        <v>7.8828731782269998E-2</v>
       </c>
       <c r="Q16" s="23">
-        <v>7.4732205295350004E-2</v>
+        <v>7.4746497366109999E-2</v>
       </c>
       <c r="R16" s="23">
-        <v>0.19948022601712001</v>
+        <v>0.19951837537313999</v>
       </c>
       <c r="S16" s="22">
-        <v>1.40748216216606</v>
+        <v>1.40775133440015</v>
       </c>
       <c r="T16" s="23">
-        <v>4.4454102198007304</v>
+        <v>4.4462603769341502</v>
       </c>
       <c r="U16" s="23">
-        <v>2.1973452278940001E-2</v>
+        <v>2.1977654565409999E-2</v>
       </c>
       <c r="V16" s="23">
-        <v>2.5473943016170002E-2</v>
+        <v>2.5478814749780001E-2</v>
       </c>
       <c r="W16" s="23">
-        <v>0.10025563371166001</v>
+        <v>0.10027480697981001</v>
       </c>
       <c r="X16" s="22">
-        <v>4.3451545860890697</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+        <v>4.3459855699543501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>53</v>
       </c>
@@ -2588,40 +2588,40 @@
         <v>422.43278138120002</v>
       </c>
       <c r="N17" s="33">
-        <v>7.7474072582972102</v>
+        <v>7.7471900300191097</v>
       </c>
       <c r="O17" s="34">
-        <v>0.10391914871383</v>
+        <v>0.10391623494191</v>
       </c>
       <c r="P17" s="34">
-        <v>2.4793631598599999E-3</v>
+        <v>2.4792936414099998E-3</v>
       </c>
       <c r="Q17" s="34">
-        <v>1.58199887392E-3</v>
+        <v>1.5819545165099999E-3</v>
       </c>
       <c r="R17" s="34">
-        <v>1.1178363287289999E-2</v>
+        <v>1.1178049859E-2</v>
       </c>
       <c r="S17" s="33">
-        <v>9.2740785426540004E-2</v>
+        <v>9.2738185082909999E-2</v>
       </c>
       <c r="T17" s="34">
-        <v>4.03067690281698</v>
+        <v>4.0305638873301204</v>
       </c>
       <c r="U17" s="34">
-        <v>2.7379277944150002E-2</v>
+        <v>2.737851026108E-2</v>
       </c>
       <c r="V17" s="34">
-        <v>2.888989036273E-2</v>
+        <v>2.8889080323840001E-2</v>
       </c>
       <c r="W17" s="34">
-        <v>0.18782575902904999</v>
+        <v>0.18782049261347999</v>
       </c>
       <c r="X17" s="33">
-        <v>3.84285114378793</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+        <v>3.8427433947166398</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>55</v>
       </c>
@@ -2662,40 +2662,40 @@
         <v>1351.0401017208001</v>
       </c>
       <c r="N18" s="33">
-        <v>36.294447598983098</v>
+        <v>33.524139658009602</v>
       </c>
       <c r="O18" s="34">
-        <v>4.8176768924881603</v>
+        <v>4.4499498864246103</v>
       </c>
       <c r="P18" s="34">
-        <v>0.10742539037319999</v>
+        <v>9.9225750160979995E-2</v>
       </c>
       <c r="Q18" s="34">
-        <v>0.11222358441779</v>
+        <v>0.10365770429991999</v>
       </c>
       <c r="R18" s="34">
-        <v>0.32985302408653</v>
+        <v>0.30467577212564001</v>
       </c>
       <c r="S18" s="33">
-        <v>4.48782386840164</v>
+        <v>4.1452741142989797</v>
       </c>
       <c r="T18" s="34">
-        <v>10.528201959601001</v>
+        <v>9.7245980085197203</v>
       </c>
       <c r="U18" s="34">
-        <v>7.8012052131100004E-3</v>
+        <v>7.2057493739699999E-3</v>
       </c>
       <c r="V18" s="34">
-        <v>7.6565424126999997E-3</v>
+        <v>7.0721284968099998E-3</v>
       </c>
       <c r="W18" s="34">
-        <v>6.3259989515129997E-2</v>
+        <v>5.843143686057E-2</v>
       </c>
       <c r="X18" s="33">
-        <v>10.464941970085899</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+        <v>9.6661665716591507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>57</v>
       </c>
@@ -2736,40 +2736,40 @@
         <v>1975.1293320013999</v>
       </c>
       <c r="N19" s="17">
-        <v>4.1311825111250702</v>
+        <v>4.1311862608319796</v>
       </c>
       <c r="O19" s="18">
-        <v>0.26276099968257999</v>
+        <v>0.26276123818009001</v>
       </c>
       <c r="P19" s="18">
-        <v>3.5399783553550002E-2</v>
+        <v>3.5399815684499999E-2</v>
       </c>
       <c r="Q19" s="18">
-        <v>3.8805413285500001E-3</v>
+        <v>3.8805448507599999E-3</v>
       </c>
       <c r="R19" s="18">
-        <v>6.8240560815330004E-2</v>
+        <v>6.8240622754520003E-2</v>
       </c>
       <c r="S19" s="17">
-        <v>0.19452043886726</v>
+        <v>0.19452061542558</v>
       </c>
       <c r="T19" s="18">
-        <v>3.9786949465949899</v>
+        <v>3.9786985578951102</v>
       </c>
       <c r="U19" s="18">
-        <v>4.2961285778339998E-2</v>
+        <v>4.2961324772549998E-2</v>
       </c>
       <c r="V19" s="18">
-        <v>2.4578342235099999E-3</v>
+        <v>2.4578364543799999E-3</v>
       </c>
       <c r="W19" s="18">
-        <v>9.7600962868599997E-2</v>
+        <v>9.7601051457039997E-2</v>
       </c>
       <c r="X19" s="17">
-        <v>3.88109398372639</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+        <v>3.8810975064380702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>59</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>62</v>
       </c>
@@ -2884,40 +2884,40 @@
         <v>1074.9186299954999</v>
       </c>
       <c r="N21" s="33">
-        <v>15.7961226203503</v>
+        <v>15.844163100332899</v>
       </c>
       <c r="O21" s="34">
-        <v>2.3677639754751998</v>
+        <v>2.3749650159204601</v>
       </c>
       <c r="P21" s="34">
-        <v>4.248022430146E-2</v>
+        <v>4.2609418687590002E-2</v>
       </c>
       <c r="Q21" s="34">
-        <v>4.5799160671490001E-2</v>
+        <v>4.5938448882549998E-2</v>
       </c>
       <c r="R21" s="34">
-        <v>0.17536169119441</v>
+        <v>0.17589501573346999</v>
       </c>
       <c r="S21" s="33">
-        <v>2.1924022842808002</v>
+        <v>2.1990700001869801</v>
       </c>
       <c r="T21" s="34">
-        <v>6.4427591695381601</v>
+        <v>6.46235342379636</v>
       </c>
       <c r="U21" s="34">
-        <v>7.8192194216300005E-3</v>
+        <v>7.8429998811199997E-3</v>
       </c>
       <c r="V21" s="34">
-        <v>1.036412959379E-2</v>
+        <v>1.039564984546E-2</v>
       </c>
       <c r="W21" s="34">
-        <v>7.2933858106970006E-2</v>
+        <v>7.3155670613409995E-2</v>
       </c>
       <c r="X21" s="33">
-        <v>6.3698253114311996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>6.3891977531829598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>64</v>
       </c>
@@ -2958,40 +2958,40 @@
         <v>35.717613185250002</v>
       </c>
       <c r="N22" s="22">
-        <v>27.2871620633215</v>
+        <v>28.249447115384601</v>
       </c>
       <c r="O22" s="23">
-        <v>8.1304925043010705</v>
+        <v>8.4172153003413595</v>
       </c>
       <c r="P22" s="23">
         <v>0</v>
       </c>
       <c r="Q22" s="23">
-        <v>0.15665268898573001</v>
+        <v>0.16217706490385</v>
       </c>
       <c r="R22" s="23">
-        <v>1.0083597662757</v>
+        <v>1.0439196947115399</v>
       </c>
       <c r="S22" s="22">
-        <v>7.1221327380253703</v>
+        <v>7.37329560562981</v>
       </c>
       <c r="T22" s="23">
-        <v>8.6894472606282598</v>
+        <v>8.9958816633774106</v>
       </c>
       <c r="U22" s="23">
         <v>0</v>
       </c>
       <c r="V22" s="23">
-        <v>4.2902985015669998E-2</v>
+        <v>4.4415963942309997E-2</v>
       </c>
       <c r="W22" s="23">
-        <v>0.39595360391998002</v>
+        <v>0.40991695538461997</v>
       </c>
       <c r="X22" s="22">
-        <v>8.2934936567082804</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>8.5859647079927903</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
         <v>45</v>
       </c>
@@ -3032,40 +3032,40 @@
         <v>6345.9236747856103</v>
       </c>
       <c r="N23" s="28">
-        <v>8.9434449505050093</v>
+        <v>8.9144761717612706</v>
       </c>
       <c r="O23" s="29">
-        <v>0.94059032838395995</v>
+        <v>0.93718709064325001</v>
       </c>
       <c r="P23" s="29">
-        <v>4.1120855031750003E-2</v>
+        <v>4.0961175898020001E-2</v>
       </c>
       <c r="Q23" s="29">
-        <v>1.8286538941860001E-2</v>
+        <v>1.8236993740199998E-2</v>
       </c>
       <c r="R23" s="29">
-        <v>0.10102932384285</v>
+        <v>0.10043811184195001</v>
       </c>
       <c r="S23" s="28">
-        <v>0.83956100454111005</v>
+        <v>0.83674897880129995</v>
       </c>
       <c r="T23" s="29">
-        <v>4.5187659328205303</v>
+        <v>4.4982507311992403</v>
       </c>
       <c r="U23" s="29">
-        <v>3.5507260130049997E-2</v>
+        <v>3.5285972859790002E-2</v>
       </c>
       <c r="V23" s="29">
-        <v>2.3487790964929998E-2</v>
+        <v>2.3333330295020001E-2</v>
       </c>
       <c r="W23" s="29">
-        <v>9.9278622945300002E-2</v>
+        <v>9.860301471921E-2</v>
       </c>
       <c r="X23" s="28">
-        <v>4.4194873098752296</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+        <v>4.3996477164800298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>67</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>69</v>
       </c>
@@ -3180,40 +3180,40 @@
         <v>40.764166191248997</v>
       </c>
       <c r="N25" s="22">
-        <v>4.41803710890738</v>
+        <v>4.4178277759792799</v>
       </c>
       <c r="O25" s="23">
-        <v>0.99188472788172999</v>
+        <v>0.99183773096222005</v>
       </c>
       <c r="P25" s="23">
-        <v>6.8310685346999996E-3</v>
+        <v>6.8307448688899996E-3</v>
       </c>
       <c r="Q25" s="23">
-        <v>3.0815737497480001E-2</v>
+        <v>3.0814277403689999E-2</v>
       </c>
       <c r="R25" s="23">
-        <v>0.10012468218621</v>
+        <v>0.10011993813532</v>
       </c>
       <c r="S25" s="22">
-        <v>0.89176004569553002</v>
+        <v>0.89171779282690999</v>
       </c>
       <c r="T25" s="23">
-        <v>1.41426953498732</v>
+        <v>1.4142025248704799</v>
       </c>
       <c r="U25" s="23">
-        <v>4.6743640484799998E-3</v>
+        <v>4.6741425704099997E-3</v>
       </c>
       <c r="V25" s="23">
-        <v>1.7922432227100001E-2</v>
+        <v>1.7921583036580001E-2</v>
       </c>
       <c r="W25" s="23">
-        <v>9.4551252456809995E-2</v>
+        <v>9.4546772483000002E-2</v>
       </c>
       <c r="X25" s="22">
-        <v>1.3197182825305001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+        <v>1.3196557523874699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>71</v>
       </c>
@@ -3254,40 +3254,40 @@
         <v>109.68854248267</v>
       </c>
       <c r="N26" s="22">
-        <v>12.0137423750678</v>
+        <v>12.012875882946499</v>
       </c>
       <c r="O26" s="23">
-        <v>0.56396065353992997</v>
+        <v>0.56391997783309</v>
       </c>
       <c r="P26" s="23">
-        <v>7.6427313536899999E-3</v>
+        <v>7.6421801210900002E-3</v>
       </c>
       <c r="Q26" s="23">
-        <v>3.0616762020439999E-2</v>
+        <v>3.061455378406E-2</v>
       </c>
       <c r="R26" s="23">
-        <v>8.2302094925039995E-2</v>
+        <v>8.2296158879920006E-2</v>
       </c>
       <c r="S26" s="22">
-        <v>0.48165855861489998</v>
+        <v>0.48162381895317002</v>
       </c>
       <c r="T26" s="23">
-        <v>5.8478437359645197</v>
+        <v>5.8474219597714603</v>
       </c>
       <c r="U26" s="23">
-        <v>1.0083224730679999E-2</v>
+        <v>1.0082497477299999E-2</v>
       </c>
       <c r="V26" s="23">
-        <v>4.2724321656539999E-2</v>
+        <v>4.272124016145E-2</v>
       </c>
       <c r="W26" s="23">
-        <v>0.31320930871241998</v>
+        <v>0.31318671846619001</v>
       </c>
       <c r="X26" s="22">
-        <v>5.5346344272520902</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+        <v>5.5342352413052502</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>73</v>
       </c>
@@ -3328,40 +3328,40 @@
         <v>904.76693970450003</v>
       </c>
       <c r="N27" s="22">
-        <v>3.9981902627121499</v>
+        <v>3.99818482204561</v>
       </c>
       <c r="O27" s="23">
-        <v>0.17118789658433001</v>
+        <v>0.17118766363487001</v>
       </c>
       <c r="P27" s="23">
-        <v>1.1277773855600001E-3</v>
+        <v>1.1277758508999999E-3</v>
       </c>
       <c r="Q27" s="23">
-        <v>2.0176285122300002E-3</v>
+        <v>2.0176257666699999E-3</v>
       </c>
       <c r="R27" s="23">
-        <v>1.116924193958E-2</v>
+        <v>1.116922674067E-2</v>
       </c>
       <c r="S27" s="22">
-        <v>0.16001865464476001</v>
+        <v>0.16001843689420001</v>
       </c>
       <c r="T27" s="23">
-        <v>0.99534182751121003</v>
+        <v>0.99534047306767004</v>
       </c>
       <c r="U27" s="23">
-        <v>1.7264657369599999E-3</v>
+        <v>1.72646338761E-3</v>
       </c>
       <c r="V27" s="23">
-        <v>3.2403695117999998E-3</v>
+        <v>3.2403651023699999E-3</v>
       </c>
       <c r="W27" s="23">
-        <v>1.83547735882E-2</v>
+        <v>1.8354748611349999E-2</v>
       </c>
       <c r="X27" s="22">
-        <v>0.976987053923</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+        <v>0.97698572445631005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>75</v>
       </c>
@@ -3402,40 +3402,40 @@
         <v>1882.6853766221</v>
       </c>
       <c r="N28" s="22">
-        <v>5.9942906934335198</v>
+        <v>5.9973058368551202</v>
       </c>
       <c r="O28" s="23">
-        <v>0.67363121034645002</v>
+        <v>0.67397004855372999</v>
       </c>
       <c r="P28" s="23">
-        <v>6.7578126821199996E-3</v>
+        <v>6.7612118790400001E-3</v>
       </c>
       <c r="Q28" s="23">
-        <v>8.1639851879900006E-3</v>
+        <v>8.1680916932499997E-3</v>
       </c>
       <c r="R28" s="23">
-        <v>4.8121532381719997E-2</v>
+        <v>4.8145737634560003E-2</v>
       </c>
       <c r="S28" s="22">
-        <v>0.62550967796473</v>
+        <v>0.62582431091917001</v>
       </c>
       <c r="T28" s="23">
-        <v>1.9647583600068701</v>
+        <v>1.965746638445</v>
       </c>
       <c r="U28" s="23">
-        <v>4.1626039530230002E-2</v>
+        <v>4.1646977533689997E-2</v>
       </c>
       <c r="V28" s="23">
-        <v>4.7343352197220002E-2</v>
+        <v>4.7367166023440002E-2</v>
       </c>
       <c r="W28" s="23">
-        <v>8.9171427939620004E-2</v>
+        <v>8.9216281394029998E-2</v>
       </c>
       <c r="X28" s="22">
-        <v>1.87558693206725</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+        <v>1.8765303570509699</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>77</v>
       </c>
@@ -3476,40 +3476,40 @@
         <v>540.47643592586996</v>
       </c>
       <c r="N29" s="22">
-        <v>10.980707697501201</v>
+        <v>10.980446650124099</v>
       </c>
       <c r="O29" s="23">
-        <v>1.24419984747783</v>
+        <v>1.2441702687734599</v>
       </c>
       <c r="P29" s="23">
         <v>0</v>
       </c>
       <c r="Q29" s="23">
-        <v>4.5739667246959999E-2</v>
+        <v>4.57385798653E-2</v>
       </c>
       <c r="R29" s="23">
-        <v>0.11003425968889</v>
+        <v>0.11003164381423999</v>
       </c>
       <c r="S29" s="22">
-        <v>1.1341655877889401</v>
+        <v>1.13413862495922</v>
       </c>
       <c r="T29" s="23">
-        <v>3.92694627037949</v>
+        <v>3.92685291400828</v>
       </c>
       <c r="U29" s="23">
         <v>0</v>
       </c>
       <c r="V29" s="23">
-        <v>4.4044043809880001E-2</v>
+        <v>4.4042996738740001E-2</v>
       </c>
       <c r="W29" s="23">
-        <v>9.5047758320289999E-2</v>
+        <v>9.504549872385E-2</v>
       </c>
       <c r="X29" s="22">
-        <v>3.8318985120592099</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+        <v>3.8318074152844401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>79</v>
       </c>
@@ -3550,40 +3550,40 @@
         <v>636.58414771929995</v>
       </c>
       <c r="N30" s="22">
-        <v>13.8616229162338</v>
+        <v>13.8619562205597</v>
       </c>
       <c r="O30" s="23">
-        <v>6.3983811677252502</v>
+        <v>6.39853501754029</v>
       </c>
       <c r="P30" s="23">
         <v>0</v>
       </c>
       <c r="Q30" s="23">
-        <v>8.6052095663749995E-2</v>
+        <v>8.6054164796339996E-2</v>
       </c>
       <c r="R30" s="23">
-        <v>0.38095812583887001</v>
+        <v>0.38096728602106</v>
       </c>
       <c r="S30" s="22">
-        <v>6.0174230418863797</v>
+        <v>6.0175677315192297</v>
       </c>
       <c r="T30" s="23">
-        <v>4.5586098189085602</v>
+        <v>4.5587194312087798</v>
       </c>
       <c r="U30" s="23">
         <v>0</v>
       </c>
       <c r="V30" s="23">
-        <v>7.4778985229350003E-2</v>
+        <v>7.4780783298699999E-2</v>
       </c>
       <c r="W30" s="23">
-        <v>0.14901684753212999</v>
+        <v>0.14902043065946</v>
       </c>
       <c r="X30" s="22">
-        <v>4.4095929713764299</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+        <v>4.4096990005493204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>81</v>
       </c>
@@ -3624,40 +3624,40 @@
         <v>86.171443643610004</v>
       </c>
       <c r="N31" s="22">
-        <v>1.4866710958304299</v>
+        <v>1.4881372643789299</v>
       </c>
       <c r="O31" s="23">
-        <v>0.25984872200673997</v>
+        <v>0.26010498717840003</v>
       </c>
       <c r="P31" s="23">
-        <v>1.0582231759049999E-2</v>
+        <v>1.0592668052200001E-2</v>
       </c>
       <c r="Q31" s="23">
-        <v>3.2510965374960003E-2</v>
+        <v>3.2543027984530001E-2</v>
       </c>
       <c r="R31" s="23">
-        <v>5.3551888767140003E-2</v>
+        <v>5.3604702126630002E-2</v>
       </c>
       <c r="S31" s="22">
-        <v>0.20629683323959</v>
+        <v>0.20650028505177001</v>
       </c>
       <c r="T31" s="23">
-        <v>0.87172039689297998</v>
+        <v>0.87258009547230997</v>
       </c>
       <c r="U31" s="23">
-        <v>1.7599465866399999E-3</v>
+        <v>1.76168226196E-3</v>
       </c>
       <c r="V31" s="23">
-        <v>5.6432059384900002E-3</v>
+        <v>5.6487713194800001E-3</v>
       </c>
       <c r="W31" s="23">
-        <v>3.9564337820129997E-2</v>
+        <v>3.9603356529720003E-2</v>
       </c>
       <c r="X31" s="22">
-        <v>0.83215605907284995</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+        <v>0.83297673894257995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>83</v>
       </c>
@@ -3698,40 +3698,40 @@
         <v>86.850172751719995</v>
       </c>
       <c r="N32" s="22">
-        <v>13.4757846144313</v>
+        <v>12.1463202999464</v>
       </c>
       <c r="O32" s="23">
-        <v>9.8079731700831996</v>
+        <v>8.8403597286300908</v>
       </c>
       <c r="P32" s="23">
         <v>0</v>
       </c>
       <c r="Q32" s="23">
-        <v>0.54019742069653998</v>
+        <v>0.48690381189074</v>
       </c>
       <c r="R32" s="23">
-        <v>1.21162907694834</v>
+        <v>1.09209484081414</v>
       </c>
       <c r="S32" s="22">
-        <v>8.59634409313486</v>
+        <v>7.7482648878159397</v>
       </c>
       <c r="T32" s="23">
-        <v>5.3227675561340799</v>
+        <v>4.7976456635950697</v>
       </c>
       <c r="U32" s="23">
         <v>0</v>
       </c>
       <c r="V32" s="23">
-        <v>1.752639617194E-2</v>
+        <v>1.579731553294E-2</v>
       </c>
       <c r="W32" s="23">
-        <v>0.16174567542258</v>
+        <v>0.14578852638456999</v>
       </c>
       <c r="X32" s="22">
-        <v>5.1610218807115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+        <v>4.6518571372105004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>85</v>
       </c>
@@ -3772,40 +3772,40 @@
         <v>11.011435108240001</v>
       </c>
       <c r="N33" s="22">
-        <v>0.40658195836546002</v>
+        <v>0.27990276008492998</v>
       </c>
       <c r="O33" s="23">
-        <v>7.622984615285E-2</v>
+        <v>5.2478827208199998E-2</v>
       </c>
       <c r="P33" s="23">
-        <v>1.05724447186E-3</v>
+        <v>7.2783762207999998E-4</v>
       </c>
       <c r="Q33" s="23">
-        <v>2.9666733693100001E-3</v>
+        <v>2.0423436093400002E-3</v>
       </c>
       <c r="R33" s="23">
-        <v>9.2732686815699995E-3</v>
+        <v>6.38398592357E-3</v>
       </c>
       <c r="S33" s="22">
-        <v>6.6956577471280004E-2</v>
+        <v>4.6094841284629998E-2</v>
       </c>
       <c r="T33" s="23">
-        <v>0.17773215878241999</v>
+        <v>0.12235595007473</v>
       </c>
       <c r="U33" s="23">
-        <v>4.0998416345000002E-4</v>
+        <v>2.8224493630999998E-4</v>
       </c>
       <c r="V33" s="23">
-        <v>1.2113062205099999E-3</v>
+        <v>8.3389817834000001E-4</v>
       </c>
       <c r="W33" s="23">
-        <v>7.9336220323799993E-3</v>
+        <v>5.4617344883200001E-3</v>
       </c>
       <c r="X33" s="22">
-        <v>0.16979853675004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+        <v>0.11689421558641</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>87</v>
       </c>
@@ -3846,40 +3846,40 @@
         <v>230.49021990700001</v>
       </c>
       <c r="N34" s="33">
-        <v>14.2759308801343</v>
+        <v>14.2745276953511</v>
       </c>
       <c r="O34" s="34">
-        <v>0.28427957051014002</v>
+        <v>0.28425162860072001</v>
       </c>
       <c r="P34" s="34">
-        <v>5.2109927288399999E-3</v>
+        <v>5.2104805390700004E-3</v>
       </c>
       <c r="Q34" s="34">
-        <v>7.6246631540600003E-3</v>
+        <v>7.6239137240300004E-3</v>
       </c>
       <c r="R34" s="34">
-        <v>3.063089800836E-2</v>
+        <v>3.0627887289809998E-2</v>
       </c>
       <c r="S34" s="33">
-        <v>0.25364867250178003</v>
+        <v>0.25362374131090998</v>
       </c>
       <c r="T34" s="34">
-        <v>6.0301367753982902</v>
+        <v>6.0295440717606397</v>
       </c>
       <c r="U34" s="34">
-        <v>1.594091834522E-2</v>
+        <v>1.5939351508409999E-2</v>
       </c>
       <c r="V34" s="34">
-        <v>4.1236980616380002E-2</v>
+        <v>4.1232927423339998E-2</v>
       </c>
       <c r="W34" s="34">
-        <v>0.33001617513126003</v>
+        <v>0.32998373775964002</v>
       </c>
       <c r="X34" s="33">
-        <v>5.7001206002670299</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+        <v>5.6995603340009904</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>89</v>
       </c>
@@ -3920,40 +3920,40 @@
         <v>618.22912546299995</v>
       </c>
       <c r="N35" s="22">
-        <v>0.43216440164928999</v>
+        <v>0.43187846126362001</v>
       </c>
       <c r="O35" s="23">
-        <v>3.3812330401799999E-3</v>
+        <v>3.3789958566500002E-3</v>
       </c>
       <c r="P35" s="23">
-        <v>6.0169025219999997E-5</v>
+        <v>6.0129214549999999E-5</v>
       </c>
       <c r="Q35" s="23">
-        <v>9.2176510869999996E-5</v>
+        <v>9.2115522539999993E-5</v>
       </c>
       <c r="R35" s="23">
-        <v>3.4837394971999998E-4</v>
+        <v>3.4814344905999999E-4</v>
       </c>
       <c r="S35" s="22">
-        <v>3.0328590904599999E-3</v>
+        <v>3.0308524075999999E-3</v>
       </c>
       <c r="T35" s="23">
-        <v>1.88122338492437</v>
+        <v>1.8799786786548001</v>
       </c>
       <c r="U35" s="23">
-        <v>4.41927164376E-3</v>
+        <v>4.4163476448499999E-3</v>
       </c>
       <c r="V35" s="23">
-        <v>2.3556348215200001E-3</v>
+        <v>2.3540762222399999E-3</v>
       </c>
       <c r="W35" s="23">
-        <v>3.9270053517610003E-2</v>
+        <v>3.9244070594889997E-2</v>
       </c>
       <c r="X35" s="22">
-        <v>1.84195333140676</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
+        <v>1.8407346080599101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>91</v>
       </c>
@@ -3994,40 +3994,40 @@
         <v>2409.4309275340001</v>
       </c>
       <c r="N36" s="22">
-        <v>2.5692104127817301</v>
+        <v>2.5692080855340098</v>
       </c>
       <c r="O36" s="23">
-        <v>0.26982369363351999</v>
+        <v>0.26982344922124002</v>
       </c>
       <c r="P36" s="23">
-        <v>3.3102941453060003E-2</v>
+        <v>3.3102911467689997E-2</v>
       </c>
       <c r="Q36" s="23">
-        <v>3.2759836952879998E-2</v>
+        <v>3.2759807278300003E-2</v>
       </c>
       <c r="R36" s="23">
-        <v>4.0304273774779999E-2</v>
+        <v>4.0304237266269999E-2</v>
       </c>
       <c r="S36" s="22">
-        <v>0.22951941985874</v>
+        <v>0.22951921195496999</v>
       </c>
       <c r="T36" s="23">
-        <v>4.1853404449178697</v>
+        <v>4.18533665374376</v>
       </c>
       <c r="U36" s="23">
-        <v>6.3332564740240002E-2</v>
+        <v>6.3332507372200003E-2</v>
       </c>
       <c r="V36" s="23">
-        <v>1.652308574835E-2</v>
+        <v>1.6523070781370001E-2</v>
       </c>
       <c r="W36" s="23">
-        <v>0.21599379485956</v>
+        <v>0.21599359920759001</v>
       </c>
       <c r="X36" s="22">
-        <v>3.9693466500583101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>3.9693430545361701</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>93</v>
       </c>
@@ -4068,40 +4068,40 @@
         <v>283.81099826044999</v>
       </c>
       <c r="N37" s="22">
-        <v>2.49741450171391</v>
+        <v>2.5081017602195699</v>
       </c>
       <c r="O37" s="23">
-        <v>0.23780981158277001</v>
+        <v>0.23882747802533999</v>
       </c>
       <c r="P37" s="23">
-        <v>6.1127091537650002E-2</v>
+        <v>6.1388674478139997E-2</v>
       </c>
       <c r="Q37" s="23">
-        <v>6.190939454588E-2</v>
+        <v>6.2174325218379997E-2</v>
       </c>
       <c r="R37" s="23">
-        <v>7.7655738941009994E-2</v>
+        <v>7.7988053402999996E-2</v>
       </c>
       <c r="S37" s="22">
-        <v>0.16015407264175999</v>
+        <v>0.16083942462233</v>
       </c>
       <c r="T37" s="23">
-        <v>0.79099326441059004</v>
+        <v>0.79437818489022005</v>
       </c>
       <c r="U37" s="23">
-        <v>1.2902740328809999E-2</v>
+        <v>1.295795540073E-2</v>
       </c>
       <c r="V37" s="23">
-        <v>1.1964788388180001E-2</v>
+        <v>1.201598965508E-2</v>
       </c>
       <c r="W37" s="23">
-        <v>4.5204720908620002E-2</v>
+        <v>4.5398166785419997E-2</v>
       </c>
       <c r="X37" s="22">
-        <v>0.74578854350196999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>0.74898001810479997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
         <v>45</v>
       </c>
@@ -4142,40 +4142,40 @@
         <v>7840.9599313137096</v>
       </c>
       <c r="N38" s="28">
-        <v>4.0455557648008797</v>
+        <v>4.0164443267610999</v>
       </c>
       <c r="O38" s="29">
-        <v>0.52684104453539005</v>
+        <v>0.52317994373942001</v>
       </c>
       <c r="P38" s="29">
-        <v>1.2812710148990001E-2</v>
+        <v>1.273481240048E-2</v>
       </c>
       <c r="Q38" s="29">
-        <v>1.99930545659E-2</v>
+        <v>1.9871831030559998E-2</v>
       </c>
       <c r="R38" s="29">
-        <v>4.7784569961609999E-2</v>
+        <v>4.7475224302680002E-2</v>
       </c>
       <c r="S38" s="28">
-        <v>0.47905647457377998</v>
+        <v>0.47570471943673998</v>
       </c>
       <c r="T38" s="29">
-        <v>2.0752159885575798</v>
+        <v>2.0597897614768699</v>
       </c>
       <c r="U38" s="29">
-        <v>2.0940843896149999E-2</v>
+        <v>2.078932744462E-2</v>
       </c>
       <c r="V38" s="29">
-        <v>1.9825613651010002E-2</v>
+        <v>1.9683730458670001E-2</v>
       </c>
       <c r="W38" s="29">
-        <v>8.0008607410269994E-2</v>
+        <v>7.9423099885290005E-2</v>
       </c>
       <c r="X38" s="28">
-        <v>1.9952073811473101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
+        <v>1.98036666159158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>96</v>
       </c>
@@ -4216,40 +4216,40 @@
         <v>32620.545201426001</v>
       </c>
       <c r="N39" s="33">
-        <v>26.584882303324399</v>
+        <v>26.5848094924653</v>
       </c>
       <c r="O39" s="34">
-        <v>4.69127978884468</v>
+        <v>4.6912669403352396</v>
       </c>
       <c r="P39" s="34">
-        <v>1.0602066049239999E-2</v>
+        <v>1.060203701223E-2</v>
       </c>
       <c r="Q39" s="34">
-        <v>8.5233061429649995E-2</v>
+        <v>8.5232827992750004E-2</v>
       </c>
       <c r="R39" s="34">
-        <v>0.13281684558269</v>
+        <v>0.13281648182299999</v>
       </c>
       <c r="S39" s="33">
-        <v>4.5584629432619899</v>
+        <v>4.5584504585122403</v>
       </c>
       <c r="T39" s="34">
-        <v>19.068433747425999</v>
+        <v>19.068381522668101</v>
       </c>
       <c r="U39" s="34">
-        <v>3.0641428022820001E-2</v>
+        <v>3.0641344101869999E-2</v>
       </c>
       <c r="V39" s="34">
-        <v>3.2711588778129998E-2</v>
+        <v>3.2711499187410002E-2</v>
       </c>
       <c r="W39" s="34">
-        <v>6.6823393412889995E-2</v>
+        <v>6.6823210396520005E-2</v>
       </c>
       <c r="X39" s="33">
-        <v>19.001610354013099</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+        <v>19.001558312271602</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>98</v>
       </c>
@@ -4290,40 +4290,40 @@
         <v>10102.987369348</v>
       </c>
       <c r="N40" s="22">
-        <v>7.0184578079580504</v>
+        <v>7.0184652745883902</v>
       </c>
       <c r="O40" s="23">
-        <v>1.046128611983</v>
+        <v>1.04612972491348</v>
       </c>
       <c r="P40" s="23">
-        <v>4.9838015643900004E-3</v>
+        <v>4.98380686644E-3</v>
       </c>
       <c r="Q40" s="23">
-        <v>2.59643510699E-3</v>
+        <v>2.5964378692300001E-3</v>
       </c>
       <c r="R40" s="23">
-        <v>1.506588309442E-2</v>
+        <v>1.5065899122350001E-2</v>
       </c>
       <c r="S40" s="22">
-        <v>1.0310627288885801</v>
+        <v>1.03106382579113</v>
       </c>
       <c r="T40" s="23">
-        <v>3.2529511990826099</v>
+        <v>3.25295465975513</v>
       </c>
       <c r="U40" s="23">
-        <v>1.3973051895299999E-2</v>
+        <v>1.397306676062E-2</v>
       </c>
       <c r="V40" s="23">
-        <v>5.4245597445969997E-2</v>
+        <v>5.424565515549E-2</v>
       </c>
       <c r="W40" s="23">
-        <v>7.4855160392669998E-2</v>
+        <v>7.4855240027800002E-2</v>
       </c>
       <c r="X40" s="22">
-        <v>3.1780960386899402</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+        <v>3.1780994197273298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>100</v>
       </c>
@@ -4364,40 +4364,40 @@
         <v>7020.6510085442997</v>
       </c>
       <c r="N41" s="33">
-        <v>14.4436938715021</v>
+        <v>14.4356091224018</v>
       </c>
       <c r="O41" s="34">
-        <v>2.2977633146173502</v>
+        <v>2.29647715886968</v>
       </c>
       <c r="P41" s="34">
-        <v>0.10336578402913001</v>
+        <v>0.10330792580831</v>
       </c>
       <c r="Q41" s="34">
-        <v>0.10089557325829999</v>
+        <v>0.1008390977194</v>
       </c>
       <c r="R41" s="34">
-        <v>0.13814757933551999</v>
+        <v>0.13807025226617001</v>
       </c>
       <c r="S41" s="33">
-        <v>2.1596157352818399</v>
+        <v>2.1584069066035201</v>
       </c>
       <c r="T41" s="34">
-        <v>10.188019120295399</v>
+        <v>10.1823164531557</v>
       </c>
       <c r="U41" s="34">
-        <v>2.5050536485799999E-2</v>
+        <v>2.5036514636259999E-2</v>
       </c>
       <c r="V41" s="34">
-        <v>2.9562064320019999E-2</v>
+        <v>2.9545517176680001E-2</v>
       </c>
       <c r="W41" s="34">
-        <v>4.860952723847E-2</v>
+        <v>4.8582318420900002E-2</v>
       </c>
       <c r="X41" s="33">
-        <v>10.1394095930569</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+        <v>10.1337341347348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>102</v>
       </c>
@@ -4438,40 +4438,40 @@
         <v>610.96320796676002</v>
       </c>
       <c r="N42" s="33">
-        <v>16.663813278219902</v>
+        <v>16.664339739615599</v>
       </c>
       <c r="O42" s="34">
-        <v>3.4066188201293999</v>
+        <v>3.4067264457531898</v>
       </c>
       <c r="P42" s="34">
-        <v>9.8977155708590003E-2</v>
+        <v>9.8980282703040004E-2</v>
       </c>
       <c r="Q42" s="34">
-        <v>7.1984895024389997E-2</v>
+        <v>7.1987169249850005E-2</v>
       </c>
       <c r="R42" s="34">
-        <v>0.42190475082334</v>
+        <v>0.42191808009919002</v>
       </c>
       <c r="S42" s="33">
-        <v>2.9847140693060701</v>
+        <v>2.9848083656540099</v>
       </c>
       <c r="T42" s="34">
-        <v>7.7016792019184104</v>
+        <v>7.7019225217825102</v>
       </c>
       <c r="U42" s="34">
-        <v>8.4580142482800005E-3</v>
+        <v>8.4582814631099998E-3</v>
       </c>
       <c r="V42" s="34">
-        <v>2.653285920308E-2</v>
+        <v>2.6533697458149999E-2</v>
       </c>
       <c r="W42" s="34">
-        <v>0.12642927805776999</v>
+        <v>0.12643327234966001</v>
       </c>
       <c r="X42" s="33">
-        <v>7.5752499238606497</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+        <v>7.5754892494328603</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>104</v>
       </c>
@@ -4512,40 +4512,40 @@
         <v>7461.051851012</v>
       </c>
       <c r="N43" s="22">
-        <v>13.638274781470299</v>
+        <v>13.638302823456399</v>
       </c>
       <c r="O43" s="23">
-        <v>3.47571901761762</v>
+        <v>3.4757261641274302</v>
       </c>
       <c r="P43" s="23">
-        <v>0.45333042843002003</v>
+        <v>0.45333136053366002</v>
       </c>
       <c r="Q43" s="23">
-        <v>3.4225043885970002E-2</v>
+        <v>3.4225114256910001E-2</v>
       </c>
       <c r="R43" s="23">
-        <v>8.5243158455820006E-2</v>
+        <v>8.5243333726340006E-2</v>
       </c>
       <c r="S43" s="22">
-        <v>3.39047585916181</v>
+        <v>3.3904828304010999</v>
       </c>
       <c r="T43" s="23">
-        <v>5.8246008665371098</v>
+        <v>5.8246128426396204</v>
       </c>
       <c r="U43" s="23">
-        <v>0.38128290126616998</v>
+        <v>0.38128368523115003</v>
       </c>
       <c r="V43" s="23">
-        <v>1.758096835026E-2</v>
+        <v>1.758100449892E-2</v>
       </c>
       <c r="W43" s="23">
-        <v>3.7262586832919997E-2</v>
+        <v>3.7262663449430002E-2</v>
       </c>
       <c r="X43" s="22">
-        <v>5.7873382797041897</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5.7873501791901996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>106</v>
       </c>
@@ -4586,40 +4586,40 @@
         <v>2459.9349235557002</v>
       </c>
       <c r="N44" s="22">
-        <v>18.362334483765402</v>
+        <v>18.362503281231401</v>
       </c>
       <c r="O44" s="23">
-        <v>9.4296181975425597</v>
+        <v>9.4297048801840493</v>
       </c>
       <c r="P44" s="23">
-        <v>8.6477358013890004E-2</v>
+        <v>8.6478152965039995E-2</v>
       </c>
       <c r="Q44" s="23">
-        <v>0.20566008176893</v>
+        <v>0.20566197231833999</v>
       </c>
       <c r="R44" s="23">
-        <v>0.31486336135830001</v>
+        <v>0.31486625576900001</v>
       </c>
       <c r="S44" s="22">
-        <v>9.1147548361842698</v>
+        <v>9.1148386244150394</v>
       </c>
       <c r="T44" s="23">
-        <v>6.0997468847840501</v>
+        <v>6.09980295727408</v>
       </c>
       <c r="U44" s="23">
-        <v>0.16949584793113001</v>
+        <v>0.16949740603746999</v>
       </c>
       <c r="V44" s="23">
-        <v>0.20683124246217999</v>
+        <v>0.20683314377758999</v>
       </c>
       <c r="W44" s="23">
-        <v>0.22953495164191001</v>
+        <v>0.22953706166328</v>
       </c>
       <c r="X44" s="22">
-        <v>5.8702119331421301</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5.8702658956107898</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="24" t="s">
         <v>45</v>
       </c>
@@ -4660,40 +4660,40 @@
         <v>60276.133561852803</v>
       </c>
       <c r="N45" s="28">
-        <v>13.1752180361452</v>
+        <v>13.174405143923201</v>
       </c>
       <c r="O45" s="29">
-        <v>2.70388650608382</v>
+        <v>2.7037272247909598</v>
       </c>
       <c r="P45" s="29">
-        <v>7.5984691017350003E-2</v>
+        <v>7.5977717901449998E-2</v>
       </c>
       <c r="Q45" s="29">
-        <v>4.2473965894910003E-2</v>
+        <v>4.2468487208150003E-2</v>
       </c>
       <c r="R45" s="29">
-        <v>7.7837139435619998E-2</v>
+        <v>7.7829343248090002E-2</v>
       </c>
       <c r="S45" s="28">
-        <v>2.6260493666482101</v>
+        <v>2.62589788154287</v>
       </c>
       <c r="T45" s="29">
-        <v>7.5329434397964503</v>
+        <v>7.5323656380726902</v>
       </c>
       <c r="U45" s="29">
-        <v>7.4487774760240003E-2</v>
+        <v>7.448409062986E-2</v>
       </c>
       <c r="V45" s="29">
-        <v>5.1890232942630003E-2</v>
+        <v>5.1889443837719998E-2</v>
       </c>
       <c r="W45" s="29">
-        <v>7.6036637842679999E-2</v>
+        <v>7.6035033658730003E-2</v>
       </c>
       <c r="X45" s="28">
-        <v>7.4569068019537701</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+        <v>7.4563306044139503</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>109</v>
       </c>
@@ -4734,40 +4734,40 @@
         <v>95.84589154391</v>
       </c>
       <c r="N46" s="22">
-        <v>5.3712482552245602</v>
+        <v>5.37135908838244</v>
       </c>
       <c r="O46" s="23">
-        <v>0.54270358508255001</v>
+        <v>0.54271478351338998</v>
       </c>
       <c r="P46" s="23">
-        <v>2.1279744685230001E-2</v>
+        <v>2.128018378266E-2</v>
       </c>
       <c r="Q46" s="23">
-        <v>6.6822017004309994E-2</v>
+        <v>6.6823395844909997E-2</v>
       </c>
       <c r="R46" s="23">
-        <v>9.6073872251360007E-2</v>
+        <v>9.6075854690099993E-2</v>
       </c>
       <c r="S46" s="22">
-        <v>0.44662971283119002</v>
+        <v>0.44663892882328998</v>
       </c>
       <c r="T46" s="23">
-        <v>0.73273087527606995</v>
+        <v>0.73274599482984004</v>
       </c>
       <c r="U46" s="23">
-        <v>2.61510799652E-2</v>
+        <v>2.6151619580320001E-2</v>
       </c>
       <c r="V46" s="23">
-        <v>3.4515412026540002E-2</v>
+        <v>3.4516124235689997E-2</v>
       </c>
       <c r="W46" s="23">
-        <v>6.6778166477799994E-2</v>
+        <v>6.6779544413560002E-2</v>
       </c>
       <c r="X46" s="22">
-        <v>0.66595270879826995</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+        <v>0.66596645041627001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>111</v>
       </c>
@@ -4808,40 +4808,40 @@
         <v>110.30921465627</v>
       </c>
       <c r="N47" s="22">
-        <v>1.76295431423654</v>
+        <v>1.7630057481921</v>
       </c>
       <c r="O47" s="23">
-        <v>0.28964222319008998</v>
+        <v>0.28965067346307999</v>
       </c>
       <c r="P47" s="23">
-        <v>6.977890988E-3</v>
+        <v>6.97809456703E-3</v>
       </c>
       <c r="Q47" s="23">
-        <v>1.068505837426E-2</v>
+        <v>1.0685370109400001E-2</v>
       </c>
       <c r="R47" s="23">
-        <v>3.2644931159810001E-2</v>
+        <v>3.2645883571290002E-2</v>
       </c>
       <c r="S47" s="22">
-        <v>0.25699729203027999</v>
+        <v>0.25700478989178999</v>
       </c>
       <c r="T47" s="23">
-        <v>0.71782846121677002</v>
+        <v>0.71784940376580997</v>
       </c>
       <c r="U47" s="23">
-        <v>1.6839423972590001E-2</v>
+        <v>1.6839915260519998E-2</v>
       </c>
       <c r="V47" s="23">
-        <v>1.9686325709719999E-2</v>
+        <v>1.9686900055630001E-2</v>
       </c>
       <c r="W47" s="23">
-        <v>3.6043452912040003E-2</v>
+        <v>3.6044504474940002E-2</v>
       </c>
       <c r="X47" s="22">
-        <v>0.68178500830473998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+        <v>0.68180489929086996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>113</v>
       </c>
@@ -4882,40 +4882,40 @@
         <v>36.784705530449997</v>
       </c>
       <c r="N48" s="33">
-        <v>7.1232520395360197</v>
+        <v>6.9352039444195501</v>
       </c>
       <c r="O48" s="34">
-        <v>3.0674055556036799</v>
+        <v>2.9864285287514098</v>
       </c>
       <c r="P48" s="34">
         <v>0</v>
       </c>
       <c r="Q48" s="34">
-        <v>5.5562985996999999E-2</v>
+        <v>5.4096168086059999E-2</v>
       </c>
       <c r="R48" s="34">
-        <v>0.22494952260703999</v>
+        <v>0.21901103706857999</v>
       </c>
       <c r="S48" s="33">
-        <v>2.84245603299664</v>
+        <v>2.76741749168283</v>
       </c>
       <c r="T48" s="34">
-        <v>1.8703356645743401</v>
+        <v>1.8209603150851501</v>
       </c>
       <c r="U48" s="34">
         <v>0</v>
       </c>
       <c r="V48" s="34">
-        <v>2.4491163685430001E-2</v>
+        <v>2.3844616763789999E-2</v>
       </c>
       <c r="W48" s="34">
-        <v>0.17682947748614</v>
+        <v>0.17216132223666</v>
       </c>
       <c r="X48" s="33">
-        <v>1.6935061870882</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
+        <v>1.6487989928485001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>115</v>
       </c>
@@ -4956,40 +4956,40 @@
         <v>2908.0725556932998</v>
       </c>
       <c r="N49" s="22">
-        <v>10.541487943835801</v>
+        <v>10.521948979932599</v>
       </c>
       <c r="O49" s="23">
-        <v>0.40531076183200998</v>
+        <v>0.40455950618506997</v>
       </c>
       <c r="P49" s="23">
-        <v>5.4162086767500003E-3</v>
+        <v>5.4061695716100004E-3</v>
       </c>
       <c r="Q49" s="23">
-        <v>6.9970622376610003E-2</v>
+        <v>6.984092973054E-2</v>
       </c>
       <c r="R49" s="23">
-        <v>8.1617176408849995E-2</v>
+        <v>8.1465896525760001E-2</v>
       </c>
       <c r="S49" s="22">
-        <v>0.32369358542316001</v>
+        <v>0.32309360965930001</v>
       </c>
       <c r="T49" s="23">
-        <v>5.0179572516547397</v>
+        <v>5.0086563174668601</v>
       </c>
       <c r="U49" s="23">
-        <v>1.574425082378E-2</v>
+        <v>1.571506838292E-2</v>
       </c>
       <c r="V49" s="23">
-        <v>6.1711016094109998E-2</v>
+        <v>6.1596632875889998E-2</v>
       </c>
       <c r="W49" s="23">
-        <v>0.15390041369815999</v>
+        <v>0.15361515466794001</v>
       </c>
       <c r="X49" s="22">
-        <v>4.8640568379565901</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
+        <v>4.8550411627989201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>117</v>
       </c>
@@ -5030,40 +5030,40 @@
         <v>30.284849555369998</v>
       </c>
       <c r="N50" s="22">
-        <v>4.2526988704141599</v>
+        <v>4.2527751937984499</v>
       </c>
       <c r="O50" s="23">
-        <v>1.1029734064863299</v>
+        <v>1.10299320160133</v>
       </c>
       <c r="P50" s="23">
-        <v>8.13515853835E-3</v>
+        <v>8.1353045404199999E-3</v>
       </c>
       <c r="Q50" s="23">
-        <v>4.5119821904659997E-2</v>
+        <v>4.5120631672199998E-2</v>
       </c>
       <c r="R50" s="23">
-        <v>0.11924485525587999</v>
+        <v>0.11924699534883999</v>
       </c>
       <c r="S50" s="22">
-        <v>0.98372855123045999</v>
+        <v>0.98374620625248999</v>
       </c>
       <c r="T50" s="23">
-        <v>1.7884530372329399</v>
+        <v>1.78848513468272</v>
       </c>
       <c r="U50" s="23">
-        <v>1.4358911735199999E-3</v>
+        <v>1.4359169435199999E-3</v>
       </c>
       <c r="V50" s="23">
-        <v>2.4773899789199999E-2</v>
+        <v>2.477434440753E-2</v>
       </c>
       <c r="W50" s="23">
-        <v>0.11158116339452</v>
+        <v>0.11158316594683999</v>
       </c>
       <c r="X50" s="22">
-        <v>1.6768718738384201</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
+        <v>1.6769019687358799</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>119</v>
       </c>
@@ -5104,40 +5104,40 @@
         <v>2874.7356993489002</v>
       </c>
       <c r="N51" s="17">
-        <v>6.3804638766192001</v>
+        <v>6.3804295349143398</v>
       </c>
       <c r="O51" s="18">
-        <v>0.43764339063669999</v>
+        <v>0.43764103509947999</v>
       </c>
       <c r="P51" s="18">
-        <v>3.8690873031000002E-3</v>
+        <v>3.86906647843E-3</v>
       </c>
       <c r="Q51" s="18">
-        <v>3.817571961381E-2</v>
+        <v>3.8175514139830002E-2</v>
       </c>
       <c r="R51" s="18">
-        <v>5.6452401381260002E-2</v>
+        <v>5.6452097536320002E-2</v>
       </c>
       <c r="S51" s="17">
-        <v>0.38119098925542999</v>
+        <v>0.38118893756314998</v>
       </c>
       <c r="T51" s="18">
-        <v>4.2540101667904002</v>
+        <v>4.2539872703420398</v>
       </c>
       <c r="U51" s="18">
-        <v>1.1844651304570001E-2</v>
+        <v>1.184458755285E-2</v>
       </c>
       <c r="V51" s="18">
-        <v>2.3027859200009999E-2</v>
+        <v>2.3027735256680001E-2</v>
       </c>
       <c r="W51" s="18">
-        <v>4.8267665096879998E-2</v>
+        <v>4.8267405304810003E-2</v>
       </c>
       <c r="X51" s="17">
-        <v>4.2057425016935204</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
+        <v>4.2057198650372403</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>121</v>
       </c>
@@ -5178,40 +5178,40 @@
         <v>973.05970510453994</v>
       </c>
       <c r="N52" s="22">
-        <v>7.8607280827686896</v>
+        <v>7.8607900022316501</v>
       </c>
       <c r="O52" s="23">
-        <v>0.48607128731524002</v>
+        <v>0.48607511613017002</v>
       </c>
       <c r="P52" s="23">
-        <v>4.9261579976439998E-2</v>
+        <v>4.9261968013089998E-2</v>
       </c>
       <c r="Q52" s="23">
-        <v>5.3318602173600002E-2</v>
+        <v>5.3319022167669997E-2</v>
       </c>
       <c r="R52" s="23">
-        <v>8.8344615544649993E-2</v>
+        <v>8.8345311440900007E-2</v>
       </c>
       <c r="S52" s="22">
-        <v>0.39772667177058002</v>
+        <v>0.39772980468926999</v>
       </c>
       <c r="T52" s="23">
-        <v>7.33225830828661</v>
+        <v>7.3323160649590102</v>
       </c>
       <c r="U52" s="23">
-        <v>1.0423702686880001E-2</v>
+        <v>1.0423784795060001E-2</v>
       </c>
       <c r="V52" s="23">
-        <v>1.5988052295099999E-2</v>
+        <v>1.5988178234029999E-2</v>
       </c>
       <c r="W52" s="23">
-        <v>9.3903474464149997E-2</v>
+        <v>9.3904214147890006E-2</v>
       </c>
       <c r="X52" s="22">
-        <v>7.2383548338224601</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
+        <v>7.2384118508111301</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>123</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>125</v>
       </c>
@@ -5326,40 +5326,40 @@
         <v>238.14603306792</v>
       </c>
       <c r="N54" s="22">
-        <v>12.3712643591827</v>
+        <v>12.3717857142857</v>
       </c>
       <c r="O54" s="23">
-        <v>2.8525145841412001</v>
+        <v>2.8526347960283398</v>
       </c>
       <c r="P54" s="23">
-        <v>2.1494077953630002E-2</v>
+        <v>2.1494983766229998E-2</v>
       </c>
       <c r="Q54" s="23">
-        <v>8.7040901041039995E-2</v>
+        <v>8.7044569155839996E-2</v>
       </c>
       <c r="R54" s="23">
-        <v>0.43491284574319999</v>
+        <v>0.43493117402596998</v>
       </c>
       <c r="S54" s="22">
-        <v>2.4176017383979902</v>
+        <v>2.41770362200235</v>
       </c>
       <c r="T54" s="23">
-        <v>7.8137478925784603</v>
+        <v>7.8140771828772699</v>
       </c>
       <c r="U54" s="23">
-        <v>3.0881782982300002E-3</v>
+        <v>3.08830844156E-3</v>
       </c>
       <c r="V54" s="23">
-        <v>1.343931246593E-2</v>
+        <v>1.343987883117E-2</v>
       </c>
       <c r="W54" s="23">
-        <v>8.2059664037129998E-2</v>
+        <v>8.2063122230519994E-2</v>
       </c>
       <c r="X54" s="22">
-        <v>7.73168822854133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
+        <v>7.73201406064676</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>127</v>
       </c>
@@ -5400,40 +5400,40 @@
         <v>217.17921924428001</v>
       </c>
       <c r="N55" s="22">
-        <v>3.1882073317864599</v>
+        <v>3.1882043863202401</v>
       </c>
       <c r="O55" s="23">
-        <v>0.19784161786884</v>
+        <v>0.19784143509032001</v>
       </c>
       <c r="P55" s="23">
-        <v>2.427235110901E-2</v>
+        <v>2.4272328684679999E-2</v>
       </c>
       <c r="Q55" s="23">
-        <v>3.0201897817349999E-2</v>
+        <v>3.0201869914940001E-2</v>
       </c>
       <c r="R55" s="23">
-        <v>4.1667933987609998E-2</v>
+        <v>4.1667895492159997E-2</v>
       </c>
       <c r="S55" s="22">
-        <v>0.15617368388121999</v>
+        <v>0.15617353959815999</v>
       </c>
       <c r="T55" s="23">
-        <v>1.3483179243847201</v>
+        <v>1.34831667872392</v>
       </c>
       <c r="U55" s="23">
-        <v>3.9613000545820003E-2</v>
+        <v>3.961296394885E-2</v>
       </c>
       <c r="V55" s="23">
-        <v>4.4272538789610003E-2</v>
+        <v>4.4272497887850003E-2</v>
       </c>
       <c r="W55" s="23">
-        <v>9.1565306548529998E-2</v>
+        <v>9.1565221954750003E-2</v>
       </c>
       <c r="X55" s="22">
-        <v>1.2567526178361901</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
+        <v>1.25675145676917</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>129</v>
       </c>
@@ -5474,40 +5474,40 @@
         <v>152.91060180080001</v>
       </c>
       <c r="N56" s="22">
-        <v>3.0599011975985899</v>
+        <v>3.0599047766509302</v>
       </c>
       <c r="O56" s="23">
-        <v>0.68305649625695997</v>
+        <v>0.68305729520267999</v>
       </c>
       <c r="P56" s="23">
-        <v>0.13669835207002001</v>
+        <v>0.13669851196098001</v>
       </c>
       <c r="Q56" s="23">
-        <v>0.19569938857856001</v>
+        <v>0.19569961748084</v>
       </c>
       <c r="R56" s="23">
-        <v>0.23762728117212001</v>
+        <v>0.23762755911589001</v>
       </c>
       <c r="S56" s="22">
-        <v>0.44542921508484001</v>
+        <v>0.44542973608677999</v>
       </c>
       <c r="T56" s="23">
-        <v>1.2336945460172599</v>
+        <v>1.23369598902377</v>
       </c>
       <c r="U56" s="23">
-        <v>2.2661102161799999E-2</v>
+        <v>2.266112866765E-2</v>
       </c>
       <c r="V56" s="23">
-        <v>1.0358791088790001E-2</v>
+        <v>1.035880320508E-2</v>
       </c>
       <c r="W56" s="23">
-        <v>4.9902466221800001E-2</v>
+        <v>4.9902524590849998E-2</v>
       </c>
       <c r="X56" s="22">
-        <v>1.18379207979546</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
+        <v>1.18379346443292</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>131</v>
       </c>
@@ -5548,40 +5548,40 @@
         <v>17689.114260959999</v>
       </c>
       <c r="N57" s="22">
-        <v>6.5285619514193201</v>
+        <v>6.5285682406498298</v>
       </c>
       <c r="O57" s="23">
-        <v>0.28565979791926999</v>
+        <v>0.28566007310703001</v>
       </c>
       <c r="P57" s="23">
-        <v>6.1870659178000001E-4</v>
+        <v>6.1870718781E-4</v>
       </c>
       <c r="Q57" s="23">
-        <v>8.5179883799999998E-4</v>
+        <v>8.5179965856999995E-4</v>
       </c>
       <c r="R57" s="23">
-        <v>5.2266708285399997E-3</v>
+        <v>5.2266758636100004E-3</v>
       </c>
       <c r="S57" s="22">
-        <v>0.28043312709072998</v>
+        <v>0.28043339724341998</v>
       </c>
       <c r="T57" s="23">
-        <v>4.0325970726996498</v>
+        <v>4.0326009574651902</v>
       </c>
       <c r="U57" s="23">
-        <v>6.8721467717300002E-3</v>
+        <v>6.87215339195E-3</v>
       </c>
       <c r="V57" s="23">
-        <v>1.8566579304540001E-2</v>
+        <v>1.856659719048E-2</v>
       </c>
       <c r="W57" s="23">
-        <v>8.5195211517409997E-2</v>
+        <v>8.5195293589440002E-2</v>
       </c>
       <c r="X57" s="22">
-        <v>3.9474018611822301</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
+        <v>3.9474056638757502</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>133</v>
       </c>
@@ -5622,40 +5622,40 @@
         <v>625.07750570235999</v>
       </c>
       <c r="N58" s="22">
-        <v>7.2911738987222696</v>
+        <v>7.2912454603717203</v>
       </c>
       <c r="O58" s="23">
-        <v>1.2051187856966299</v>
+        <v>1.20513061373547</v>
       </c>
       <c r="P58" s="23">
-        <v>1.0254563997479999E-2</v>
+        <v>1.025466464431E-2</v>
       </c>
       <c r="Q58" s="23">
-        <v>0.11293062666144001</v>
+        <v>0.11293173505661</v>
       </c>
       <c r="R58" s="23">
-        <v>0.17817443057703999</v>
+        <v>0.17817617932919999</v>
       </c>
       <c r="S58" s="22">
-        <v>1.02694435511959</v>
+        <v>1.02695443440627</v>
       </c>
       <c r="T58" s="23">
-        <v>2.7777032113439599</v>
+        <v>2.7777304740352999</v>
       </c>
       <c r="U58" s="23">
-        <v>3.0636916992320001E-2</v>
+        <v>3.0637217688530002E-2</v>
       </c>
       <c r="V58" s="23">
-        <v>3.7287296496720003E-2</v>
+        <v>3.728766246529E-2</v>
       </c>
       <c r="W58" s="23">
-        <v>0.10702869422517999</v>
+        <v>0.10702974469387</v>
       </c>
       <c r="X58" s="22">
-        <v>2.6706745171187798</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
+        <v>2.6707007293414202</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>135</v>
       </c>
@@ -5696,40 +5696,40 @@
         <v>96.010529873400003</v>
       </c>
       <c r="N59" s="22">
-        <v>7.44958480445157</v>
+        <v>7.4491752577319597</v>
       </c>
       <c r="O59" s="23">
-        <v>2.7322508224712498</v>
+        <v>2.7321006148568898</v>
       </c>
       <c r="P59" s="23">
-        <v>1.4127172086739999E-2</v>
+        <v>1.4126395434459999E-2</v>
       </c>
       <c r="Q59" s="23">
-        <v>6.262213710424E-2</v>
+        <v>6.2618694403530004E-2</v>
       </c>
       <c r="R59" s="23">
-        <v>0.30363625204023997</v>
+        <v>0.30361955940107999</v>
       </c>
       <c r="S59" s="22">
-        <v>2.4286145704310198</v>
+        <v>2.4284810554558001</v>
       </c>
       <c r="T59" s="23">
-        <v>2.4422068408241899</v>
+        <v>2.4420725786033399</v>
       </c>
       <c r="U59" s="23">
-        <v>5.54729367567E-3</v>
+        <v>5.5469887088899997E-3</v>
       </c>
       <c r="V59" s="23">
-        <v>1.520916333244E-2</v>
+        <v>1.5208327196859999E-2</v>
       </c>
       <c r="W59" s="23">
-        <v>8.5412328866459997E-2</v>
+        <v>8.5407633257240004E-2</v>
       </c>
       <c r="X59" s="22">
-        <v>2.3567945119577298</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2.3566649453460999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>137</v>
       </c>
@@ -5770,40 +5770,40 @@
         <v>135.87613525606</v>
       </c>
       <c r="N60" s="17">
-        <v>8.0925669528337405</v>
+        <v>8.3560717860717908</v>
       </c>
       <c r="O60" s="18">
-        <v>1.6295094279903799</v>
+        <v>1.68256844036371</v>
       </c>
       <c r="P60" s="18">
-        <v>0.15214154833867</v>
+        <v>0.15709548119548</v>
       </c>
       <c r="Q60" s="18">
-        <v>0.25117580728177002</v>
+        <v>0.25935442842842998</v>
       </c>
       <c r="R60" s="18">
-        <v>0.33453997451022999</v>
+        <v>0.34543304474475001</v>
       </c>
       <c r="S60" s="17">
-        <v>1.2949694534801499</v>
+        <v>1.33713539561896</v>
       </c>
       <c r="T60" s="18">
-        <v>2.1889845225244602</v>
+        <v>2.2602607943094499</v>
       </c>
       <c r="U60" s="18">
-        <v>6.8858325309800003E-2</v>
+        <v>7.1100444730439999E-2</v>
       </c>
       <c r="V60" s="18">
-        <v>9.2944389523589993E-2</v>
+        <v>9.5970783497780002E-2</v>
       </c>
       <c r="W60" s="18">
-        <v>0.30722641307422</v>
+        <v>0.31723011711712001</v>
       </c>
       <c r="X60" s="17">
-        <v>1.88175810945023</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1.94303067719234</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="24"/>
       <c r="B61" s="25" t="s">
         <v>139</v>
@@ -5842,40 +5842,40 @@
         <v>26183.406907337601</v>
       </c>
       <c r="N61" s="28">
-        <v>6.6302995590080904</v>
+        <v>6.6288465323384296</v>
       </c>
       <c r="O61" s="29">
-        <v>0.41250263980801</v>
+        <v>0.41291166701019</v>
       </c>
       <c r="P61" s="29">
-        <v>8.1931892772000008E-3</v>
+        <v>8.2326726751800004E-3</v>
       </c>
       <c r="Q61" s="29">
-        <v>2.517166216981E-2</v>
+        <v>2.520303302623E-2</v>
       </c>
       <c r="R61" s="29">
-        <v>4.112010548252E-2</v>
+        <v>4.1176042952740001E-2</v>
       </c>
       <c r="S61" s="28">
-        <v>0.37138253432549001</v>
+        <v>0.37173562405746002</v>
       </c>
       <c r="T61" s="29">
-        <v>3.8390303881510701</v>
+        <v>3.8382356832801401</v>
       </c>
       <c r="U61" s="29">
-        <v>1.151214797898E-2</v>
+        <v>1.152515944064E-2</v>
       </c>
       <c r="V61" s="29">
-        <v>2.4943688971500001E-2</v>
+        <v>2.493948305447E-2</v>
       </c>
       <c r="W61" s="29">
-        <v>8.8417607949069998E-2</v>
+        <v>8.8441758373120002E-2</v>
       </c>
       <c r="X61" s="28">
-        <v>3.7506127802020002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>3.7497939249070198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="36"/>
       <c r="B62" s="37" t="s">
         <v>140</v>
@@ -5914,40 +5914,40 @@
         <v>145934.05073111199</v>
       </c>
       <c r="N62" s="40">
-        <v>11.1005922114961</v>
+        <v>11.079628573743999</v>
       </c>
       <c r="O62" s="41">
-        <v>2.0204493289198102</v>
+        <v>2.0163092520199202</v>
       </c>
       <c r="P62" s="41">
-        <v>5.2579676905550002E-2</v>
+        <v>5.2516761317680002E-2</v>
       </c>
       <c r="Q62" s="41">
-        <v>5.4754179543690003E-2</v>
+        <v>5.4667862255610003E-2</v>
       </c>
       <c r="R62" s="41">
-        <v>9.9162403301769994E-2</v>
+        <v>9.8989913682360001E-2</v>
       </c>
       <c r="S62" s="40">
-        <v>1.92128692561804</v>
+        <v>1.91731933833756</v>
       </c>
       <c r="T62" s="41">
-        <v>5.6879129093536402</v>
+        <v>5.6772880980542801</v>
       </c>
       <c r="U62" s="41">
-        <v>5.2437999093540001E-2</v>
+        <v>5.2339765497359997E-2</v>
       </c>
       <c r="V62" s="41">
-        <v>5.9445439368489998E-2</v>
+        <v>5.9325041396830001E-2</v>
       </c>
       <c r="W62" s="41">
-        <v>0.10538020044026999</v>
+        <v>0.10518297576311</v>
       </c>
       <c r="X62" s="40">
-        <v>5.5825327089133703</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5.5721051222911697</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="36"/>
       <c r="B63" s="42" t="s">
         <v>141</v>
@@ -5986,40 +5986,40 @@
         <v>2702179.4365219502</v>
       </c>
       <c r="N63" s="45">
-        <v>17.089301096659799</v>
+        <v>17.0789422173365</v>
       </c>
       <c r="O63" s="46">
-        <v>7.0500607343422699</v>
+        <v>7.0453591515384097</v>
       </c>
       <c r="P63" s="46">
-        <v>1.35977005075323</v>
+        <v>1.35872862756049</v>
       </c>
       <c r="Q63" s="46">
         <v>0</v>
       </c>
       <c r="R63" s="46">
-        <v>3.9594932990453402</v>
+        <v>3.9570229407775201</v>
       </c>
       <c r="S63" s="45">
-        <v>3.0905674352969301</v>
+        <v>3.08833621076089</v>
       </c>
       <c r="T63" s="46">
-        <v>7.6540168917328</v>
+        <v>7.6497947904535799</v>
       </c>
       <c r="U63" s="46">
-        <v>1.41769575524424</v>
+        <v>1.4168527107715501</v>
       </c>
       <c r="V63" s="46">
         <v>0</v>
       </c>
       <c r="W63" s="46">
-        <v>4.2635375406797102</v>
+        <v>4.2612231200641499</v>
       </c>
       <c r="X63" s="45">
-        <v>3.3904793510530902</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
+        <v>3.38857167038943</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64" s="47"/>
       <c r="B64" s="48" t="s">
         <v>142</v>
@@ -6058,40 +6058,40 @@
         <v>173784.20204953599</v>
       </c>
       <c r="N64" s="40">
-        <v>15.1252177049846</v>
+        <v>15.0060854798443</v>
       </c>
       <c r="O64" s="41">
-        <v>4.4914861169554499</v>
+        <v>4.4505462832575997</v>
       </c>
       <c r="P64" s="41">
-        <v>1.2761736016938601</v>
+        <v>1.26353773961032</v>
       </c>
       <c r="Q64" s="41">
         <v>0</v>
       </c>
       <c r="R64" s="41">
-        <v>1.49677300233657</v>
+        <v>1.48270386708067</v>
       </c>
       <c r="S64" s="40">
-        <v>2.9947131146188801</v>
+        <v>2.9678424161769299</v>
       </c>
       <c r="T64" s="41">
-        <v>4.2766475156343899</v>
+        <v>4.2457729243393896</v>
       </c>
       <c r="U64" s="41">
-        <v>0.53286453815362</v>
+        <v>0.52836183140797</v>
       </c>
       <c r="V64" s="41">
         <v>0</v>
       </c>
       <c r="W64" s="41">
-        <v>0.83176815448307995</v>
+        <v>0.82563201813147002</v>
       </c>
       <c r="X64" s="40">
-        <v>3.4448793611513202</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
+        <v>3.42014090620793</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65" s="47"/>
       <c r="B65" s="37" t="s">
         <v>143</v>
@@ -6130,40 +6130,40 @@
         <v>1014883.9473665101</v>
       </c>
       <c r="N65" s="51">
-        <v>15.333605918319099</v>
+        <v>15.3355086821208</v>
       </c>
       <c r="O65" s="52">
-        <v>3.2899777709171198</v>
+        <v>3.2901616852625102</v>
       </c>
       <c r="P65" s="52">
-        <v>0.38265360681297</v>
+        <v>0.38264202623011001</v>
       </c>
       <c r="Q65" s="52">
         <v>0</v>
       </c>
       <c r="R65" s="52">
-        <v>1.90402623154926</v>
+        <v>1.90418352382026</v>
       </c>
       <c r="S65" s="51">
-        <v>1.3859515393678701</v>
+        <v>1.3859781614422599</v>
       </c>
       <c r="T65" s="52">
-        <v>7.5434438455877997</v>
+        <v>7.5441746439297104</v>
       </c>
       <c r="U65" s="52">
-        <v>0.57346228057746995</v>
+        <v>0.57349550801117999</v>
       </c>
       <c r="V65" s="52">
         <v>0</v>
       </c>
       <c r="W65" s="52">
-        <v>2.9574471403444198</v>
+        <v>2.95784152773505</v>
       </c>
       <c r="X65" s="51">
-        <v>4.5859967052433896</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>4.5863331161946599</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="47"/>
       <c r="B66" s="53" t="s">
         <v>144</v>
@@ -6202,40 +6202,40 @@
         <v>2848113.4872530699</v>
       </c>
       <c r="N66" s="56">
-        <v>16.782122437704299</v>
+        <v>16.770969234555299</v>
       </c>
       <c r="O66" s="57">
-        <v>6.7920770326445199</v>
+        <v>6.7871943696780201</v>
       </c>
       <c r="P66" s="57">
-        <v>1.2927203754830301</v>
+        <v>1.29167462963848</v>
       </c>
       <c r="Q66" s="57">
-        <v>2.8085044317500002E-3</v>
+        <v>2.8063584605399999E-3</v>
       </c>
       <c r="R66" s="57">
-        <v>3.76148546623575</v>
+        <v>3.7589719620140101</v>
       </c>
       <c r="S66" s="56">
-        <v>3.0305915664087699</v>
+        <v>3.0282224076640101</v>
       </c>
       <c r="T66" s="57">
-        <v>7.5531695811930604</v>
+        <v>7.5485367456665999</v>
       </c>
       <c r="U66" s="57">
-        <v>1.3476676315360001</v>
+        <v>1.3468058442856801</v>
       </c>
       <c r="V66" s="57">
-        <v>3.0491330763200001E-3</v>
+        <v>3.0454333675500002E-3</v>
       </c>
       <c r="W66" s="57">
-        <v>4.0502533052972103</v>
+        <v>4.0478740345123798</v>
       </c>
       <c r="X66" s="56">
-        <v>3.5029162758958599</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
+        <v>3.5006627111542201</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67" s="47"/>
       <c r="B67" s="58" t="s">
         <v>145</v>
@@ -6253,7 +6253,7 @@
         <v>418.676826608581</v>
       </c>
       <c r="G67" s="60">
-        <v>758.71921015659495</v>
+        <v>758.71921015659598</v>
       </c>
       <c r="H67" s="59">
         <v>11228.885116527799</v>
@@ -6274,40 +6274,40 @@
         <v>29486.6943419938</v>
       </c>
       <c r="N67" s="61">
-        <v>7.0866304526845303</v>
+        <v>7.0652262617619197</v>
       </c>
       <c r="O67" s="62">
-        <v>1.3587130590762599</v>
+        <v>1.35462406884224</v>
       </c>
       <c r="P67" s="62">
-        <v>3.1314860894669998E-2</v>
+        <v>3.1223218481260001E-2</v>
       </c>
       <c r="Q67" s="62">
-        <v>3.9854756736179997E-2</v>
+        <v>3.9741217539040002E-2</v>
       </c>
       <c r="R67" s="62">
-        <v>7.326581386587E-2</v>
+        <v>7.305757305492E-2</v>
       </c>
       <c r="S67" s="61">
-        <v>1.28544724521039</v>
+        <v>1.2815664957873201</v>
       </c>
       <c r="T67" s="62">
-        <v>3.3462473140218498</v>
+        <v>3.3358620841707198</v>
       </c>
       <c r="U67" s="62">
-        <v>2.544105491896E-2</v>
+        <v>2.5365324970930001E-2</v>
       </c>
       <c r="V67" s="62">
-        <v>6.6907325879179996E-2</v>
+        <v>6.6704727143999998E-2</v>
       </c>
       <c r="W67" s="62">
-        <v>9.8109470890060002E-2</v>
+        <v>9.7816616046739996E-2</v>
       </c>
       <c r="X67" s="61">
-        <v>3.24813784313179</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
+        <v>3.2380454681239699</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68" s="47"/>
       <c r="B68" s="37" t="s">
         <v>146</v>
@@ -6346,40 +6346,40 @@
         <v>54865.192131075899</v>
       </c>
       <c r="N68" s="51">
-        <v>7.8016565585596904</v>
+        <v>7.78451594177651</v>
       </c>
       <c r="O68" s="52">
-        <v>1.2660988211717501</v>
+        <v>1.26373697261476</v>
       </c>
       <c r="P68" s="52">
-        <v>5.0256695100599998E-2</v>
+        <v>5.0174273193909998E-2</v>
       </c>
       <c r="Q68" s="52">
-        <v>2.660659429823E-2</v>
+        <v>2.656160904546E-2</v>
       </c>
       <c r="R68" s="52">
-        <v>4.9231428302489999E-2</v>
+        <v>4.9149241433300003E-2</v>
       </c>
       <c r="S68" s="51">
-        <v>1.2168673928692599</v>
+        <v>1.2145877311814699</v>
       </c>
       <c r="T68" s="52">
-        <v>4.0483532022060702</v>
+        <v>4.03923530499058</v>
       </c>
       <c r="U68" s="52">
-        <v>4.847902733902E-2</v>
+        <v>4.838950638661E-2</v>
       </c>
       <c r="V68" s="52">
-        <v>3.9777697737550001E-2</v>
+        <v>3.9695305379459998E-2</v>
       </c>
       <c r="W68" s="52">
-        <v>8.1648776327549993E-2</v>
+        <v>8.1483015094650002E-2</v>
       </c>
       <c r="X68" s="51">
-        <v>3.96670442587852</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
+        <v>3.9577522898959301</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69" s="47"/>
       <c r="B69" s="37" t="s">
         <v>147</v>
@@ -6418,40 +6418,40 @@
         <v>6935.8148125674597</v>
       </c>
       <c r="N69" s="51">
-        <v>4.1646408635745296</v>
+        <v>4.1678859530348902</v>
       </c>
       <c r="O69" s="52">
-        <v>0.42229201854956999</v>
+        <v>0.42263065517053999</v>
       </c>
       <c r="P69" s="52">
-        <v>2.6699931971900001E-2</v>
+        <v>2.6738200656709999E-2</v>
       </c>
       <c r="Q69" s="52">
-        <v>2.3374697147989999E-2</v>
+        <v>2.3413669923049999E-2</v>
       </c>
       <c r="R69" s="52">
-        <v>5.5341471602879999E-2</v>
+        <v>5.5402990111019998E-2</v>
       </c>
       <c r="S69" s="51">
-        <v>0.36695054694668</v>
+        <v>0.36722766505952997</v>
       </c>
       <c r="T69" s="52">
-        <v>2.6219324280146799</v>
+        <v>2.6232287709540798</v>
       </c>
       <c r="U69" s="52">
-        <v>3.9927892520689998E-2</v>
+        <v>3.9949903725079998E-2</v>
       </c>
       <c r="V69" s="52">
-        <v>2.471732679116E-2</v>
+        <v>2.4737207063070001E-2</v>
       </c>
       <c r="W69" s="52">
-        <v>0.11420458526534</v>
+        <v>0.11426726801247</v>
       </c>
       <c r="X69" s="51">
-        <v>2.5077278427493401</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
+        <v>2.5089615029416099</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70" s="47"/>
       <c r="B70" s="37" t="s">
         <v>148</v>
@@ -6490,40 +6490,40 @@
         <v>14545.8593116712</v>
       </c>
       <c r="N70" s="51">
-        <v>14.540251715799499</v>
+        <v>14.5049061559855</v>
       </c>
       <c r="O70" s="52">
-        <v>1.43135831447965</v>
+        <v>1.4277952374691001</v>
       </c>
       <c r="P70" s="52">
-        <v>4.285126159555E-2</v>
+        <v>4.2759065552749997E-2</v>
       </c>
       <c r="Q70" s="52">
-        <v>4.606328813367E-2</v>
+        <v>4.593976073633E-2</v>
       </c>
       <c r="R70" s="52">
-        <v>0.11046787649625001</v>
+        <v>0.11011559842011</v>
       </c>
       <c r="S70" s="51">
-        <v>1.3208904379833999</v>
+        <v>1.31767963904899</v>
       </c>
       <c r="T70" s="52">
-        <v>6.4001870763818802</v>
+        <v>6.38246410399816</v>
       </c>
       <c r="U70" s="52">
-        <v>2.1053252938570001E-2</v>
+        <v>2.0984130184759999E-2</v>
       </c>
       <c r="V70" s="52">
-        <v>2.9991966526830002E-2</v>
+        <v>2.9885354015060001E-2</v>
       </c>
       <c r="W70" s="52">
-        <v>8.2325981307199994E-2</v>
+        <v>8.2020209320510004E-2</v>
       </c>
       <c r="X70" s="51">
-        <v>6.3178610950746803</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
+        <v>6.30044389467764</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71" s="47"/>
       <c r="B71" s="37" t="s">
         <v>149</v>
@@ -6562,40 +6562,40 @@
         <v>26183.406907337601</v>
       </c>
       <c r="N71" s="51">
-        <v>6.6302995590080904</v>
+        <v>6.6288465323384198</v>
       </c>
       <c r="O71" s="52">
-        <v>0.41250263980801</v>
+        <v>0.41291166701019</v>
       </c>
       <c r="P71" s="52">
-        <v>8.1931892772000008E-3</v>
+        <v>8.2326726751800004E-3</v>
       </c>
       <c r="Q71" s="52">
-        <v>2.517166216981E-2</v>
+        <v>2.520303302623E-2</v>
       </c>
       <c r="R71" s="52">
-        <v>4.112010548252E-2</v>
+        <v>4.1176042952740001E-2</v>
       </c>
       <c r="S71" s="51">
-        <v>0.37138253432549001</v>
+        <v>0.37173562405746002</v>
       </c>
       <c r="T71" s="52">
-        <v>3.8390303881510701</v>
+        <v>3.8382356832801401</v>
       </c>
       <c r="U71" s="52">
-        <v>1.151214797898E-2</v>
+        <v>1.152515944064E-2</v>
       </c>
       <c r="V71" s="52">
-        <v>2.4943688971500001E-2</v>
+        <v>2.493948305447E-2</v>
       </c>
       <c r="W71" s="52">
-        <v>8.8417607949069998E-2</v>
+        <v>8.8441758373120002E-2</v>
       </c>
       <c r="X71" s="51">
-        <v>3.7506127802020002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
+        <v>3.7497939249070198</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72" s="47"/>
       <c r="B72" s="37" t="s">
         <v>150</v>
@@ -6634,40 +6634,40 @@
         <v>4081.4468037392098</v>
       </c>
       <c r="N72" s="51">
-        <v>3.6417444961269401</v>
+        <v>3.6085430388855499</v>
       </c>
       <c r="O72" s="52">
-        <v>0.29482263806202003</v>
+        <v>0.29219514770083999</v>
       </c>
       <c r="P72" s="52">
-        <v>1.024084206785E-2</v>
+        <v>1.0167908507760001E-2</v>
       </c>
       <c r="Q72" s="52">
-        <v>1.142026603248E-2</v>
+        <v>1.1337047459130001E-2</v>
       </c>
       <c r="R72" s="52">
-        <v>2.9100819248459999E-2</v>
+        <v>2.8861082023000001E-2</v>
       </c>
       <c r="S72" s="51">
-        <v>0.26572181881356</v>
+        <v>0.26333406567784001</v>
       </c>
       <c r="T72" s="52">
-        <v>1.5109039453926401</v>
+        <v>1.49670409985789</v>
       </c>
       <c r="U72" s="52">
-        <v>1.5521110699040001E-2</v>
+        <v>1.538210788534E-2</v>
       </c>
       <c r="V72" s="52">
-        <v>1.7601772502819999E-2</v>
+        <v>1.7443683496199999E-2</v>
       </c>
       <c r="W72" s="52">
-        <v>5.183700918465E-2</v>
+        <v>5.1364467859929999E-2</v>
       </c>
       <c r="X72" s="51">
-        <v>1.45906693620798</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
+        <v>1.4453396319979599</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73" s="47"/>
       <c r="B73" s="37" t="s">
         <v>151</v>
@@ -6688,7 +6688,7 @@
         <v>1642.1757982837801</v>
       </c>
       <c r="H73" s="49">
-        <v>25686.237834624899</v>
+        <v>25686.237834625001</v>
       </c>
       <c r="I73" s="50">
         <v>52312.449289904303</v>
@@ -6706,40 +6706,40 @@
         <v>50936.0976717546</v>
       </c>
       <c r="N73" s="51">
-        <v>16.5442649511408</v>
+        <v>16.518150623872199</v>
       </c>
       <c r="O73" s="52">
-        <v>3.65638390741324</v>
+        <v>3.6496022134597799</v>
       </c>
       <c r="P73" s="52">
-        <v>8.6842258572040004E-2</v>
+        <v>8.680905462421E-2</v>
       </c>
       <c r="Q73" s="52">
-        <v>0.12910783755859001</v>
+        <v>0.12900649474615</v>
       </c>
       <c r="R73" s="52">
-        <v>0.22434166843934999</v>
+        <v>0.22410319044193</v>
       </c>
       <c r="S73" s="51">
-        <v>3.43204223897389</v>
+        <v>3.4254990230178501</v>
       </c>
       <c r="T73" s="52">
-        <v>7.1749157950489204</v>
+        <v>7.1641301760478902</v>
       </c>
       <c r="U73" s="52">
-        <v>8.401928151021E-2</v>
+        <v>8.3888975859080006E-2</v>
       </c>
       <c r="V73" s="52">
-        <v>0.13120402054015001</v>
+        <v>0.13103810308520999</v>
       </c>
       <c r="W73" s="52">
-        <v>0.19508816894173001</v>
+        <v>0.19486125909254001</v>
       </c>
       <c r="X73" s="51">
-        <v>6.9798276261071903</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
+        <v>6.9692689169553503</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74" s="47"/>
       <c r="B74" s="37" t="s">
         <v>151</v>
@@ -6778,40 +6778,40 @@
         <v>50173.146192504799</v>
       </c>
       <c r="N74" s="51">
-        <v>20.153774372209</v>
+        <v>20.152690167393501</v>
       </c>
       <c r="O74" s="52">
-        <v>4.5829197032144302</v>
+        <v>4.58275594402153</v>
       </c>
       <c r="P74" s="52">
-        <v>0.15646268408416</v>
+        <v>0.15645539582696999</v>
       </c>
       <c r="Q74" s="52">
-        <v>8.7674296073849994E-2</v>
+        <v>8.7666869691199995E-2</v>
       </c>
       <c r="R74" s="52">
-        <v>0.14898701898705</v>
+        <v>0.14897708209228999</v>
       </c>
       <c r="S74" s="51">
-        <v>4.4339326842273898</v>
+        <v>4.4337788619292402</v>
       </c>
       <c r="T74" s="52">
-        <v>12.3842233114721</v>
+        <v>12.3834444616373</v>
       </c>
       <c r="U74" s="52">
-        <v>0.14307992176977</v>
+        <v>0.14307851822086001</v>
       </c>
       <c r="V74" s="52">
-        <v>4.922047754054E-2</v>
+        <v>4.9218476528099998E-2</v>
       </c>
       <c r="W74" s="52">
-        <v>7.737581732005E-2</v>
+        <v>7.7372430774399995E-2</v>
       </c>
       <c r="X74" s="51">
-        <v>12.306847494152001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>12.3060720308629</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="47"/>
       <c r="B75" s="53" t="s">
         <v>152</v>
@@ -6850,40 +6850,40 @@
         <v>8443.9620299036505</v>
       </c>
       <c r="N75" s="56">
-        <v>20.768824464503599</v>
+        <v>20.757836926959399</v>
       </c>
       <c r="O75" s="57">
-        <v>2.03395740013563</v>
+        <v>2.0314370197606801</v>
       </c>
       <c r="P75" s="57">
-        <v>6.6424181299029994E-2</v>
+        <v>6.6413820875749999E-2</v>
       </c>
       <c r="Q75" s="57">
-        <v>9.7181804853880005E-2</v>
+        <v>9.7123817937189993E-2</v>
       </c>
       <c r="R75" s="57">
-        <v>0.14377054002018</v>
+        <v>0.14345818095957</v>
       </c>
       <c r="S75" s="56">
-        <v>1.8901868601154499</v>
+        <v>1.8879788388011101</v>
       </c>
       <c r="T75" s="57">
-        <v>8.3880187751248698</v>
+        <v>8.3841986240490698</v>
       </c>
       <c r="U75" s="57">
-        <v>6.2720575398770004E-2</v>
+        <v>6.2710871778209998E-2</v>
       </c>
       <c r="V75" s="57">
-        <v>9.5517094913370001E-2</v>
+        <v>9.5491531178139993E-2</v>
       </c>
       <c r="W75" s="57">
-        <v>0.12266050277142999</v>
+        <v>0.12253716345647001</v>
       </c>
       <c r="X75" s="56">
-        <v>8.2653582723534207</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
+        <v>8.2616614605925793</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A76" s="47"/>
       <c r="B76" s="58" t="s">
         <v>153</v>
@@ -6922,40 +6922,40 @@
         <v>175227.039316696</v>
       </c>
       <c r="N76" s="61">
-        <v>29.5321304096246</v>
+        <v>29.533538301959499</v>
       </c>
       <c r="O76" s="62">
-        <v>14.6493597103231</v>
+        <v>14.650234038925801</v>
       </c>
       <c r="P76" s="62">
-        <v>0.80683914174616</v>
+        <v>0.80693147590247005</v>
       </c>
       <c r="Q76" s="62">
         <v>0</v>
       </c>
       <c r="R76" s="62">
-        <v>9.7308903019075697</v>
+        <v>9.7314220702581196</v>
       </c>
       <c r="S76" s="61">
-        <v>4.9184694084155502</v>
+        <v>4.9188119686677396</v>
       </c>
       <c r="T76" s="62">
-        <v>12.6461299348842</v>
+        <v>12.6468232837755</v>
       </c>
       <c r="U76" s="62">
-        <v>0.73110604425579995</v>
+        <v>0.73115237540857003</v>
       </c>
       <c r="V76" s="62">
         <v>0</v>
       </c>
       <c r="W76" s="62">
-        <v>7.4389610096510799</v>
+        <v>7.4394400043417503</v>
       </c>
       <c r="X76" s="61">
-        <v>5.2071689252331499</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
+        <v>5.20738327943375</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A77" s="47"/>
       <c r="B77" s="37" t="s">
         <v>154</v>
@@ -6994,40 +6994,40 @@
         <v>120877.269712744</v>
       </c>
       <c r="N77" s="51">
-        <v>12.008069304008201</v>
+        <v>12.0058106353107</v>
       </c>
       <c r="O77" s="52">
-        <v>2.19383943438736</v>
+        <v>2.1934242200557499</v>
       </c>
       <c r="P77" s="52">
-        <v>0.43836643387815</v>
+        <v>0.43828046336852999</v>
       </c>
       <c r="Q77" s="52">
         <v>0</v>
       </c>
       <c r="R77" s="52">
-        <v>0.52331593989114999</v>
+        <v>0.52321371235873004</v>
       </c>
       <c r="S77" s="51">
-        <v>1.67052349449621</v>
+        <v>1.67021050769702</v>
       </c>
       <c r="T77" s="52">
-        <v>3.9977035227502502</v>
+        <v>3.9969523889558798</v>
       </c>
       <c r="U77" s="52">
-        <v>0.45380203740553998</v>
+        <v>0.45371678817895</v>
       </c>
       <c r="V77" s="52">
         <v>0</v>
       </c>
       <c r="W77" s="52">
-        <v>0.53390460122002004</v>
+        <v>0.53380433043054998</v>
       </c>
       <c r="X77" s="51">
-        <v>3.4637989215302398</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
+        <v>3.4631480585253298</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A78" s="47"/>
       <c r="B78" s="37" t="s">
         <v>154</v>
@@ -7066,40 +7066,40 @@
         <v>365825.71761190199</v>
       </c>
       <c r="N78" s="51">
-        <v>29.8410890492558</v>
+        <v>29.838379344559002</v>
       </c>
       <c r="O78" s="52">
-        <v>21.695757330473899</v>
+        <v>21.694083265993299</v>
       </c>
       <c r="P78" s="52">
-        <v>5.3282187396399401</v>
+        <v>5.3279532314540896</v>
       </c>
       <c r="Q78" s="52">
         <v>0</v>
       </c>
       <c r="R78" s="52">
-        <v>12.846864990660899</v>
+        <v>12.8458540861423</v>
       </c>
       <c r="S78" s="51">
-        <v>8.8488923398129895</v>
+        <v>8.8482291798510797</v>
       </c>
       <c r="T78" s="52">
-        <v>13.5347382571764</v>
+        <v>13.533686346306601</v>
       </c>
       <c r="U78" s="52">
-        <v>5.0756138266472304</v>
+        <v>5.0751830340032003</v>
       </c>
       <c r="V78" s="52">
         <v>0</v>
       </c>
       <c r="W78" s="52">
-        <v>11.306713658380801</v>
+        <v>11.3058305870517</v>
       </c>
       <c r="X78" s="51">
-        <v>2.22802459879561</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2.2278557592549002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="47"/>
       <c r="B79" s="53" t="s">
         <v>155</v>
@@ -7138,40 +7138,40 @@
         <v>1410292.3271423499</v>
       </c>
       <c r="N79" s="56">
-        <v>18.467412815266901</v>
+        <v>18.444819666608701</v>
       </c>
       <c r="O79" s="57">
-        <v>10.066296333681001</v>
+        <v>10.0541915643169</v>
       </c>
       <c r="P79" s="57">
-        <v>2.2403255252474699</v>
+        <v>2.23748671436983</v>
       </c>
       <c r="Q79" s="57">
         <v>0</v>
       </c>
       <c r="R79" s="57">
-        <v>5.5559646252414696</v>
+        <v>5.5495906674090403</v>
       </c>
       <c r="S79" s="56">
-        <v>4.5103317084395096</v>
+        <v>4.5046008969078404</v>
       </c>
       <c r="T79" s="57">
-        <v>7.7445892371954397</v>
+        <v>7.7361281522271899</v>
       </c>
       <c r="U79" s="57">
-        <v>2.14641463466211</v>
+        <v>2.1441032763595098</v>
       </c>
       <c r="V79" s="57">
         <v>0</v>
       </c>
       <c r="W79" s="57">
-        <v>5.20742814471072</v>
+        <v>5.2018364682363902</v>
       </c>
       <c r="X79" s="56">
-        <v>2.5371610924847201</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
+        <v>2.5342916839908001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A80" s="47"/>
       <c r="B80" s="58" t="s">
         <v>156</v>
@@ -7210,40 +7210,40 @@
         <v>51481.590049714003</v>
       </c>
       <c r="N80" s="61">
-        <v>23.0421436931823</v>
+        <v>23.001134326522099</v>
       </c>
       <c r="O80" s="62">
-        <v>3.51934746791484</v>
+        <v>3.5129416612040201</v>
       </c>
       <c r="P80" s="62">
-        <v>3.855993025045E-2</v>
+        <v>3.8497972476780003E-2</v>
       </c>
       <c r="Q80" s="62">
-        <v>8.3774961765719996E-2</v>
+        <v>8.3616355249890001E-2</v>
       </c>
       <c r="R80" s="62">
-        <v>0.14270969637254</v>
+        <v>0.14249186027041999</v>
       </c>
       <c r="S80" s="61">
-        <v>3.3766377715422999</v>
+        <v>3.3704498009336001</v>
       </c>
       <c r="T80" s="62">
-        <v>14.172311886863501</v>
+        <v>14.1435116258753</v>
       </c>
       <c r="U80" s="62">
-        <v>2.1770991553290001E-2</v>
+        <v>2.1723468367759999E-2</v>
       </c>
       <c r="V80" s="62">
-        <v>3.2741895402429999E-2</v>
+        <v>3.2670615575799998E-2</v>
       </c>
       <c r="W80" s="62">
-        <v>7.0514451438420001E-2</v>
+        <v>7.0382745057889995E-2</v>
       </c>
       <c r="X80" s="61">
-        <v>14.1017974354251</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
+        <v>14.0731288808174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A81" s="47"/>
       <c r="B81" s="37" t="s">
         <v>157</v>
@@ -7282,40 +7282,40 @@
         <v>181424.14484618499</v>
       </c>
       <c r="N81" s="51">
-        <v>18.2630471045828</v>
+        <v>18.273855364438301</v>
       </c>
       <c r="O81" s="52">
-        <v>2.8403420663964001</v>
+        <v>2.8419437518918298</v>
       </c>
       <c r="P81" s="52">
-        <v>0.60018639413151997</v>
+        <v>0.60029962606460996</v>
       </c>
       <c r="Q81" s="52">
         <v>0</v>
       </c>
       <c r="R81" s="52">
-        <v>1.4958956552673199</v>
+        <v>1.49669596158636</v>
       </c>
       <c r="S81" s="51">
-        <v>1.3444464111290799</v>
+        <v>1.34524779030548</v>
       </c>
       <c r="T81" s="52">
-        <v>9.4721418436433709</v>
+        <v>9.4761110301721008</v>
       </c>
       <c r="U81" s="52">
-        <v>0.92675226635204</v>
+        <v>0.92692203023548003</v>
       </c>
       <c r="V81" s="52">
         <v>0</v>
       </c>
       <c r="W81" s="52">
-        <v>5.1190853788053801</v>
+        <v>5.1212475955188799</v>
       </c>
       <c r="X81" s="51">
-        <v>4.3530564648379801</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
+        <v>4.35486343465322</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A82" s="47"/>
       <c r="B82" s="37" t="s">
         <v>158</v>
@@ -7354,40 +7354,40 @@
         <v>94452.460681397904</v>
       </c>
       <c r="N82" s="51">
-        <v>9.0529872678686303</v>
+        <v>9.0335393453400101</v>
       </c>
       <c r="O82" s="52">
-        <v>1.76343488283991</v>
+        <v>1.7594420814782801</v>
       </c>
       <c r="P82" s="52">
-        <v>5.4983627732489999E-2</v>
+        <v>5.4922807452909998E-2</v>
       </c>
       <c r="Q82" s="52">
-        <v>4.9778017339229999E-2</v>
+        <v>4.9699429498669997E-2</v>
       </c>
       <c r="R82" s="52">
-        <v>9.1695395961050002E-2</v>
+        <v>9.1523670225009998E-2</v>
       </c>
       <c r="S82" s="51">
-        <v>1.67173948687886</v>
+        <v>1.6679184112532699</v>
       </c>
       <c r="T82" s="52">
-        <v>4.2331021741907904</v>
+        <v>4.2242293045794197</v>
       </c>
       <c r="U82" s="52">
-        <v>5.7696437776480002E-2</v>
+        <v>5.7594443645370003E-2</v>
       </c>
       <c r="V82" s="52">
-        <v>6.4024267230279999E-2</v>
+        <v>6.3899743174669996E-2</v>
       </c>
       <c r="W82" s="52">
-        <v>0.11135859278978</v>
+        <v>0.11115574285047</v>
       </c>
       <c r="X82" s="51">
-        <v>4.1217435814009997</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>4.1130735617289496</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="47"/>
       <c r="B83" s="53" t="s">
         <v>159</v>
@@ -7426,40 +7426,40 @@
         <v>2520755.2916757702</v>
       </c>
       <c r="N83" s="56">
-        <v>16.9804524362908</v>
+        <v>16.968219681744301</v>
       </c>
       <c r="O83" s="57">
-        <v>7.44045374479174</v>
+        <v>7.4348542477509598</v>
       </c>
       <c r="P83" s="57">
-        <v>1.43021089817962</v>
+        <v>1.4290058542492601</v>
       </c>
       <c r="Q83" s="57">
         <v>0</v>
       </c>
       <c r="R83" s="57">
-        <v>4.1879578061901901</v>
+        <v>4.1850007165536196</v>
       </c>
       <c r="S83" s="56">
-        <v>3.25249593860155</v>
+        <v>3.24985353119735</v>
       </c>
       <c r="T83" s="57">
-        <v>7.4854110229477504</v>
+        <v>7.4805654491033202</v>
       </c>
       <c r="U83" s="57">
-        <v>1.4632239536125999</v>
+        <v>1.4622504598422099</v>
       </c>
       <c r="V83" s="57">
         <v>0</v>
       </c>
       <c r="W83" s="57">
-        <v>4.1841973466062701</v>
+        <v>4.1815318966269999</v>
       </c>
       <c r="X83" s="56">
-        <v>3.3012136763414799</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
+        <v>3.2990335524763199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A84" s="47"/>
       <c r="B84" s="58" t="s">
         <v>160</v>
@@ -7498,40 +7498,40 @@
         <v>9062.87664824485</v>
       </c>
       <c r="N84" s="61">
-        <v>4.5900227277292203</v>
+        <v>4.5618920388446798</v>
       </c>
       <c r="O84" s="62">
-        <v>0.43923935997951002</v>
+        <v>0.43688404319834001</v>
       </c>
       <c r="P84" s="62">
-        <v>4.097915396567E-2</v>
+        <v>4.0769256173300003E-2</v>
       </c>
       <c r="Q84" s="62">
-        <v>5.0514942948030002E-2</v>
+        <v>5.0276823484410003E-2</v>
       </c>
       <c r="R84" s="62">
-        <v>9.1772640272910003E-2</v>
+        <v>9.1284826957879997E-2</v>
       </c>
       <c r="S84" s="61">
-        <v>0.34746671970659998</v>
+        <v>0.34559921624046003</v>
       </c>
       <c r="T84" s="62">
-        <v>2.3016322499563202</v>
+        <v>2.2865084668042699</v>
       </c>
       <c r="U84" s="62">
-        <v>3.1212373084039999E-2</v>
+        <v>3.1024366409500001E-2</v>
       </c>
       <c r="V84" s="62">
-        <v>7.8386347407119999E-2</v>
+        <v>7.7878146933549997E-2</v>
       </c>
       <c r="W84" s="62">
-        <v>0.12893930721095001</v>
+        <v>0.12816748985817999</v>
       </c>
       <c r="X84" s="61">
-        <v>2.1726929427453601</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
+        <v>2.1583409769460902</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A85" s="47"/>
       <c r="B85" s="37" t="s">
         <v>161</v>
@@ -7570,40 +7570,40 @@
         <v>5344.90212032402</v>
       </c>
       <c r="N85" s="51">
-        <v>11.779508444271301</v>
+        <v>11.813616697822701</v>
       </c>
       <c r="O85" s="52">
-        <v>1.38455637966691</v>
+        <v>1.38908042595757</v>
       </c>
       <c r="P85" s="52">
-        <v>8.0557809716520004E-2</v>
+        <v>8.0541419950749996E-2</v>
       </c>
       <c r="Q85" s="52">
         <v>0</v>
       </c>
       <c r="R85" s="52">
-        <v>0.84954474001161995</v>
+        <v>0.85227251695537998</v>
       </c>
       <c r="S85" s="51">
-        <v>0.53501163965528997</v>
+        <v>0.53680790900219</v>
       </c>
       <c r="T85" s="52">
-        <v>4.66462662350476</v>
+        <v>4.6727579716783003</v>
       </c>
       <c r="U85" s="52">
-        <v>0.10502151312638</v>
+        <v>0.10511259663085</v>
       </c>
       <c r="V85" s="52">
         <v>0</v>
       </c>
       <c r="W85" s="52">
-        <v>2.88085632041712</v>
+        <v>2.8893168828851401</v>
       </c>
       <c r="X85" s="51">
-        <v>1.78377030308764</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
+        <v>1.78344108879316</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A86" s="47"/>
       <c r="B86" s="37" t="s">
         <v>162</v>
@@ -7642,40 +7642,40 @@
         <v>93834.822976033698</v>
       </c>
       <c r="N86" s="51">
-        <v>10.6865466525924</v>
+        <v>10.6826976737816</v>
       </c>
       <c r="O86" s="52">
-        <v>1.6873017869893501</v>
+        <v>1.6868879157213901</v>
       </c>
       <c r="P86" s="52">
-        <v>4.7869331322189998E-2</v>
+        <v>4.786051219977E-2</v>
       </c>
       <c r="Q86" s="52">
-        <v>3.6443518289680003E-2</v>
+        <v>3.641988916655E-2</v>
       </c>
       <c r="R86" s="52">
-        <v>6.5666210559369997E-2</v>
+        <v>6.5630272973520004E-2</v>
       </c>
       <c r="S86" s="51">
-        <v>1.6216355764299799</v>
+        <v>1.62125764274786</v>
       </c>
       <c r="T86" s="52">
-        <v>5.8577338208239604</v>
+        <v>5.8553205588073904</v>
       </c>
       <c r="U86" s="52">
-        <v>4.796557519189E-2</v>
+        <v>4.7949265994329998E-2</v>
       </c>
       <c r="V86" s="52">
-        <v>4.1341172291030001E-2</v>
+        <v>4.1316064603750001E-2</v>
       </c>
       <c r="W86" s="52">
-        <v>8.6601364620560006E-2</v>
+        <v>8.6539266317030003E-2</v>
       </c>
       <c r="X86" s="51">
-        <v>5.7711324562033903</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
+        <v>5.7687812924903499</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A87" s="47"/>
       <c r="B87" s="37" t="s">
         <v>163</v>
@@ -7714,40 +7714,40 @@
         <v>239700.60070363499</v>
       </c>
       <c r="N87" s="51">
-        <v>13.9186281571218</v>
+        <v>13.916828514281899</v>
       </c>
       <c r="O87" s="52">
-        <v>2.72769836303666</v>
+        <v>2.7270448070127999</v>
       </c>
       <c r="P87" s="52">
-        <v>0.53723157626413998</v>
+        <v>0.53706899234665995</v>
       </c>
       <c r="Q87" s="52">
         <v>0</v>
       </c>
       <c r="R87" s="52">
-        <v>1.76222028188656</v>
+        <v>1.76191721595402</v>
       </c>
       <c r="S87" s="51">
-        <v>0.96547808115011002</v>
+        <v>0.96512759105878998</v>
       </c>
       <c r="T87" s="52">
-        <v>7.10597332382613</v>
+        <v>7.1053787419115704</v>
       </c>
       <c r="U87" s="52">
-        <v>0.52098888906383001</v>
+        <v>0.52085314450395004</v>
       </c>
       <c r="V87" s="52">
         <v>0</v>
       </c>
       <c r="W87" s="52">
-        <v>3.1997422227447299</v>
+        <v>3.1994951146592898</v>
       </c>
       <c r="X87" s="51">
-        <v>3.9062311010813899</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
+        <v>3.9058836272522699</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A88" s="47"/>
       <c r="B88" s="37" t="s">
         <v>164</v>
@@ -7786,40 +7786,40 @@
         <v>42949.500934081603</v>
       </c>
       <c r="N88" s="51">
-        <v>19.423039617259899</v>
+        <v>19.390339168947499</v>
       </c>
       <c r="O88" s="52">
-        <v>4.9725246776030501</v>
+        <v>4.9637023243185396</v>
       </c>
       <c r="P88" s="52">
-        <v>8.3785769322709994E-2</v>
+        <v>8.3760112415240007E-2</v>
       </c>
       <c r="Q88" s="52">
-        <v>0.13257390438579</v>
+        <v>0.13245298399152999</v>
       </c>
       <c r="R88" s="52">
-        <v>0.24055064238144</v>
+        <v>0.24025685650497</v>
       </c>
       <c r="S88" s="51">
-        <v>4.7319740352216098</v>
+        <v>4.72344546781357</v>
       </c>
       <c r="T88" s="52">
-        <v>8.4476105411184896</v>
+        <v>8.4338998469758106</v>
       </c>
       <c r="U88" s="52">
-        <v>9.248484247114E-2</v>
+        <v>9.2320450634179999E-2</v>
       </c>
       <c r="V88" s="52">
-        <v>0.11419296910927</v>
+        <v>0.11399056812466</v>
       </c>
       <c r="W88" s="52">
-        <v>0.15791315273178999</v>
+        <v>0.15764199285714001</v>
       </c>
       <c r="X88" s="51">
-        <v>8.2896973883867098</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
+        <v>8.2762578541186702</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A89" s="47"/>
       <c r="B89" s="37" t="s">
         <v>165</v>
@@ -7858,40 +7858,40 @@
         <v>951508.81961210805</v>
       </c>
       <c r="N89" s="51">
-        <v>16.056081439272901</v>
+        <v>16.0287947463972</v>
       </c>
       <c r="O89" s="52">
-        <v>4.0780479700412098</v>
+        <v>4.0694679477018898</v>
       </c>
       <c r="P89" s="52">
-        <v>0.64482151384135</v>
+        <v>0.64296823974342998</v>
       </c>
       <c r="Q89" s="52">
         <v>0</v>
       </c>
       <c r="R89" s="52">
-        <v>2.0483451425038099</v>
+        <v>2.0443717053363302</v>
       </c>
       <c r="S89" s="51">
-        <v>2.0297028275373998</v>
+        <v>2.0250962423655698</v>
       </c>
       <c r="T89" s="52">
-        <v>7.0130976254984398</v>
+        <v>7.0024529197401604</v>
       </c>
       <c r="U89" s="52">
-        <v>0.78229415215493003</v>
+        <v>0.78098960493074998</v>
       </c>
       <c r="V89" s="52">
         <v>0</v>
       </c>
       <c r="W89" s="52">
-        <v>3.0982187772747101</v>
+        <v>3.0934572604567201</v>
       </c>
       <c r="X89" s="51">
-        <v>3.91487884822374</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>3.9089956592834598</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="47"/>
       <c r="B90" s="53" t="s">
         <v>166</v>
@@ -7930,40 +7930,40 @@
         <v>1483613.75408447</v>
       </c>
       <c r="N90" s="56">
-        <v>18.741329929426499</v>
+        <v>18.740629624560601</v>
       </c>
       <c r="O90" s="57">
-        <v>10.551595415506799</v>
+        <v>10.550943798330399</v>
       </c>
       <c r="P90" s="57">
-        <v>2.1327645923694099</v>
+        <v>2.1326534477138002</v>
       </c>
       <c r="Q90" s="57">
-        <v>2.5813491369999998E-5</v>
+        <v>2.5993684119999999E-5</v>
       </c>
       <c r="R90" s="57">
-        <v>6.0273159084118104</v>
+        <v>6.0269204990211902</v>
       </c>
       <c r="S90" s="56">
-        <v>4.5242795070950397</v>
+        <v>4.5240232993091603</v>
       </c>
       <c r="T90" s="57">
-        <v>8.1990700813266795</v>
+        <v>8.1986547376001297</v>
       </c>
       <c r="U90" s="57">
-        <v>2.1586663879833998</v>
+        <v>2.1584900094787298</v>
       </c>
       <c r="V90" s="57">
-        <v>8.3750395498899998E-7</v>
+        <v>8.4335020561000004E-7</v>
       </c>
       <c r="W90" s="57">
-        <v>5.4357133871641503</v>
+        <v>5.4354534321339898</v>
       </c>
       <c r="X90" s="56">
-        <v>2.76335669416253</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
+        <v>2.7632013054661502</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A91" s="47"/>
       <c r="B91" s="58" t="s">
         <v>167</v>
@@ -8002,40 +8002,40 @@
         <v>21034.403540349402</v>
       </c>
       <c r="N91" s="61">
-        <v>7.2802245165348296</v>
+        <v>7.2469896021814098</v>
       </c>
       <c r="O91" s="62">
-        <v>0.76407519298477</v>
+        <v>0.76052969909139001</v>
       </c>
       <c r="P91" s="62">
-        <v>4.0471546170969999E-2</v>
+        <v>4.0331792036120001E-2</v>
       </c>
       <c r="Q91" s="62">
-        <v>5.6632258578640002E-2</v>
+        <v>5.643436142173E-2</v>
       </c>
       <c r="R91" s="62">
-        <v>0.10311892375407</v>
+        <v>0.10268378668812</v>
       </c>
       <c r="S91" s="61">
-        <v>0.66095626923070006</v>
+        <v>0.65784591240326995</v>
       </c>
       <c r="T91" s="62">
-        <v>3.5273023387434201</v>
+        <v>3.51076967618777</v>
       </c>
       <c r="U91" s="62">
-        <v>3.001651428625E-2</v>
+        <v>2.9894480551929999E-2</v>
       </c>
       <c r="V91" s="62">
-        <v>6.3883894268140007E-2</v>
+        <v>6.3604841610409996E-2</v>
       </c>
       <c r="W91" s="62">
-        <v>0.12638719590291</v>
+        <v>0.12585521851326001</v>
       </c>
       <c r="X91" s="61">
-        <v>3.40091514284051</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
+        <v>3.38491445767451</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A92" s="47"/>
       <c r="B92" s="37" t="s">
         <v>168</v>
@@ -8074,40 +8074,40 @@
         <v>9004.7237173643898</v>
       </c>
       <c r="N92" s="51">
-        <v>5.9702616435366096</v>
+        <v>5.9747461126272396</v>
       </c>
       <c r="O92" s="52">
-        <v>0.592520140345</v>
+        <v>0.59312056731484997</v>
       </c>
       <c r="P92" s="52">
-        <v>0.15533792857043</v>
+        <v>0.15531723131189001</v>
       </c>
       <c r="Q92" s="52">
         <v>0</v>
       </c>
       <c r="R92" s="52">
-        <v>0.42791880842375002</v>
+        <v>0.42826599432691997</v>
       </c>
       <c r="S92" s="51">
-        <v>0.16460133192123999</v>
+        <v>0.16485457298792</v>
       </c>
       <c r="T92" s="52">
-        <v>2.7205268069076798</v>
+        <v>2.7217444884220598</v>
       </c>
       <c r="U92" s="52">
-        <v>0.44225315103598001</v>
+        <v>0.44217355111623002</v>
       </c>
       <c r="V92" s="52">
         <v>0</v>
       </c>
       <c r="W92" s="52">
-        <v>1.1261057445374001</v>
+        <v>1.1273002068450599</v>
       </c>
       <c r="X92" s="51">
-        <v>1.5944210623702799</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
+        <v>1.5944442815769999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A93" s="47"/>
       <c r="B93" s="37" t="s">
         <v>169</v>
@@ -8146,40 +8146,40 @@
         <v>795.93663918671996</v>
       </c>
       <c r="N93" s="51">
-        <v>13.367916509587999</v>
+        <v>13.192670969463499</v>
       </c>
       <c r="O93" s="52">
-        <v>6.31566164798281</v>
+        <v>6.2444212429182704</v>
       </c>
       <c r="P93" s="52">
         <v>0</v>
       </c>
       <c r="Q93" s="52">
-        <v>0.11841786907702</v>
+        <v>0.117259690949</v>
       </c>
       <c r="R93" s="52">
-        <v>0.43995204356447998</v>
+        <v>0.43435182474331002</v>
       </c>
       <c r="S93" s="51">
-        <v>5.8757096044183204</v>
+        <v>5.8100694181749599</v>
       </c>
       <c r="T93" s="52">
-        <v>4.4033560658367099</v>
+        <v>4.3463769636515801</v>
       </c>
       <c r="U93" s="52">
         <v>0</v>
       </c>
       <c r="V93" s="52">
-        <v>6.4027805417370007E-2</v>
+        <v>6.3340273144820006E-2</v>
       </c>
       <c r="W93" s="52">
-        <v>0.15868562867427</v>
+        <v>0.15652242554599</v>
       </c>
       <c r="X93" s="51">
-        <v>4.2446704371624504</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
+        <v>4.1898545381055996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A94" s="47"/>
       <c r="B94" s="37" t="s">
         <v>170</v>
@@ -8218,40 +8218,40 @@
         <v>33037.377570446501</v>
       </c>
       <c r="N94" s="51">
-        <v>25.3130859192289</v>
+        <v>25.393614107003302</v>
       </c>
       <c r="O94" s="52">
-        <v>46.225719358401903</v>
+        <v>46.269987283545703</v>
       </c>
       <c r="P94" s="52">
-        <v>9.7682478151399996E-3</v>
+        <v>9.7755121619000004E-3</v>
       </c>
       <c r="Q94" s="52">
         <v>0</v>
       </c>
       <c r="R94" s="52">
-        <v>32.089111946370402</v>
+        <v>32.117402824518599</v>
       </c>
       <c r="S94" s="51">
-        <v>14.1366074120315</v>
+        <v>14.1525844590271</v>
       </c>
       <c r="T94" s="52">
-        <v>9.5711234730619008</v>
+        <v>9.5942732029579503</v>
       </c>
       <c r="U94" s="52">
-        <v>4.4776029047500004E-3</v>
+        <v>4.4808663494900003E-3</v>
       </c>
       <c r="V94" s="52">
         <v>0</v>
       </c>
       <c r="W94" s="52">
-        <v>4.4941832914714297</v>
+        <v>4.5078436016548702</v>
       </c>
       <c r="X94" s="51">
-        <v>5.07694018159048</v>
-      </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
+        <v>5.0864296013030801</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A95" s="47"/>
       <c r="B95" s="37" t="s">
         <v>171</v>
@@ -8290,40 +8290,40 @@
         <v>5634.6855966949797</v>
       </c>
       <c r="N95" s="51">
-        <v>5.0438726218192702</v>
+        <v>5.0457338886483303</v>
       </c>
       <c r="O95" s="52">
-        <v>0.51567329459407996</v>
+        <v>0.51585942213421998</v>
       </c>
       <c r="P95" s="52">
-        <v>8.7305094641269995E-2</v>
+        <v>8.7347200109439999E-2</v>
       </c>
       <c r="Q95" s="52">
-        <v>0.10032867065084999</v>
+        <v>0.10037333409651999</v>
       </c>
       <c r="R95" s="52">
-        <v>0.14439818004064001</v>
+        <v>0.14445597841790001</v>
       </c>
       <c r="S95" s="51">
-        <v>0.37127511455343998</v>
+        <v>0.37140344371633</v>
       </c>
       <c r="T95" s="52">
-        <v>1.91279514550257</v>
+        <v>1.91343571553102</v>
       </c>
       <c r="U95" s="52">
-        <v>2.2274673556549999E-2</v>
+        <v>2.2283562777740001E-2</v>
       </c>
       <c r="V95" s="52">
-        <v>9.7318229157120004E-2</v>
+        <v>9.7335921784939994E-2</v>
       </c>
       <c r="W95" s="52">
-        <v>0.13934450953762001</v>
+        <v>0.13938388859310999</v>
       </c>
       <c r="X95" s="51">
-        <v>1.77345063596495</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1.77405182693791</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="47"/>
       <c r="B96" s="53" t="s">
         <v>172</v>
@@ -8362,184 +8362,184 @@
         <v>12512.4443017711</v>
       </c>
       <c r="N96" s="56">
-        <v>14.5536570034068</v>
+        <v>14.5378693448401</v>
       </c>
       <c r="O96" s="57">
-        <v>2.3570106737773702</v>
+        <v>2.3508616042933199</v>
       </c>
       <c r="P96" s="57">
-        <v>0.79769033588891003</v>
+        <v>0.79636712429103995</v>
       </c>
       <c r="Q96" s="57">
         <v>0</v>
       </c>
       <c r="R96" s="57">
-        <v>1.3712322090034601</v>
+        <v>1.36884658377514</v>
       </c>
       <c r="S96" s="56">
-        <v>0.98577846477390996</v>
+        <v>0.98201502051818002</v>
       </c>
       <c r="T96" s="57">
-        <v>5.7522030152323103</v>
+        <v>5.7479276013617602</v>
       </c>
       <c r="U96" s="57">
-        <v>0.99156217617042997</v>
+        <v>0.99054945459583998</v>
       </c>
       <c r="V96" s="57">
         <v>0</v>
       </c>
       <c r="W96" s="57">
-        <v>3.5037690751815802</v>
+        <v>3.5025911285573601</v>
       </c>
       <c r="X96" s="56">
-        <v>2.2484339400507301</v>
-      </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
+        <v>2.2453364728044001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A97" s="47"/>
       <c r="B97" s="58" t="s">
         <v>173</v>
       </c>
       <c r="C97" s="59">
-        <v>102051.91926</v>
+        <v>93120.016619999995</v>
       </c>
       <c r="D97" s="60">
-        <v>9072.8666116061304</v>
+        <v>8212.6333751374004</v>
       </c>
       <c r="E97" s="60">
-        <v>440.09456959800002</v>
+        <v>405.23567268300002</v>
       </c>
       <c r="F97" s="60">
-        <v>541.795290110579</v>
+        <v>521.82964088617905</v>
       </c>
       <c r="G97" s="60">
-        <v>936.47249432058004</v>
+        <v>845.87824792977904</v>
       </c>
       <c r="H97" s="59">
-        <v>8136.3941172855702</v>
+        <v>7366.7551272076298</v>
       </c>
       <c r="I97" s="60">
-        <v>54735.848844231397</v>
+        <v>49734.011558712802</v>
       </c>
       <c r="J97" s="60">
-        <v>310.40346206999999</v>
+        <v>281.57593289800002</v>
       </c>
       <c r="K97" s="60">
-        <v>581.188793792571</v>
+        <v>571.47493577917203</v>
       </c>
       <c r="L97" s="60">
-        <v>1398.8173749288801</v>
+        <v>1282.09969335708</v>
       </c>
       <c r="M97" s="59">
-        <v>53337.031469302499</v>
+        <v>48451.911865355702</v>
       </c>
       <c r="N97" s="61">
-        <v>7.5519865578998404</v>
+        <v>7.9467169567041003</v>
       </c>
       <c r="O97" s="62">
-        <v>0.66984247345013004</v>
+        <v>0.70428140426784003</v>
       </c>
       <c r="P97" s="62">
-        <v>3.2097002668629998E-2</v>
+        <v>3.407593584179E-2</v>
       </c>
       <c r="Q97" s="62">
-        <v>4.0270399032529998E-2</v>
+        <v>4.431487989848E-2</v>
       </c>
       <c r="R97" s="62">
-        <v>6.9976164319500003E-2</v>
+        <v>7.3234243319650005E-2</v>
       </c>
       <c r="S97" s="61">
-        <v>0.59986630913062999</v>
+        <v>0.63104716094819002</v>
       </c>
       <c r="T97" s="62">
-        <v>4.0347479565341704</v>
+        <v>4.1475778108277899</v>
       </c>
       <c r="U97" s="62">
-        <v>2.3281190317789999E-2</v>
+        <v>2.415465388788E-2</v>
       </c>
       <c r="V97" s="62">
-        <v>4.5022884485210003E-2</v>
+        <v>5.0105408858180003E-2</v>
       </c>
       <c r="W97" s="62">
-        <v>0.10612038786673</v>
+        <v>0.11009909513699</v>
       </c>
       <c r="X97" s="61">
-        <v>3.9286275686674399</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>4.0374787156908001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="47"/>
       <c r="B98" s="53" t="s">
         <v>174</v>
       </c>
       <c r="C98" s="54">
-        <v>191938.13930000001</v>
+        <v>154986.9198</v>
       </c>
       <c r="D98" s="55">
-        <v>17567.813165761101</v>
+        <v>14744.426314141099</v>
       </c>
       <c r="E98" s="55">
-        <v>2294.3888873648102</v>
+        <v>1976.8258134648099</v>
       </c>
       <c r="F98" s="55">
         <v>0</v>
       </c>
       <c r="G98" s="55">
-        <v>8050.3823346810304</v>
+        <v>6587.7733024850304</v>
       </c>
       <c r="H98" s="54">
-        <v>9517.4308310800097</v>
+        <v>8156.6530116560798</v>
       </c>
       <c r="I98" s="55">
-        <v>101786.89466269199</v>
+        <v>83079.718968326095</v>
       </c>
       <c r="J98" s="55">
-        <v>6326.2751420699997</v>
+        <v>5955.8849618000004</v>
       </c>
       <c r="K98" s="55">
         <v>0</v>
       </c>
       <c r="L98" s="55">
-        <v>24656.354530340999</v>
+        <v>21107.889466405999</v>
       </c>
       <c r="M98" s="54">
-        <v>77130.5401323509</v>
+        <v>61971.829501920103</v>
       </c>
       <c r="N98" s="56">
-        <v>12.283768580571</v>
+        <v>12.6856069509716</v>
       </c>
       <c r="O98" s="57">
-        <v>1.06861880129992</v>
+        <v>1.1457245744081099</v>
       </c>
       <c r="P98" s="57">
-        <v>0.12243489152258</v>
+        <v>0.13179835399984999</v>
       </c>
       <c r="Q98" s="57">
         <v>0</v>
       </c>
       <c r="R98" s="57">
-        <v>0.50280263376541001</v>
+        <v>0.52356214056701</v>
       </c>
       <c r="S98" s="56">
-        <v>0.56581616753451003</v>
+        <v>0.62216243384110004</v>
       </c>
       <c r="T98" s="57">
-        <v>6.8336990790822503</v>
+        <v>7.1296235530911201</v>
       </c>
       <c r="U98" s="57">
-        <v>0.40955355933984999</v>
+        <v>0.46185380106708002</v>
       </c>
       <c r="V98" s="57">
         <v>0</v>
       </c>
       <c r="W98" s="57">
-        <v>1.8585849654051501</v>
+        <v>1.9532023242543699</v>
       </c>
       <c r="X98" s="56">
-        <v>4.9751141136771002</v>
-      </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
+        <v>5.1764212288367499</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A99" s="63"/>
       <c r="B99" s="64"/>
       <c r="C99" s="39"/>
@@ -8565,7 +8565,7 @@
       <c r="W99" s="39"/>
       <c r="X99" s="39"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>175</v>
       </c>
@@ -8592,7 +8592,7 @@
       <c r="W100" s="65"/>
       <c r="X100" s="65"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>176</v>
       </c>
@@ -8619,7 +8619,7 @@
       <c r="W101" s="65"/>
       <c r="X101" s="65"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>177</v>
       </c>
@@ -8646,7 +8646,7 @@
       <c r="W102" s="65"/>
       <c r="X102" s="65"/>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>178</v>
       </c>
@@ -8673,7 +8673,7 @@
       <c r="W103" s="65"/>
       <c r="X103" s="65"/>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>179</v>
       </c>
@@ -8700,7 +8700,7 @@
       <c r="W104" s="65"/>
       <c r="X104" s="65"/>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C105" s="65"/>
       <c r="D105" s="65"/>
       <c r="E105" s="65"/>
@@ -8724,7 +8724,7 @@
       <c r="W105" s="65"/>
       <c r="X105" s="65"/>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C106" s="65"/>
       <c r="D106" s="65"/>
       <c r="E106" s="65"/>
@@ -8748,7 +8748,7 @@
       <c r="W106" s="65"/>
       <c r="X106" s="65"/>
     </row>
-    <row r="107" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="66" t="s">
         <v>180</v>
       </c>
@@ -8775,7 +8775,7 @@
       <c r="W107" s="65"/>
       <c r="X107" s="65"/>
     </row>
-    <row r="108" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="66"/>
       <c r="C108" s="65"/>
       <c r="D108" s="65"/>
@@ -8800,7 +8800,7 @@
       <c r="W108" s="65"/>
       <c r="X108" s="65"/>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>183</v>
       </c>
@@ -8827,7 +8827,7 @@
       <c r="W109" s="65"/>
       <c r="X109" s="65"/>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>184</v>
       </c>
@@ -8854,7 +8854,7 @@
       <c r="W110" s="65"/>
       <c r="X110" s="65"/>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>185</v>
       </c>
@@ -8881,7 +8881,7 @@
       <c r="W111" s="65"/>
       <c r="X111" s="65"/>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>181</v>
       </c>
@@ -8908,7 +8908,7 @@
       <c r="W112" s="65"/>
       <c r="X112" s="65"/>
     </row>
-    <row r="113" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>182</v>
       </c>
@@ -8935,7 +8935,7 @@
       <c r="W113" s="65"/>
       <c r="X113" s="65"/>
     </row>
-    <row r="114" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="65"/>
       <c r="D114" s="65"/>
@@ -8962,12 +8962,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{6EDA9575-1741-4384-BF33-69275121A039}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{A9D6F6B4-4652-4221-88D2-5506C964EAE5}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{0B996028-2D94-4F8F-8175-EFDC87FA3345}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{A4DFBCCB-178E-4308-8EB1-A1EE7378AC27}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{6BAE7F01-7898-47C9-9BAE-B0E172D4EA43}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{91B14084-EEE2-4138-AF74-16F36FFC1BF2}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{E21FD65C-FA89-4C9E-B906-CC43A9AA5B49}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{6A3B51A3-D50C-4E71-8D96-8DB8E1F1FA6D}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{4515A26C-F1A0-433B-89C9-797C5D07646B}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{27B6B9F1-A3A1-4C4A-94B1-A604C50FF7B8}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{481A502D-005B-4673-868C-113C0423A4BB}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{DB99A7B5-3E8A-4545-896F-C429125A28FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId7"/>
